--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6580043</v>
+        <v>6579579</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,76 +4186,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>3.5</v>
+      </c>
+      <c r="U38">
+        <v>1.875</v>
+      </c>
+      <c r="V38">
         <v>1.925</v>
       </c>
-      <c r="S38">
-        <v>1.775</v>
-      </c>
-      <c r="T38">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.9</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X38">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579579</v>
+        <v>6579824</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,58 +4275,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.75</v>
+      </c>
+      <c r="U39">
         <v>1.975</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.825</v>
       </c>
-      <c r="T39">
-        <v>3.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.875</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6579824</v>
+        <v>6580043</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>1.2</v>
+      </c>
+      <c r="O40">
+        <v>6.5</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>-2.25</v>
+      </c>
+      <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>1.775</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
+        <v>1.9</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>5.5</v>
       </c>
-      <c r="N40">
-        <v>1.363</v>
-      </c>
-      <c r="O40">
-        <v>5.25</v>
-      </c>
-      <c r="P40">
-        <v>5.25</v>
-      </c>
-      <c r="Q40">
-        <v>-1.5</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.75</v>
-      </c>
-      <c r="U40">
-        <v>1.975</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
-      <c r="W40">
-        <v>0.363</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4619,7 +4619,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6598669</v>
+        <v>6598670</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4631,40 +4631,40 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K43">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N43">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O43">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q43">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.875</v>
@@ -4673,22 +4673,22 @@
         <v>1.925</v>
       </c>
       <c r="T43">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4697,10 +4697,10 @@
         <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4708,7 +4708,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6598670</v>
+        <v>6598669</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4720,40 +4720,40 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K44">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L44">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P44">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R44">
         <v>1.875</v>
@@ -4762,22 +4762,22 @@
         <v>1.925</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
@@ -4786,10 +4786,10 @@
         <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
       <c r="J111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N111">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -14231,7 +14231,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -14243,58 +14243,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G151" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>163</v>
       </c>
       <c r="K151">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O151">
         <v>4</v>
       </c>
       <c r="P151">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q151">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -14303,16 +14303,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14320,7 +14320,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14332,58 +14332,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>163</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
         <v>4</v>
       </c>
       <c r="P152">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14392,16 +14392,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -328,10 +328,10 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
-    <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
     <t>TuS Hornau</t>
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6579579</v>
+        <v>6580043</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,76 +4186,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579824</v>
+        <v>6579579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,58 +4275,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6580043</v>
+        <v>6579824</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O40">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X40">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -151,12 +151,12 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>SpVgg NeuIsenburg</t>
+  </si>
+  <si>
     <t>FC Astoria Walldorf II</t>
   </si>
   <si>
-    <t>SpVgg NeuIsenburg</t>
-  </si>
-  <si>
     <t>1 FC Wilmersdorf</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>VfB Bretten</t>
   </si>
   <si>
+    <t>SV Fellbach</t>
+  </si>
+  <si>
     <t>Saar 05 Saarbrcken</t>
   </si>
   <si>
-    <t>SV Fellbach</t>
-  </si>
-  <si>
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>SSC Teutonia 99</t>
   </si>
   <si>
@@ -328,10 +328,10 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
-    <t>BSV HalleAmmendorf</t>
   </si>
   <si>
     <t>TuS Hornau</t>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC158"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474077</v>
+        <v>6478282</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2495,76 +2495,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2584,7 +2584,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6478281</v>
+        <v>6474077</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2673,76 +2673,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6478282</v>
+        <v>6478281</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2762,76 +2762,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N22">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579579</v>
+        <v>6579824</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,58 +4275,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.75</v>
+      </c>
+      <c r="U39">
         <v>1.975</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.825</v>
       </c>
-      <c r="T39">
-        <v>3.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.875</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6579824</v>
+        <v>6579579</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,58 +4364,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>163</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4424,13 +4424,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5168,7 +5168,7 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5598,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6659452</v>
+        <v>6659451</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5613,70 +5613,70 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
+        <v>3.75</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>3.5</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.775</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X54">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6659451</v>
+        <v>6659452</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5702,70 +5702,70 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q68">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
+        <v>-3</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
         <v>3.5</v>
       </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>4</v>
-      </c>
       <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7022,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7037,55 +7037,55 @@
         <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>163</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>1.45</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <v>-1.25</v>
+      </c>
+      <c r="R70">
+        <v>1.925</v>
+      </c>
+      <c r="S70">
+        <v>1.875</v>
+      </c>
+      <c r="T70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>2.7</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>3.5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -7094,13 +7094,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -7111,7 +7111,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7126,55 +7126,55 @@
         <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>163</v>
       </c>
       <c r="K71">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>2.7</v>
+      </c>
+      <c r="N71">
+        <v>1.727</v>
+      </c>
+      <c r="O71">
         <v>4</v>
       </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="N71">
-        <v>1.45</v>
-      </c>
-      <c r="O71">
-        <v>4.5</v>
-      </c>
       <c r="P71">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
+        <v>1.775</v>
+      </c>
+      <c r="S71">
+        <v>2.025</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.925</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>3.5</v>
-      </c>
-      <c r="U71">
-        <v>1.825</v>
-      </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -7183,13 +7183,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0.925</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -8906,7 +8906,7 @@
         <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N112">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14231,7 +14231,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -14243,58 +14243,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
         <v>163</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L151">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M151">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N151">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O151">
         <v>4</v>
       </c>
       <c r="P151">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -14303,16 +14303,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14320,7 +14320,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14332,58 +14332,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G152" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
         <v>163</v>
       </c>
       <c r="K152">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N152">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O152">
         <v>4</v>
       </c>
       <c r="P152">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q152">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14392,16 +14392,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14936,6 +14936,95 @@
       </c>
       <c r="AC158">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7842190</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F159" t="s">
+        <v>90</v>
+      </c>
+      <c r="G159" t="s">
+        <v>107</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>164</v>
+      </c>
+      <c r="K159">
+        <v>3.1</v>
+      </c>
+      <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>1.909</v>
+      </c>
+      <c r="N159">
+        <v>3.1</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
+        <v>1.909</v>
+      </c>
+      <c r="Q159">
+        <v>0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>1.975</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
+        <v>1.8</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>-1</v>
+      </c>
+      <c r="X159">
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>0.909</v>
+      </c>
+      <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -151,12 +151,12 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>FC Astoria Walldorf II</t>
+  </si>
+  <si>
     <t>SpVgg NeuIsenburg</t>
   </si>
   <si>
-    <t>FC Astoria Walldorf II</t>
-  </si>
-  <si>
     <t>1 FC Wilmersdorf</t>
   </si>
   <si>
@@ -238,16 +238,16 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>SSC Teutonia 99</t>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6478282</v>
+        <v>6474077</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2495,76 +2495,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y19">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2584,7 +2584,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6474077</v>
+        <v>6478281</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2673,76 +2673,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K21">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6478281</v>
+        <v>6478282</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2762,76 +2762,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P22">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q22">
+        <v>-1.75</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>4.25</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
+        <v>1.85</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>4.5</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB22">
         <v>-0.5</v>
       </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>3.75</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>0.909</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.8</v>
-      </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6580043</v>
+        <v>6579824</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,76 +4186,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L38">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X38">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579824</v>
+        <v>6579579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,58 +4275,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6579579</v>
+        <v>6580043</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K40">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L40">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O40">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W40">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4797,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6608627</v>
+        <v>6609178</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4809,73 +4809,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4886,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6609178</v>
+        <v>6608627</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4898,73 +4898,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L46">
+        <v>3.9</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>2.8</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
+        <v>1.975</v>
+      </c>
+      <c r="T46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.4</v>
-      </c>
-      <c r="N46">
-        <v>2.4</v>
-      </c>
-      <c r="O46">
-        <v>3.5</v>
-      </c>
-      <c r="P46">
-        <v>2.4</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>1.9</v>
-      </c>
-      <c r="T46">
+      <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
+        <v>1.925</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
         <v>3</v>
       </c>
-      <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
       <c r="Y46">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB46">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5331,7 +5331,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6645987</v>
+        <v>6645986</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5343,13 +5343,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5358,43 +5358,43 @@
         <v>163</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
         <v>4.75</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>4.25</v>
+      </c>
+      <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>1.825</v>
-      </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5403,16 +5403,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5420,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6645986</v>
+        <v>6645987</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5432,13 +5432,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5447,43 +5447,43 @@
         <v>163</v>
       </c>
       <c r="K52">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L52">
         <v>4.75</v>
       </c>
       <c r="M52">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O52">
         <v>4.75</v>
       </c>
       <c r="P52">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5492,16 +5492,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O68">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <v>19</v>
+      </c>
+      <c r="Q68">
+        <v>-3</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
-        <v>2.7</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.825</v>
-      </c>
-      <c r="T68">
-        <v>4</v>
-      </c>
       <c r="U68">
+        <v>1.775</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q69">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7022,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7037,55 +7037,55 @@
         <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>163</v>
       </c>
       <c r="K70">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
+        <v>3.5</v>
+      </c>
+      <c r="M70">
+        <v>2.7</v>
+      </c>
+      <c r="N70">
+        <v>1.727</v>
+      </c>
+      <c r="O70">
         <v>4</v>
       </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>1.45</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
       <c r="P70">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>1.775</v>
+      </c>
+      <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
         <v>1.925</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.825</v>
-      </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
       <c r="W70">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -7094,13 +7094,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
         <v>0.925</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -7111,7 +7111,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7126,55 +7126,55 @@
         <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>163</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>1.45</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.925</v>
+      </c>
+      <c r="S71">
+        <v>1.875</v>
+      </c>
+      <c r="T71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>2.7</v>
-      </c>
-      <c r="N71">
-        <v>1.727</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-      <c r="P71">
-        <v>3.5</v>
-      </c>
-      <c r="Q71">
-        <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.775</v>
-      </c>
-      <c r="S71">
-        <v>2.025</v>
-      </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -7183,13 +7183,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -8906,7 +8906,7 @@
         <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
       <c r="J111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N111">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H157">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -151,12 +151,12 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>SpVgg NeuIsenburg</t>
+  </si>
+  <si>
     <t>FC Astoria Walldorf II</t>
   </si>
   <si>
-    <t>SpVgg NeuIsenburg</t>
-  </si>
-  <si>
     <t>1 FC Wilmersdorf</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>VfB Bretten</t>
   </si>
   <si>
+    <t>Saar 05 Saarbrcken</t>
+  </si>
+  <si>
     <t>SV Fellbach</t>
   </si>
   <si>
-    <t>Saar 05 Saarbrcken</t>
-  </si>
-  <si>
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
-  </si>
-  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -448,10 +448,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
-  </si>
-  <si>
-    <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474077</v>
+        <v>6474078</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2498,73 +2498,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>165</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2572,7 +2572,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6474078</v>
+        <v>6474077</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2587,73 +2587,73 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>165</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
+        <v>4.2</v>
+      </c>
+      <c r="M20">
+        <v>2.375</v>
+      </c>
+      <c r="N20">
+        <v>2.25</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>2.3</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>2.75</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.825</v>
-      </c>
-      <c r="S20">
-        <v>1.975</v>
-      </c>
-      <c r="T20">
-        <v>3.75</v>
-      </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6478281</v>
+        <v>6478282</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2673,76 +2673,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
+        <v>-1.75</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>4.25</v>
+      </c>
+      <c r="U21">
+        <v>1.95</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>4.5</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
-      </c>
-      <c r="T21">
-        <v>3.75</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>0.909</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6478282</v>
+        <v>6478281</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2762,76 +2762,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N22">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6579824</v>
+        <v>6579579</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,58 +4186,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>163</v>
       </c>
       <c r="K38">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -4246,13 +4246,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579579</v>
+        <v>6580043</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,76 +4275,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6580043</v>
+        <v>6579824</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O40">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X40">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5168,7 +5168,7 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5331,7 +5331,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6645986</v>
+        <v>6645987</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5343,13 +5343,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5358,43 +5358,43 @@
         <v>163</v>
       </c>
       <c r="K51">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
         <v>4.75</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
         <v>1.875</v>
       </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5403,16 +5403,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5420,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6645987</v>
+        <v>6645986</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5432,13 +5432,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5447,43 +5447,43 @@
         <v>163</v>
       </c>
       <c r="K52">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L52">
         <v>4.75</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N52">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O52">
         <v>4.75</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
+        <v>1.875</v>
+      </c>
+      <c r="S52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="T52">
+        <v>4.25</v>
+      </c>
+      <c r="U52">
+        <v>1.925</v>
+      </c>
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="T52">
-        <v>3.5</v>
-      </c>
-      <c r="U52">
-        <v>1.825</v>
-      </c>
-      <c r="V52">
-        <v>1.975</v>
-      </c>
       <c r="W52">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5492,16 +5492,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5598,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6659451</v>
+        <v>6659452</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5613,70 +5613,70 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6659452</v>
+        <v>6659451</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5702,70 +5702,70 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>3.75</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.5</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.775</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q68">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
+        <v>-3</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
         <v>3.5</v>
       </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>4</v>
-      </c>
       <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7022,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7034,73 +7034,73 @@
         <v>45094.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
+        <v>3.75</v>
+      </c>
+      <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
+        <v>2.25</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
+        <v>2.5</v>
+      </c>
+      <c r="Q70">
+        <v>-0.25</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>1.75</v>
+      </c>
+      <c r="T70">
         <v>3.5</v>
       </c>
-      <c r="M70">
-        <v>2.7</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>3.5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -7111,7 +7111,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7123,58 +7123,58 @@
         <v>45094.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>163</v>
       </c>
       <c r="K71">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>2.7</v>
+      </c>
+      <c r="N71">
+        <v>1.727</v>
+      </c>
+      <c r="O71">
         <v>4</v>
       </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="N71">
-        <v>1.45</v>
-      </c>
-      <c r="O71">
-        <v>4.5</v>
-      </c>
       <c r="P71">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
+        <v>1.775</v>
+      </c>
+      <c r="S71">
+        <v>2.025</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.925</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>3.5</v>
-      </c>
-      <c r="U71">
-        <v>1.825</v>
-      </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -7183,13 +7183,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0.925</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7200,7 +7200,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7212,73 +7212,73 @@
         <v>45094.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s">
         <v>145</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>163</v>
+      </c>
+      <c r="K72">
+        <v>1.65</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>1.45</v>
+      </c>
+      <c r="O72">
+        <v>4.5</v>
+      </c>
+      <c r="P72">
         <v>5</v>
       </c>
-      <c r="J72" t="s">
-        <v>164</v>
-      </c>
-      <c r="K72">
-        <v>2.25</v>
-      </c>
-      <c r="L72">
-        <v>3.75</v>
-      </c>
-      <c r="M72">
-        <v>2.5</v>
-      </c>
-      <c r="N72">
-        <v>2.25</v>
-      </c>
-      <c r="O72">
-        <v>3.75</v>
-      </c>
-      <c r="P72">
-        <v>2.5</v>
-      </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
         <v>3.5</v>
       </c>
       <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
         <v>1.975</v>
       </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -8357,7 +8357,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8369,73 +8369,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>4</v>
       </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
       <c r="J85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N85">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z85">
+        <v>-1</v>
+      </c>
+      <c r="AA85">
         <v>1</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8446,7 +8446,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8458,73 +8458,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>163</v>
+      </c>
+      <c r="K86">
+        <v>3.75</v>
+      </c>
+      <c r="L86">
+        <v>4.333</v>
+      </c>
+      <c r="M86">
+        <v>1.615</v>
+      </c>
+      <c r="N86">
+        <v>3.75</v>
+      </c>
+      <c r="O86">
+        <v>4.333</v>
+      </c>
+      <c r="P86">
+        <v>1.615</v>
+      </c>
+      <c r="Q86">
+        <v>0.75</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
+        <v>3.75</v>
+      </c>
+      <c r="U86">
+        <v>1.9</v>
+      </c>
+      <c r="V86">
+        <v>1.9</v>
+      </c>
+      <c r="W86">
+        <v>2.75</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86" t="s">
-        <v>164</v>
-      </c>
-      <c r="K86">
-        <v>1.4</v>
-      </c>
-      <c r="L86">
-        <v>4.8</v>
-      </c>
-      <c r="M86">
-        <v>5.25</v>
-      </c>
-      <c r="N86">
-        <v>1.4</v>
-      </c>
-      <c r="O86">
-        <v>5</v>
-      </c>
-      <c r="P86">
-        <v>5</v>
-      </c>
-      <c r="Q86">
-        <v>-1.25</v>
-      </c>
-      <c r="R86">
-        <v>1.8</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>1.925</v>
-      </c>
-      <c r="V86">
-        <v>1.875</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>4</v>
-      </c>
-      <c r="Z86">
-        <v>-1</v>
-      </c>
       <c r="AA86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N112">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -12718,7 +12718,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12730,76 +12730,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G134" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K134">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O134">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X134">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12807,7 +12807,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12819,76 +12819,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+      <c r="K135">
+        <v>2.2</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>2.2</v>
+      </c>
+      <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
+        <v>4.75</v>
+      </c>
+      <c r="P135">
+        <v>2.2</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>163</v>
-      </c>
-      <c r="K135">
-        <v>1.727</v>
-      </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135">
-        <v>3.2</v>
-      </c>
-      <c r="N135">
-        <v>1.727</v>
-      </c>
-      <c r="O135">
-        <v>4.5</v>
-      </c>
-      <c r="P135">
-        <v>3.2</v>
-      </c>
-      <c r="Q135">
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>4.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
+        <v>2.025</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>3.75</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.775</v>
-      </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
-      <c r="T135">
-        <v>3.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
-      <c r="W135">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H157">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -151,15 +151,15 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>1 FC Wilmersdorf</t>
+  </si>
+  <si>
     <t>SpVgg NeuIsenburg</t>
   </si>
   <si>
     <t>FC Astoria Walldorf II</t>
   </si>
   <si>
-    <t>1 FC Wilmersdorf</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -205,21 +205,21 @@
     <t>VfR Fehlheim</t>
   </si>
   <si>
+    <t>FC Olympia Kirrlach</t>
+  </si>
+  <si>
     <t>SKV Rutesheim</t>
   </si>
   <si>
-    <t>FC Olympia Kirrlach</t>
-  </si>
-  <si>
     <t>VfB Bretten</t>
   </si>
   <si>
+    <t>SV Fellbach</t>
+  </si>
+  <si>
     <t>Saar 05 Saarbrcken</t>
   </si>
   <si>
-    <t>SV Fellbach</t>
-  </si>
-  <si>
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
@@ -238,10 +238,10 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
-  </si>
-  <si>
-    <t>Magdeburg II</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474078</v>
+        <v>6478281</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2498,43 +2498,43 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
         <v>1.825</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
       </c>
       <c r="T19">
         <v>3.75</v>
@@ -2546,25 +2546,25 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2572,7 +2572,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6474077</v>
+        <v>6474078</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2587,73 +2587,73 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>165</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6478281</v>
+        <v>6474077</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2765,73 +2765,73 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6579579</v>
+        <v>6580043</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,76 +4186,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>1.2</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6580043</v>
+        <v>6579579</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,76 +4275,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K39">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
+        <v>1.825</v>
+      </c>
+      <c r="T39">
+        <v>3.5</v>
+      </c>
+      <c r="U39">
+        <v>1.875</v>
+      </c>
+      <c r="V39">
         <v>1.925</v>
       </c>
-      <c r="S39">
-        <v>1.775</v>
-      </c>
-      <c r="T39">
-        <v>4</v>
-      </c>
-      <c r="U39">
-        <v>1.9</v>
-      </c>
-      <c r="V39">
-        <v>1.9</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X39">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5153,7 +5153,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6637717</v>
+        <v>6637716</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5168,73 +5168,73 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
+        <v>2.05</v>
+      </c>
+      <c r="S49">
         <v>1.75</v>
-      </c>
-      <c r="R49">
-        <v>1.85</v>
-      </c>
-      <c r="S49">
-        <v>1.95</v>
       </c>
       <c r="T49">
         <v>3.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5242,7 +5242,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6637716</v>
+        <v>6637717</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5257,73 +5257,73 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P50">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5598,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6659452</v>
+        <v>6659451</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5613,70 +5613,70 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N54">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
+        <v>3.75</v>
+      </c>
+      <c r="U54">
         <v>1.85</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>3.5</v>
-      </c>
-      <c r="U54">
-        <v>1.925</v>
-      </c>
-      <c r="V54">
-        <v>1.775</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X54">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6659451</v>
+        <v>6659452</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5702,70 +5702,70 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5969,7 +5969,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O68">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <v>19</v>
+      </c>
+      <c r="Q68">
+        <v>-3</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
-        <v>2.7</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.825</v>
-      </c>
-      <c r="T68">
-        <v>4</v>
-      </c>
       <c r="U68">
+        <v>1.775</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q69">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8013,76 +8013,76 @@
         <v>45168.625</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K81">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N81">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q81">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8090,7 +8090,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8102,76 +8102,76 @@
         <v>45168.625</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P82">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8728,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -9882,7 +9882,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H157">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -151,15 +151,15 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>FC Astoria Walldorf II</t>
+  </si>
+  <si>
+    <t>SpVgg NeuIsenburg</t>
+  </si>
+  <si>
     <t>1 FC Wilmersdorf</t>
   </si>
   <si>
-    <t>SpVgg NeuIsenburg</t>
-  </si>
-  <si>
-    <t>FC Astoria Walldorf II</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -328,10 +328,10 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
-    <t>BSV HalleAmmendorf</t>
   </si>
   <si>
     <t>TuS Hornau</t>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6478281</v>
+        <v>6474077</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2498,73 +2498,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P19">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6478282</v>
+        <v>6478281</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2673,76 +2673,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K21">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N21">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O21">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474077</v>
+        <v>6478282</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2762,76 +2762,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K22">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N22">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P22">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6580043</v>
+        <v>6579824</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,76 +4186,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K38">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L38">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O38">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X38">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6579824</v>
+        <v>6580043</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>1.2</v>
+      </c>
+      <c r="O40">
+        <v>6.5</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>-2.25</v>
+      </c>
+      <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>1.775</v>
+      </c>
+      <c r="T40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
+        <v>1.9</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>5.5</v>
       </c>
-      <c r="N40">
-        <v>1.363</v>
-      </c>
-      <c r="O40">
-        <v>5.25</v>
-      </c>
-      <c r="P40">
-        <v>5.25</v>
-      </c>
-      <c r="Q40">
-        <v>-1.5</v>
-      </c>
-      <c r="R40">
-        <v>1.9</v>
-      </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>3.75</v>
-      </c>
-      <c r="U40">
-        <v>1.975</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
-      <c r="W40">
-        <v>0.363</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4619,7 +4619,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6598670</v>
+        <v>6598669</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4631,40 +4631,40 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L43">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R43">
         <v>1.875</v>
@@ -4673,22 +4673,22 @@
         <v>1.925</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4697,10 +4697,10 @@
         <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4708,7 +4708,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6598669</v>
+        <v>6598670</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4720,40 +4720,40 @@
         <v>45049.60416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N44">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
         <v>1.875</v>
@@ -4762,22 +4762,22 @@
         <v>1.925</v>
       </c>
       <c r="T44">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z44">
         <v>-1</v>
@@ -4786,10 +4786,10 @@
         <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5331,7 +5331,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6645987</v>
+        <v>6645986</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5343,13 +5343,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5358,43 +5358,43 @@
         <v>163</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O51">
         <v>4.75</v>
       </c>
       <c r="P51">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
         <v>1.925</v>
       </c>
-      <c r="S51">
+      <c r="T51">
+        <v>4.25</v>
+      </c>
+      <c r="U51">
+        <v>1.925</v>
+      </c>
+      <c r="V51">
         <v>1.875</v>
       </c>
-      <c r="T51">
-        <v>3.5</v>
-      </c>
-      <c r="U51">
-        <v>1.825</v>
-      </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5403,16 +5403,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5420,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6645986</v>
+        <v>6645987</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5432,13 +5432,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5447,43 +5447,43 @@
         <v>163</v>
       </c>
       <c r="K52">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L52">
         <v>4.75</v>
       </c>
       <c r="M52">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O52">
         <v>4.75</v>
       </c>
       <c r="P52">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.925</v>
-      </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5492,16 +5492,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5969,7 +5969,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8013,76 +8013,76 @@
         <v>45168.625</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M81">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P81">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8090,7 +8090,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8102,76 +8102,76 @@
         <v>45168.625</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K82">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N82">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O82">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q82">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X82">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8728,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -9882,7 +9882,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
       <c r="J111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M111">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N111">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
       <c r="J112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -12718,7 +12718,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12730,76 +12730,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G134" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+      <c r="K134">
+        <v>2.2</v>
+      </c>
+      <c r="L134">
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <v>2.2</v>
+      </c>
+      <c r="N134">
+        <v>2.2</v>
+      </c>
+      <c r="O134">
+        <v>4.75</v>
+      </c>
+      <c r="P134">
+        <v>2.2</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
-      <c r="J134" t="s">
-        <v>163</v>
-      </c>
-      <c r="K134">
-        <v>1.727</v>
-      </c>
-      <c r="L134">
-        <v>4.5</v>
-      </c>
-      <c r="M134">
-        <v>3.2</v>
-      </c>
-      <c r="N134">
-        <v>1.727</v>
-      </c>
-      <c r="O134">
-        <v>4.5</v>
-      </c>
-      <c r="P134">
-        <v>3.2</v>
-      </c>
-      <c r="Q134">
+      <c r="R134">
+        <v>1.9</v>
+      </c>
+      <c r="S134">
+        <v>1.9</v>
+      </c>
+      <c r="T134">
+        <v>4.25</v>
+      </c>
+      <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
+        <v>2.025</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>3.75</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>-0</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="R134">
-        <v>1.775</v>
-      </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
-      <c r="T134">
-        <v>3.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
-      <c r="W134">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12807,7 +12807,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12819,76 +12819,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G135" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K135">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M135">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N135">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O135">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X135">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -154,12 +154,12 @@
     <t>FC Astoria Walldorf II</t>
   </si>
   <si>
+    <t>1 FC Wilmersdorf</t>
+  </si>
+  <si>
     <t>SpVgg NeuIsenburg</t>
   </si>
   <si>
-    <t>1 FC Wilmersdorf</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -205,21 +205,21 @@
     <t>VfR Fehlheim</t>
   </si>
   <si>
+    <t>SKV Rutesheim</t>
+  </si>
+  <si>
     <t>FC Olympia Kirrlach</t>
   </si>
   <si>
-    <t>SKV Rutesheim</t>
-  </si>
-  <si>
     <t>VfB Bretten</t>
   </si>
   <si>
+    <t>Saar 05 Saarbrcken</t>
+  </si>
+  <si>
     <t>SV Fellbach</t>
   </si>
   <si>
-    <t>Saar 05 Saarbrcken</t>
-  </si>
-  <si>
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>SSC Teutonia 99</t>
   </si>
   <si>
@@ -328,10 +328,10 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
-    <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
     <t>TuS Hornau</t>
@@ -2572,7 +2572,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6474078</v>
+        <v>6478282</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2584,76 +2584,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AA20">
-        <v>0.4875</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2673,7 +2673,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
         <v>124</v>
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6478282</v>
+        <v>6474078</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2762,76 +2762,76 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>2.75</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2.75</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
+        <v>3.75</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22">
-        <v>1.333</v>
-      </c>
-      <c r="L22">
-        <v>5.75</v>
-      </c>
-      <c r="M22">
-        <v>5.5</v>
-      </c>
-      <c r="N22">
-        <v>1.333</v>
-      </c>
-      <c r="O22">
-        <v>5.75</v>
-      </c>
-      <c r="P22">
-        <v>5.5</v>
-      </c>
-      <c r="Q22">
-        <v>-1.75</v>
-      </c>
-      <c r="R22">
-        <v>1.9</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
-        <v>4.25</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6579824</v>
+        <v>6579579</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4186,58 +4186,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>163</v>
       </c>
       <c r="K38">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -4246,13 +4246,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579579</v>
+        <v>6579824</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,58 +4275,58 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>163</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L39">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R39">
+        <v>1.9</v>
+      </c>
+      <c r="S39">
+        <v>1.9</v>
+      </c>
+      <c r="T39">
+        <v>3.75</v>
+      </c>
+      <c r="U39">
         <v>1.975</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.825</v>
       </c>
-      <c r="T39">
-        <v>3.5</v>
-      </c>
-      <c r="U39">
-        <v>1.875</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>0.363</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4335,13 +4335,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.875</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4797,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6609178</v>
+        <v>6608627</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4809,73 +4809,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L45">
+        <v>3.9</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>2.8</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.4</v>
-      </c>
-      <c r="N45">
-        <v>2.4</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>2.4</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1.9</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
+        <v>1.925</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
       <c r="Y45">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB45">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4886,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6608627</v>
+        <v>6609178</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4898,73 +4898,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5153,7 +5153,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6637716</v>
+        <v>6637717</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5168,73 +5168,73 @@
         <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P49">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>3.5</v>
       </c>
       <c r="U49">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5242,7 +5242,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6637717</v>
+        <v>6637716</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5257,73 +5257,73 @@
         <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="N50">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="Q50">
+        <v>-0.25</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
         <v>1.75</v>
-      </c>
-      <c r="R50">
-        <v>1.85</v>
-      </c>
-      <c r="S50">
-        <v>1.95</v>
       </c>
       <c r="T50">
         <v>3.5</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5598,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6659451</v>
+        <v>6659452</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5613,70 +5613,70 @@
         <v>66</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K54">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N54">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5687,7 +5687,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6659452</v>
+        <v>6659451</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5702,70 +5702,70 @@
         <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N55">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>3.75</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.5</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.775</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5969,7 +5969,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N68">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q68">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U68">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
+        <v>-3</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
         <v>3.5</v>
       </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.975</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>4</v>
-      </c>
       <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
         <v>1.925</v>
       </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7111,7 +7111,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7126,55 +7126,55 @@
         <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>163</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>1.45</v>
+      </c>
+      <c r="O71">
+        <v>4.5</v>
+      </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.925</v>
+      </c>
+      <c r="S71">
+        <v>1.875</v>
+      </c>
+      <c r="T71">
         <v>3.5</v>
       </c>
-      <c r="M71">
-        <v>2.7</v>
-      </c>
-      <c r="N71">
-        <v>1.727</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-      <c r="P71">
-        <v>3.5</v>
-      </c>
-      <c r="Q71">
-        <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.775</v>
-      </c>
-      <c r="S71">
-        <v>2.025</v>
-      </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -7183,13 +7183,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7200,7 +7200,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7215,55 +7215,55 @@
         <v>77</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>163</v>
       </c>
       <c r="K72">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>2.7</v>
+      </c>
+      <c r="N72">
+        <v>1.727</v>
+      </c>
+      <c r="O72">
         <v>4</v>
       </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
-      <c r="N72">
-        <v>1.45</v>
-      </c>
-      <c r="O72">
-        <v>4.5</v>
-      </c>
       <c r="P72">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
         <v>1.925</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.875</v>
       </c>
-      <c r="T72">
-        <v>3.5</v>
-      </c>
-      <c r="U72">
-        <v>1.825</v>
-      </c>
-      <c r="V72">
-        <v>1.975</v>
-      </c>
       <c r="W72">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -7272,13 +7272,13 @@
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0.925</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.825</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8013,76 +8013,76 @@
         <v>45168.625</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K81">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L81">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N81">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O81">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q81">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8090,7 +8090,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8102,76 +8102,76 @@
         <v>45168.625</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M82">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P82">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8728,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8906,7 +8906,7 @@
         <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -9882,7 +9882,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10683,49 +10683,49 @@
         <v>45193.375</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K111">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q111">
         <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.8</v>
@@ -10734,19 +10734,19 @@
         <v>2</v>
       </c>
       <c r="W111">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
         <v>0.8</v>
@@ -10760,7 +10760,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10772,49 +10772,49 @@
         <v>45193.375</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N112">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q112">
         <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U112">
         <v>1.8</v>
@@ -10823,19 +10823,19 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
         <v>0.8</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H157">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4797,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6608627</v>
+        <v>6609178</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4809,73 +4809,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4886,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6609178</v>
+        <v>6608627</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4898,73 +4898,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L46">
+        <v>3.9</v>
+      </c>
+      <c r="M46">
+        <v>2.8</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <v>2.8</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
+        <v>1.975</v>
+      </c>
+      <c r="T46">
         <v>3.5</v>
       </c>
-      <c r="M46">
-        <v>2.4</v>
-      </c>
-      <c r="N46">
-        <v>2.4</v>
-      </c>
-      <c r="O46">
-        <v>3.5</v>
-      </c>
-      <c r="P46">
-        <v>2.4</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>1.9</v>
-      </c>
-      <c r="T46">
+      <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
+        <v>1.925</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
         <v>3</v>
       </c>
-      <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
       <c r="Y46">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB46">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -15025,6 +15025,80 @@
       </c>
       <c r="AC159">
         <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7873628</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>107</v>
+      </c>
+      <c r="G160" t="s">
+        <v>91</v>
+      </c>
+      <c r="K160">
+        <v>1.909</v>
+      </c>
+      <c r="L160">
+        <v>3.75</v>
+      </c>
+      <c r="M160">
+        <v>3.1</v>
+      </c>
+      <c r="N160">
+        <v>1.909</v>
+      </c>
+      <c r="O160">
+        <v>3.75</v>
+      </c>
+      <c r="P160">
+        <v>3.2</v>
+      </c>
+      <c r="Q160">
+        <v>-0.5</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>1.85</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
+        <v>1.95</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -151,15 +151,15 @@
     <t>BFC Preussen</t>
   </si>
   <si>
+    <t>1 FC Wilmersdorf</t>
+  </si>
+  <si>
+    <t>SpVgg NeuIsenburg</t>
+  </si>
+  <si>
     <t>FC Astoria Walldorf II</t>
   </si>
   <si>
-    <t>1 FC Wilmersdorf</t>
-  </si>
-  <si>
-    <t>SpVgg NeuIsenburg</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>VfR Mannheim</t>
   </si>
   <si>
+    <t>TuS Hiltrup</t>
+  </si>
+  <si>
     <t>BSV AlDersimspor</t>
   </si>
   <si>
-    <t>TuS Hiltrup</t>
-  </si>
-  <si>
     <t>VfB Wissen</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
-  </si>
-  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -448,10 +448,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
-    <t>MSC Preussen 1899</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -2483,7 +2483,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6474077</v>
+        <v>6478281</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2498,73 +2498,73 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X19">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6478281</v>
+        <v>6474078</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2676,43 +2676,43 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
         <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3.75</v>
@@ -2724,25 +2724,25 @@
         <v>2</v>
       </c>
       <c r="W21">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2750,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6474078</v>
+        <v>6474077</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2765,73 +2765,73 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>165</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L22">
+        <v>4.2</v>
+      </c>
+      <c r="M22">
+        <v>2.375</v>
+      </c>
+      <c r="N22">
+        <v>2.25</v>
+      </c>
+      <c r="O22">
+        <v>4.333</v>
+      </c>
+      <c r="P22">
+        <v>2.3</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.875</v>
+      </c>
+      <c r="S22">
+        <v>1.925</v>
+      </c>
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>2.75</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.825</v>
-      </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
-      <c r="T22">
-        <v>3.75</v>
-      </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3462,7 +3462,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6532828</v>
+        <v>6532829</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3477,73 +3477,73 @@
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="L30">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P30">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q30">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>3.5</v>
+      </c>
+      <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
         <v>1.925</v>
       </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.825</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3551,7 +3551,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6532829</v>
+        <v>6532828</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3566,73 +3566,73 @@
         <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>6.5</v>
+      </c>
+      <c r="M31">
+        <v>1.2</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>6.5</v>
+      </c>
+      <c r="P31">
+        <v>1.2</v>
+      </c>
+      <c r="Q31">
+        <v>2.25</v>
+      </c>
+      <c r="R31">
+        <v>1.775</v>
+      </c>
+      <c r="S31">
+        <v>1.925</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>1.975</v>
+      </c>
+      <c r="V31">
+        <v>1.825</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>5.5</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31">
-        <v>5.5</v>
-      </c>
-      <c r="L31">
-        <v>4.5</v>
-      </c>
-      <c r="M31">
-        <v>1.4</v>
-      </c>
-      <c r="N31">
-        <v>5.5</v>
-      </c>
-      <c r="O31">
-        <v>4.5</v>
-      </c>
-      <c r="P31">
-        <v>1.4</v>
-      </c>
-      <c r="Q31">
-        <v>1.25</v>
-      </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>1.8</v>
-      </c>
-      <c r="T31">
-        <v>3.5</v>
-      </c>
-      <c r="U31">
-        <v>1.875</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Z31">
-        <v>0.5</v>
-      </c>
-      <c r="AA31">
-        <v>-0.5</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4263,7 +4263,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6579824</v>
+        <v>6580043</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -4275,76 +4275,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K39">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>1.2</v>
+      </c>
+      <c r="O39">
+        <v>6.5</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>-2.25</v>
+      </c>
+      <c r="R39">
+        <v>1.925</v>
+      </c>
+      <c r="S39">
+        <v>1.775</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>1.9</v>
+      </c>
+      <c r="V39">
+        <v>1.9</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>5.5</v>
       </c>
-      <c r="N39">
-        <v>1.363</v>
-      </c>
-      <c r="O39">
-        <v>5.25</v>
-      </c>
-      <c r="P39">
-        <v>5.25</v>
-      </c>
-      <c r="Q39">
-        <v>-1.5</v>
-      </c>
-      <c r="R39">
-        <v>1.9</v>
-      </c>
-      <c r="S39">
-        <v>1.9</v>
-      </c>
-      <c r="T39">
-        <v>3.75</v>
-      </c>
-      <c r="U39">
-        <v>1.975</v>
-      </c>
-      <c r="V39">
-        <v>1.825</v>
-      </c>
-      <c r="W39">
-        <v>0.363</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4352,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6580043</v>
+        <v>6579824</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4364,76 +4364,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="O40">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-2.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X40">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4453,7 +4453,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
         <v>132</v>
@@ -4797,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6609178</v>
+        <v>6608627</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4809,73 +4809,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L45">
+        <v>3.9</v>
+      </c>
+      <c r="M45">
+        <v>2.8</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>2.8</v>
+      </c>
+      <c r="Q45">
+        <v>-0.25</v>
+      </c>
+      <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
         <v>3.5</v>
       </c>
-      <c r="M45">
-        <v>2.4</v>
-      </c>
-      <c r="N45">
-        <v>2.4</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>2.4</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1.9</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
+        <v>1.925</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
       <c r="Y45">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB45">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4886,7 +4886,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6608627</v>
+        <v>6609178</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4898,73 +4898,73 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4987,7 +4987,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -5331,7 +5331,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6645986</v>
+        <v>6645987</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5343,13 +5343,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5358,43 +5358,43 @@
         <v>163</v>
       </c>
       <c r="K51">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="L51">
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
         <v>4.75</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
         <v>1.875</v>
       </c>
-      <c r="S51">
-        <v>1.925</v>
-      </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5403,16 +5403,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5420,7 +5420,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6645987</v>
+        <v>6645986</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5432,13 +5432,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5447,43 +5447,43 @@
         <v>163</v>
       </c>
       <c r="K52">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="L52">
         <v>4.75</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="N52">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O52">
         <v>4.75</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R52">
+        <v>1.875</v>
+      </c>
+      <c r="S52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="T52">
+        <v>4.25</v>
+      </c>
+      <c r="U52">
+        <v>1.925</v>
+      </c>
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="T52">
-        <v>3.5</v>
-      </c>
-      <c r="U52">
-        <v>1.825</v>
-      </c>
-      <c r="V52">
-        <v>1.975</v>
-      </c>
       <c r="W52">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5492,16 +5492,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5969,7 +5969,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -6322,7 +6322,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
         <v>115</v>
@@ -6844,7 +6844,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6871,61 +6871,61 @@
         <v>165</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O68">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <v>19</v>
+      </c>
+      <c r="Q68">
+        <v>-3</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>1.9</v>
+      </c>
+      <c r="T68">
         <v>3.5</v>
       </c>
-      <c r="P68">
-        <v>2.7</v>
-      </c>
-      <c r="Q68">
-        <v>-0.25</v>
-      </c>
-      <c r="R68">
-        <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.825</v>
-      </c>
-      <c r="T68">
-        <v>4</v>
-      </c>
       <c r="U68">
+        <v>1.775</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6933,7 +6933,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6948,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6960,61 +6960,61 @@
         <v>165</v>
       </c>
       <c r="K69">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N69">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q69">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7022,7 +7022,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7034,73 +7034,73 @@
         <v>45094.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>163</v>
+      </c>
+      <c r="K70">
+        <v>1.65</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>1.45</v>
+      </c>
+      <c r="O70">
+        <v>4.5</v>
+      </c>
+      <c r="P70">
         <v>5</v>
       </c>
-      <c r="J70" t="s">
-        <v>164</v>
-      </c>
-      <c r="K70">
-        <v>2.25</v>
-      </c>
-      <c r="L70">
-        <v>3.75</v>
-      </c>
-      <c r="M70">
-        <v>2.5</v>
-      </c>
-      <c r="N70">
-        <v>2.25</v>
-      </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>2.5</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
         <v>3.5</v>
       </c>
       <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="V70">
-        <v>1.825</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -7111,7 +7111,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7123,73 +7123,73 @@
         <v>45094.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="G71" t="s">
         <v>145</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K71">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T71">
         <v>3.5</v>
       </c>
       <c r="U71">
+        <v>1.975</v>
+      </c>
+      <c r="V71">
         <v>1.825</v>
       </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -8001,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8013,76 +8013,76 @@
         <v>45168.625</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M81">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P81">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8090,7 +8090,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8102,76 +8102,76 @@
         <v>45168.625</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K82">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N82">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O82">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q82">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T82">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X82">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8357,7 +8357,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8369,73 +8369,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>163</v>
+      </c>
+      <c r="K85">
+        <v>3.75</v>
+      </c>
+      <c r="L85">
+        <v>4.333</v>
+      </c>
+      <c r="M85">
+        <v>1.615</v>
+      </c>
+      <c r="N85">
+        <v>3.75</v>
+      </c>
+      <c r="O85">
+        <v>4.333</v>
+      </c>
+      <c r="P85">
+        <v>1.615</v>
+      </c>
+      <c r="Q85">
+        <v>0.75</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
+        <v>1.9</v>
+      </c>
+      <c r="V85">
+        <v>1.9</v>
+      </c>
+      <c r="W85">
+        <v>2.75</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="J85" t="s">
-        <v>164</v>
-      </c>
-      <c r="K85">
-        <v>1.4</v>
-      </c>
-      <c r="L85">
-        <v>4.8</v>
-      </c>
-      <c r="M85">
-        <v>5.25</v>
-      </c>
-      <c r="N85">
-        <v>1.4</v>
-      </c>
-      <c r="O85">
-        <v>5</v>
-      </c>
-      <c r="P85">
-        <v>5</v>
-      </c>
-      <c r="Q85">
-        <v>-1.25</v>
-      </c>
-      <c r="R85">
-        <v>1.8</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85">
-        <v>3.5</v>
-      </c>
-      <c r="U85">
-        <v>1.925</v>
-      </c>
-      <c r="V85">
-        <v>1.875</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>4</v>
-      </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
       <c r="AA85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8446,7 +8446,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8458,73 +8458,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
       <c r="J86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M86">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P86">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>1</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8728,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -9081,7 +9081,7 @@
         <v>45177.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -9882,7 +9882,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
         <v>78</v>
@@ -11395,7 +11395,7 @@
         <v>45212.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
         <v>65</v>
@@ -11573,7 +11573,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
         <v>107</v>
@@ -12540,7 +12540,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12555,37 +12555,37 @@
         <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L132">
         <v>4.5</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>4.5</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
         <v>1.85</v>
@@ -12594,7 +12594,7 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
         <v>1.85</v>
@@ -12606,10 +12606,10 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z132">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12644,37 +12644,37 @@
         <v>105</v>
       </c>
       <c r="G133" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
         <v>4.5</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
         <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
         <v>1.85</v>
@@ -12683,7 +12683,7 @@
         <v>1.95</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U133">
         <v>1.85</v>
@@ -12695,10 +12695,10 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
@@ -12718,7 +12718,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12730,76 +12730,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G134" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K134">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O134">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X134">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12807,7 +12807,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12819,76 +12819,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G135" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+      <c r="K135">
+        <v>2.2</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>2.2</v>
+      </c>
+      <c r="N135">
+        <v>2.2</v>
+      </c>
+      <c r="O135">
+        <v>4.75</v>
+      </c>
+      <c r="P135">
+        <v>2.2</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>163</v>
-      </c>
-      <c r="K135">
-        <v>1.727</v>
-      </c>
-      <c r="L135">
-        <v>4.5</v>
-      </c>
-      <c r="M135">
-        <v>3.2</v>
-      </c>
-      <c r="N135">
-        <v>1.727</v>
-      </c>
-      <c r="O135">
-        <v>4.5</v>
-      </c>
-      <c r="P135">
-        <v>3.2</v>
-      </c>
-      <c r="Q135">
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>4.25</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
+        <v>2.025</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>3.75</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.775</v>
-      </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
-      <c r="T135">
-        <v>3.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
-      <c r="W135">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
-      </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13890,7 +13890,7 @@
         <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14154,7 +14154,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>90</v>
@@ -14231,7 +14231,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -14243,58 +14243,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G151" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>163</v>
       </c>
       <c r="K151">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O151">
         <v>4</v>
       </c>
       <c r="P151">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q151">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U151">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -14303,16 +14303,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14320,7 +14320,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14332,58 +14332,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>163</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O152">
         <v>4</v>
       </c>
       <c r="P152">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14392,16 +14392,16 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14780,7 +14780,7 @@
         <v>80</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -15032,7 +15032,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7873628</v>
+        <v>7870732</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15041,64 +15041,79 @@
         <v>28</v>
       </c>
       <c r="E160" s="2">
-        <v>45346.5</v>
+        <v>45345.625</v>
       </c>
       <c r="F160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G160" t="s">
-        <v>91</v>
+        <v>156</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>165</v>
       </c>
       <c r="K160">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.775</v>
+      </c>
+      <c r="V160">
+        <v>2.025</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>2.6</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
         <v>-0.5</v>
       </c>
-      <c r="R160">
-        <v>1.95</v>
-      </c>
-      <c r="S160">
-        <v>1.85</v>
-      </c>
-      <c r="T160">
-        <v>3.25</v>
-      </c>
-      <c r="U160">
-        <v>1.85</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
       <c r="AA160">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -112,10 +112,10 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1117,55 +1117,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>118</v>
       </c>
       <c r="K5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.45</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.925</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1174,13 +1174,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1206,55 +1206,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>118</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1263,13 +1263,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -2081,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2093,76 +2093,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2170,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2182,76 +2182,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2437,7 +2437,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2449,73 +2449,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2526,7 +2526,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2538,73 +2538,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2986,7 +2986,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6810,76 +6810,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>118</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6887,7 +6887,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6899,76 +6899,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -106,16 +106,16 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
@@ -738,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -939,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -951,61 +951,61 @@
         <v>119</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1028,7 +1028,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1040,61 +1040,61 @@
         <v>119</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1117,55 +1117,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>118</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1174,13 +1174,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1206,55 +1206,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>118</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>1.727</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.45</v>
-      </c>
-      <c r="O6">
-        <v>4.5</v>
-      </c>
       <c r="P6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.775</v>
+      </c>
+      <c r="S6">
+        <v>2.025</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
         <v>1.925</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1263,13 +1263,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.925</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -2986,7 +2986,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6798,7 +6798,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6810,76 +6810,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6887,7 +6887,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6899,76 +6899,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>119</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>118</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -9282,6 +9282,95 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7890718</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45350.66666666666</v>
+      </c>
+      <c r="F97" t="s">
+        <v>69</v>
+      </c>
+      <c r="G97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>120</v>
+      </c>
+      <c r="K97">
+        <v>2.25</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>2.4</v>
+      </c>
+      <c r="N97">
+        <v>2.25</v>
+      </c>
+      <c r="O97">
+        <v>4</v>
+      </c>
+      <c r="P97">
+        <v>2.4</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.825</v>
+      </c>
+      <c r="S97">
+        <v>1.975</v>
+      </c>
+      <c r="T97">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>1.9</v>
+      </c>
+      <c r="V97">
+        <v>1.9</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>1.4</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB97">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC97">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -106,21 +106,21 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
+    <t>FV Preussen Eberswalde</t>
   </si>
   <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -271,18 +271,21 @@
     <t>FFV Sportfreunde 04</t>
   </si>
   <si>
+    <t>TuS Marienborn</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
   </si>
   <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
     <t>VSG Altglienicke II</t>
   </si>
   <si>
-    <t>TuS Marienborn</t>
-  </si>
-  <si>
     <t>JSK Rodgau</t>
   </si>
   <si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>SV Pars Neulsenburg</t>
+  </si>
+  <si>
+    <t>Haldensleber SC</t>
+  </si>
+  <si>
+    <t>FC Basara Mainz</t>
   </si>
   <si>
     <t>H</t>
@@ -738,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -859,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -924,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -939,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -948,64 +954,64 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1013,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1028,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1037,64 +1043,64 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1102,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1117,55 +1123,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5">
+        <v>2.2</v>
+      </c>
+      <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5">
-        <v>1.65</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.45</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.925</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1174,13 +1180,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1191,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1206,70 +1212,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>2.25</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>2.5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.25</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1280,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1295,70 +1301,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>120</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1384,7 +1390,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1393,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1473,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1482,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1562,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1660,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1749,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1838,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1918,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1927,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2016,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2081,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2093,76 +2099,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2170,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2182,76 +2188,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2372,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2437,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2449,73 +2455,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2526,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2538,73 +2544,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>120</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L21">
-        <v>4.8</v>
+        <v>4.333</v>
       </c>
       <c r="M21">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <v>1.8</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2728,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2817,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2906,7 +2912,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -2986,7 +2992,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2995,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3084,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3173,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3262,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3351,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3440,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3529,7 +3535,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3618,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3707,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3796,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3885,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3974,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4063,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4152,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4241,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4321,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4419,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4508,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4597,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4686,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4751,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4766,46 +4772,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4814,19 +4820,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4840,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4855,46 +4861,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>120</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4903,19 +4909,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4953,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5042,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5131,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5220,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5309,7 +5315,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5398,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5487,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5576,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5665,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5754,7 +5760,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5843,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5932,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6021,7 +6027,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6110,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6199,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6288,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6377,7 +6383,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6466,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6555,7 +6561,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6620,7 +6626,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6635,37 +6641,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6674,7 +6680,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6686,10 +6692,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6709,7 +6715,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6724,37 +6730,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6763,7 +6769,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6775,10 +6781,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6798,7 +6804,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6810,76 +6816,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>118</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6887,7 +6893,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6899,76 +6905,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7000,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7089,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7178,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7267,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7356,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7445,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7534,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7623,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7712,7 +7718,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7801,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7890,7 +7896,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7979,7 +7985,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8068,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8157,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8246,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8311,7 +8317,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8323,58 +8329,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+      <c r="K86">
+        <v>4.333</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>118</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3.75</v>
-      </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8383,16 +8389,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8400,7 +8406,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8412,58 +8418,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8472,16 +8478,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8513,7 +8519,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8602,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8691,7 +8697,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8780,7 +8786,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8869,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8958,7 +8964,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9047,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9124,7 +9130,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>109</v>
@@ -9136,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9225,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9314,7 +9320,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9371,6 +9377,184 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>7899046</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45352.625</v>
+      </c>
+      <c r="F98" t="s">
+        <v>73</v>
+      </c>
+      <c r="G98" t="s">
+        <v>118</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>122</v>
+      </c>
+      <c r="K98">
+        <v>2.25</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>2.4</v>
+      </c>
+      <c r="N98">
+        <v>2.25</v>
+      </c>
+      <c r="O98">
+        <v>4.2</v>
+      </c>
+      <c r="P98">
+        <v>2.375</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>2.025</v>
+      </c>
+      <c r="V98">
+        <v>1.775</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>1.375</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.95</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>7899045</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45352.64583333334</v>
+      </c>
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99">
+        <v>2.7</v>
+      </c>
+      <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>2.1</v>
+      </c>
+      <c r="N99">
+        <v>2.5</v>
+      </c>
+      <c r="O99">
+        <v>3.75</v>
+      </c>
+      <c r="P99">
+        <v>2.3</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.825</v>
+      </c>
+      <c r="T99">
+        <v>3.25</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>1.3</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.825</v>
+      </c>
+      <c r="AB99">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC99">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -112,12 +112,12 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
@@ -208,10 +208,10 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
-    <t>1 FC Lok Stendal</t>
   </si>
   <si>
     <t>FC Zuzenhausen</t>
@@ -744,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1123,70 +1123,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1212,70 +1212,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -2087,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2099,76 +2099,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2188,76 +2188,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2443,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2455,73 +2455,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2544,73 +2544,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -4757,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4772,46 +4772,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4820,19 +4820,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4846,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4861,46 +4861,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4909,19 +4909,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -6804,7 +6804,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6816,76 +6816,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6893,7 +6893,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6905,76 +6905,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>120</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -8317,7 +8317,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8329,58 +8329,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>120</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8389,16 +8389,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8406,7 +8406,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8418,58 +8418,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>120</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8478,16 +8478,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9556,6 +9556,95 @@
       </c>
       <c r="AC99">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7906238</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" t="s">
+        <v>106</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>120</v>
+      </c>
+      <c r="K100">
+        <v>1.45</v>
+      </c>
+      <c r="L100">
+        <v>4.2</v>
+      </c>
+      <c r="M100">
+        <v>5.5</v>
+      </c>
+      <c r="N100">
+        <v>1.444</v>
+      </c>
+      <c r="O100">
+        <v>4.333</v>
+      </c>
+      <c r="P100">
+        <v>5.5</v>
+      </c>
+      <c r="Q100">
+        <v>-1.25</v>
+      </c>
+      <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>3.75</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>1.825</v>
+      </c>
+      <c r="W100">
+        <v>0.444</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -274,6 +274,9 @@
     <t>TuS Marienborn</t>
   </si>
   <si>
+    <t>JSK Rodgau</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -293,9 +296,6 @@
   </si>
   <si>
     <t>VSG Altglienicke II</t>
-  </si>
-  <si>
-    <t>JSK Rodgau</t>
   </si>
   <si>
     <t>SD Croatia Berlin</t>
@@ -744,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -945,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1212,7 +1212,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -1301,7 +1301,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1390,7 +1390,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1479,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2087,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2099,76 +2099,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2176,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2188,76 +2188,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2443,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2455,73 +2455,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2532,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2544,73 +2544,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -4327,7 +4327,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6641,37 +6641,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6680,7 +6680,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6692,10 +6692,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6715,7 +6715,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6730,37 +6730,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6769,7 +6769,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6781,10 +6781,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -9130,7 +9130,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
         <v>109</v>
@@ -9397,7 +9397,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>118</v>
@@ -9645,6 +9645,273 @@
       </c>
       <c r="AC100">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>7905680</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" t="s">
+        <v>122</v>
+      </c>
+      <c r="K101">
+        <v>3.5</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>1.727</v>
+      </c>
+      <c r="N101">
+        <v>3.5</v>
+      </c>
+      <c r="O101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <v>1.727</v>
+      </c>
+      <c r="Q101">
+        <v>0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.85</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
+        <v>1.825</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z101">
+        <v>-0.5</v>
+      </c>
+      <c r="AA101">
+        <v>0.475</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>7905679</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45354.47916666666</v>
+      </c>
+      <c r="F102" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>122</v>
+      </c>
+      <c r="K102">
+        <v>7</v>
+      </c>
+      <c r="L102">
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <v>1.25</v>
+      </c>
+      <c r="N102">
+        <v>7</v>
+      </c>
+      <c r="O102">
+        <v>6</v>
+      </c>
+      <c r="P102">
+        <v>1.25</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>1.85</v>
+      </c>
+      <c r="S102">
+        <v>1.95</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
+        <v>1.85</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>0.25</v>
+      </c>
+      <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
+        <v>0.95</v>
+      </c>
+      <c r="AB102">
+        <v>0.95</v>
+      </c>
+      <c r="AC102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>7919896</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45357.66666666666</v>
+      </c>
+      <c r="F103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s">
+        <v>98</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>122</v>
+      </c>
+      <c r="K103">
+        <v>2.75</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>4.333</v>
+      </c>
+      <c r="P103">
+        <v>1.615</v>
+      </c>
+      <c r="Q103">
+        <v>0.75</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>1.975</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>0.615</v>
+      </c>
+      <c r="Z103">
+        <v>-0.5</v>
+      </c>
+      <c r="AA103">
+        <v>0.4</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -112,15 +112,15 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -277,16 +277,19 @@
     <t>JSK Rodgau</t>
   </si>
   <si>
+    <t>SC Bernburg</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
-    <t>MSC Preussen 1899</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -744,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC103"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,7 +859,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -945,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K3">
         <v>1.05</v>
@@ -1034,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -1108,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1123,70 +1126,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1197,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1212,55 +1215,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1269,13 +1272,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1286,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1301,70 +1304,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1390,7 +1393,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1399,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1479,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1488,7 +1491,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1568,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1577,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1666,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1755,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1844,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1933,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2022,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2111,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16">
         <v>2.25</v>
@@ -2200,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17">
         <v>1.083</v>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2378,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2443,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2455,73 +2458,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2532,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2544,73 +2547,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2725,7 +2728,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2734,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2823,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2903,7 +2906,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2912,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -2992,7 +2995,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3001,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3081,7 +3084,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3090,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3179,7 +3182,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3259,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3268,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3357,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3446,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3535,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3624,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3713,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3793,7 +3796,7 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3802,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3882,7 +3885,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3891,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3980,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4069,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4158,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4247,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4327,7 +4330,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4336,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4416,7 +4419,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4425,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4514,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4594,7 +4597,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4603,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4692,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4757,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4772,46 +4775,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4820,19 +4823,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4846,7 +4849,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4861,46 +4864,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4909,19 +4912,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4959,7 +4962,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5039,7 +5042,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5048,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5128,7 +5131,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5137,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5226,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5315,7 +5318,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5395,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5404,7 +5407,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5484,7 +5487,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5493,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5573,7 +5576,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5582,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5671,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5760,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5840,7 +5843,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5849,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5938,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6027,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6107,7 +6110,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6116,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6205,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6294,7 +6297,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6383,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6472,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6552,7 +6555,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6561,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6626,7 +6629,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6641,37 +6644,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6680,7 +6683,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6692,10 +6695,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6715,7 +6718,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6730,37 +6733,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>122</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6769,7 +6772,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6781,10 +6784,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6819,7 +6822,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6828,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K69">
         <v>1.727</v>
@@ -6917,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K70">
         <v>2.2</v>
@@ -7006,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7095,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7184,7 +7187,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7273,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7362,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7442,7 +7445,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7451,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7531,7 +7534,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7540,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7620,7 +7623,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7629,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7709,7 +7712,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7718,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7798,7 +7801,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7807,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7896,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7985,7 +7988,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8065,7 +8068,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8074,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8154,7 +8157,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8163,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8252,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8317,7 +8320,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8329,58 +8332,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+      <c r="K86">
+        <v>4.333</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>120</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3.75</v>
-      </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8389,16 +8392,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8406,7 +8409,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8418,58 +8421,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8478,16 +8481,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8510,7 +8513,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8519,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8599,7 +8602,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8608,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8697,7 +8700,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8777,7 +8780,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8786,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8875,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8955,7 +8958,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8964,7 +8967,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9053,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9130,10 +9133,10 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9142,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9231,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9320,7 +9323,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9397,10 +9400,10 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9409,7 +9412,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9489,7 +9492,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9498,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9578,7 +9581,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9587,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9676,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9765,7 +9768,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9845,7 +9848,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9854,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9912,6 +9915,273 @@
       </c>
       <c r="AC103">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>7928416</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F104" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>121</v>
+      </c>
+      <c r="K104">
+        <v>2.5</v>
+      </c>
+      <c r="L104">
+        <v>3.75</v>
+      </c>
+      <c r="M104">
+        <v>2.25</v>
+      </c>
+      <c r="N104">
+        <v>2.5</v>
+      </c>
+      <c r="O104">
+        <v>3.75</v>
+      </c>
+      <c r="P104">
+        <v>2.25</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.925</v>
+      </c>
+      <c r="V104">
+        <v>1.875</v>
+      </c>
+      <c r="W104">
+        <v>1.5</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>7928417</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45359.64583333334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K105">
+        <v>2.25</v>
+      </c>
+      <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105">
+        <v>3.8</v>
+      </c>
+      <c r="P105">
+        <v>2.9</v>
+      </c>
+      <c r="Q105">
+        <v>-0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.8</v>
+      </c>
+      <c r="S105">
+        <v>2</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>1.85</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>2.8</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>-0.5</v>
+      </c>
+      <c r="AA105">
+        <v>0.5</v>
+      </c>
+      <c r="AB105">
+        <v>0.95</v>
+      </c>
+      <c r="AC105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>7930352</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45359.66666666666</v>
+      </c>
+      <c r="F106" t="s">
+        <v>75</v>
+      </c>
+      <c r="G106" t="s">
+        <v>56</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>121</v>
+      </c>
+      <c r="K106">
+        <v>1.666</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>1.65</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>3.5</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
+        <v>1.8</v>
+      </c>
+      <c r="W106">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>-1</v>
+      </c>
+      <c r="Z106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
-  </si>
-  <si>
-    <t>SV Dessau 05</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
@@ -747,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC106"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -960,61 +960,61 @@
         <v>122</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1037,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1049,61 +1049,61 @@
         <v>122</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -2446,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2458,73 +2458,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2547,73 +2547,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -8320,7 +8320,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8332,58 +8332,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>121</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8392,16 +8392,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8409,7 +8409,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8421,58 +8421,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>121</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8481,16 +8481,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -10182,6 +10182,95 @@
       </c>
       <c r="AC106">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7940471</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>123</v>
+      </c>
+      <c r="K107">
+        <v>1.5</v>
+      </c>
+      <c r="L107">
+        <v>4.333</v>
+      </c>
+      <c r="M107">
+        <v>4.5</v>
+      </c>
+      <c r="N107">
+        <v>1.5</v>
+      </c>
+      <c r="O107">
+        <v>4.333</v>
+      </c>
+      <c r="P107">
+        <v>4.5</v>
+      </c>
+      <c r="Q107">
+        <v>-1.25</v>
+      </c>
+      <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>3.75</v>
+      </c>
+      <c r="U107">
+        <v>1.8</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>3.5</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>0.825</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -112,15 +112,15 @@
     <t>Magdeburg II</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -280,18 +280,21 @@
     <t>SC Bernburg</t>
   </si>
   <si>
+    <t>RSV Weyer</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
   </si>
   <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -316,9 +319,6 @@
     <t>RotWeiss Darmstadt</t>
   </si>
   <si>
-    <t>RSV Weyer</t>
-  </si>
-  <si>
     <t>Berlin Hilalspor</t>
   </si>
   <si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>FC Basara Mainz</t>
+  </si>
+  <si>
+    <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
     <t>H</t>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -868,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -948,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3">
         <v>2.2</v>
@@ -1037,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <v>1.05</v>
@@ -1111,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1126,70 +1129,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1215,7 +1218,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6">
         <v>1.65</v>
@@ -1289,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1304,70 +1307,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1393,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1402,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1482,7 +1485,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1491,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1571,7 +1574,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1580,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1669,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1758,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1847,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1936,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2025,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2090,7 +2093,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2102,76 +2105,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2179,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2191,76 +2194,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>122</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2292,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2381,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2461,7 +2464,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2470,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2559,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21">
         <v>3.75</v>
@@ -2648,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2728,7 +2731,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2737,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2826,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2906,7 +2909,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2915,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3004,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3084,7 +3087,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3093,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3182,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3262,7 +3265,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3271,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3360,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3449,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3538,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3716,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3796,7 +3799,7 @@
         <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3805,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3894,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3983,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4072,7 +4075,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4161,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4250,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4330,7 +4333,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4339,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4428,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4517,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4597,7 +4600,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4606,7 +4609,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4695,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4760,7 +4763,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4775,46 +4778,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4823,19 +4826,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4849,7 +4852,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4864,46 +4867,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4912,19 +4915,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4962,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5051,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5131,7 +5134,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5140,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5229,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5318,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5407,7 +5410,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5496,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5576,7 +5579,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5585,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5674,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5763,7 +5766,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5852,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5941,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6030,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6119,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6208,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6297,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6386,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6475,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6564,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6629,7 +6632,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6644,37 +6647,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>123</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6683,7 +6686,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6695,10 +6698,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6718,7 +6721,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6733,37 +6736,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6772,7 +6775,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6784,10 +6787,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6807,7 +6810,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6819,76 +6822,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>123</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6896,7 +6899,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6908,76 +6911,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>122</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7009,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7098,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7187,7 +7190,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7276,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7365,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7454,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7543,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7623,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7632,7 +7635,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7721,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7810,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7899,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7988,7 +7991,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8077,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8166,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8255,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8320,7 +8323,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8332,58 +8335,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86">
+        <v>4.333</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>121</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3.75</v>
-      </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8392,16 +8395,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8409,7 +8412,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8421,58 +8424,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8481,16 +8484,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8522,7 +8525,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8611,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8700,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8789,7 +8792,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8878,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8967,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9056,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9133,7 +9136,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
         <v>110</v>
@@ -9145,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9234,7 +9237,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9323,7 +9326,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9400,7 +9403,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>119</v>
@@ -9412,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9501,7 +9504,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9590,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9679,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9768,7 +9771,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9848,7 +9851,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9857,7 +9860,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9937,7 +9940,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9946,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10035,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10124,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10213,7 +10216,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10271,6 +10274,362 @@
       </c>
       <c r="AC107">
         <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7950774</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45364.64583333334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>121</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>124</v>
+      </c>
+      <c r="K108">
+        <v>1.909</v>
+      </c>
+      <c r="L108">
+        <v>3.6</v>
+      </c>
+      <c r="M108">
+        <v>3.2</v>
+      </c>
+      <c r="N108">
+        <v>1.909</v>
+      </c>
+      <c r="O108">
+        <v>3.6</v>
+      </c>
+      <c r="P108">
+        <v>3.25</v>
+      </c>
+      <c r="Q108">
+        <v>-0.5</v>
+      </c>
+      <c r="R108">
+        <v>1.95</v>
+      </c>
+      <c r="S108">
+        <v>1.85</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
+        <v>1.8</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>2.25</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB108">
+        <v>-0.5</v>
+      </c>
+      <c r="AC108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7955116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45365.64583333334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>123</v>
+      </c>
+      <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>3.25</v>
+      </c>
+      <c r="N109">
+        <v>1.8</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>3.25</v>
+      </c>
+      <c r="Q109">
+        <v>-0.5</v>
+      </c>
+      <c r="R109">
+        <v>1.85</v>
+      </c>
+      <c r="S109">
+        <v>1.95</v>
+      </c>
+      <c r="T109">
+        <v>3.5</v>
+      </c>
+      <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
+        <v>1.925</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
+        <v>3</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.95</v>
+      </c>
+      <c r="AB109">
+        <v>0.875</v>
+      </c>
+      <c r="AC109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7961296</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F110" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>122</v>
+      </c>
+      <c r="K110">
+        <v>1.7</v>
+      </c>
+      <c r="L110">
+        <v>3.8</v>
+      </c>
+      <c r="M110">
+        <v>3.8</v>
+      </c>
+      <c r="N110">
+        <v>1.7</v>
+      </c>
+      <c r="O110">
+        <v>3.8</v>
+      </c>
+      <c r="P110">
+        <v>3.75</v>
+      </c>
+      <c r="Q110">
+        <v>-0.75</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.875</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>1.775</v>
+      </c>
+      <c r="V110">
+        <v>2.025</v>
+      </c>
+      <c r="W110">
+        <v>0.7</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>0.925</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7966121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>123</v>
+      </c>
+      <c r="K111">
+        <v>1.25</v>
+      </c>
+      <c r="L111">
+        <v>5.5</v>
+      </c>
+      <c r="M111">
+        <v>7.5</v>
+      </c>
+      <c r="N111">
+        <v>1.25</v>
+      </c>
+      <c r="O111">
+        <v>5.5</v>
+      </c>
+      <c r="P111">
+        <v>7.5</v>
+      </c>
+      <c r="Q111">
+        <v>-1.75</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
+        <v>2.025</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>4.5</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
+        <v>1</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -112,15 +112,15 @@
     <t>Magdeburg II</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Brandenburger SC Sd 05</t>
+  </si>
+  <si>
+    <t>FC Muhlhausen 1927</t>
   </si>
   <si>
     <t>H</t>
@@ -750,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC111"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -960,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3">
         <v>2.2</v>
@@ -1040,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>1.05</v>
@@ -1114,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1129,70 +1132,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1218,7 +1221,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>1.65</v>
@@ -1292,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1307,70 +1310,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
+        <v>3.75</v>
+      </c>
+      <c r="M7">
+        <v>2.5</v>
+      </c>
+      <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>3.75</v>
+      </c>
+      <c r="P7">
+        <v>2.5</v>
+      </c>
+      <c r="Q7">
+        <v>-0.25</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.7</v>
-      </c>
-      <c r="N7">
-        <v>1.727</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.775</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1405,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1494,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1672,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1761,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1850,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1939,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2028,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -2206,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2384,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2473,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2562,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21">
         <v>3.75</v>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2740,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2829,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2918,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3007,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3096,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3185,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3274,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3452,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3541,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3630,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3719,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3808,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3897,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3986,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4075,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4164,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4253,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4342,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4431,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4520,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4609,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4698,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4763,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4778,46 +4781,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4826,19 +4829,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4852,7 +4855,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4867,46 +4870,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4915,19 +4918,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4965,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5054,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5143,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5232,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5321,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5410,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5588,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5677,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5766,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5855,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5944,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6033,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6122,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6211,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6300,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6389,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6478,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6567,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6632,7 +6635,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6647,37 +6650,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6686,7 +6689,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6698,10 +6701,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6721,7 +6724,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6736,37 +6739,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>124</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6775,7 +6778,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6787,10 +6790,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6834,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6923,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K70">
         <v>1.727</v>
@@ -7012,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7101,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7190,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7279,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7368,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7457,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7546,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7635,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7724,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7813,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7902,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7991,7 +7994,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8080,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8169,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8258,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8347,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K86">
         <v>4.333</v>
@@ -8436,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8525,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8614,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8703,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8792,7 +8795,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8881,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8970,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9059,7 +9062,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9136,7 +9139,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>110</v>
@@ -9148,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9237,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9326,7 +9329,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9403,7 +9406,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
         <v>119</v>
@@ -9415,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9504,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9593,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9682,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9771,7 +9774,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9860,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9940,7 +9943,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9949,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10038,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10127,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10216,7 +10219,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10293,7 +10296,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>121</v>
@@ -10305,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10394,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10471,7 +10474,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10483,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10572,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10630,6 +10633,451 @@
       </c>
       <c r="AC111">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7981940</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45371.64583333334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>123</v>
+      </c>
+      <c r="K112">
+        <v>1.333</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>1.333</v>
+      </c>
+      <c r="O112">
+        <v>5.25</v>
+      </c>
+      <c r="P112">
+        <v>5.75</v>
+      </c>
+      <c r="Q112">
+        <v>-1.75</v>
+      </c>
+      <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
+        <v>1.825</v>
+      </c>
+      <c r="T112">
+        <v>4</v>
+      </c>
+      <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
+        <v>1.9</v>
+      </c>
+      <c r="W112">
+        <v>0.333</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7990779</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45373.625</v>
+      </c>
+      <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>125</v>
+      </c>
+      <c r="K113">
+        <v>1.909</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>2.9</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
+        <v>4</v>
+      </c>
+      <c r="P113">
+        <v>2.9</v>
+      </c>
+      <c r="Q113">
+        <v>-0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.975</v>
+      </c>
+      <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
+        <v>2.025</v>
+      </c>
+      <c r="V113">
+        <v>1.775</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.9</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>0.825</v>
+      </c>
+      <c r="AB113">
+        <v>-0.5</v>
+      </c>
+      <c r="AC113">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7999724</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45375.4375</v>
+      </c>
+      <c r="F114" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>123</v>
+      </c>
+      <c r="K114">
+        <v>1.833</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>3.1</v>
+      </c>
+      <c r="N114">
+        <v>1.666</v>
+      </c>
+      <c r="O114">
+        <v>4.333</v>
+      </c>
+      <c r="P114">
+        <v>3.4</v>
+      </c>
+      <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>1.95</v>
+      </c>
+      <c r="T114">
+        <v>4</v>
+      </c>
+      <c r="U114">
+        <v>1.8</v>
+      </c>
+      <c r="V114">
+        <v>2</v>
+      </c>
+      <c r="W114">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7999723</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45375.45833333334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" t="s">
+        <v>122</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>123</v>
+      </c>
+      <c r="K115">
+        <v>2.5</v>
+      </c>
+      <c r="L115">
+        <v>3.8</v>
+      </c>
+      <c r="M115">
+        <v>2.2</v>
+      </c>
+      <c r="N115">
+        <v>2.5</v>
+      </c>
+      <c r="O115">
+        <v>3.8</v>
+      </c>
+      <c r="P115">
+        <v>2.2</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
+        <v>3.75</v>
+      </c>
+      <c r="U115">
+        <v>1.85</v>
+      </c>
+      <c r="V115">
+        <v>1.95</v>
+      </c>
+      <c r="W115">
+        <v>1.5</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>1.025</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
+        <v>0.425</v>
+      </c>
+      <c r="AC115">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7999726</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45375.47916666666</v>
+      </c>
+      <c r="F116" t="s">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>123</v>
+      </c>
+      <c r="K116">
+        <v>2.5</v>
+      </c>
+      <c r="L116">
+        <v>3.75</v>
+      </c>
+      <c r="M116">
+        <v>2.25</v>
+      </c>
+      <c r="N116">
+        <v>2.625</v>
+      </c>
+      <c r="O116">
+        <v>3.6</v>
+      </c>
+      <c r="P116">
+        <v>2.2</v>
+      </c>
+      <c r="Q116">
+        <v>0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>3.75</v>
+      </c>
+      <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
+        <v>1.85</v>
+      </c>
+      <c r="W116">
+        <v>1.625</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.8</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>0.95</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -106,21 +106,21 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
-  </si>
-  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -283,18 +283,21 @@
     <t>RSV Weyer</t>
   </si>
   <si>
+    <t>FC Concordia 03</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
   </si>
   <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -341,9 +344,6 @@
   </si>
   <si>
     <t>FSV GrunWeiss Ilsenburg</t>
-  </si>
-  <si>
-    <t>FC Concordia 03</t>
   </si>
   <si>
     <t>VfB Sangerhausen</t>
@@ -753,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +865,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -954,7 +954,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -966,61 +966,61 @@
         <v>124</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1055,61 +1055,61 @@
         <v>124</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1221,70 +1221,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1310,70 +1310,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7">
+        <v>1.65</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7">
-        <v>2.25</v>
-      </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>2.5</v>
-      </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2464,73 +2464,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2541,7 +2541,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2553,73 +2553,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2734,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4336,7 +4336,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4603,7 +4603,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -5048,7 +5048,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5137,7 +5137,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5582,7 +5582,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6116,7 +6116,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6561,7 +6561,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7807,7 +7807,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -8326,7 +8326,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8338,58 +8338,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8398,16 +8398,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8415,7 +8415,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8427,58 +8427,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>123</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8487,16 +8487,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9854,7 +9854,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>121</v>
@@ -11077,6 +11077,273 @@
         <v>0.95</v>
       </c>
       <c r="AC116">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>8014741</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45378.66666666666</v>
+      </c>
+      <c r="F117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>124</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>2.75</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2.8</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>4.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>-0.5</v>
+      </c>
+      <c r="AA117">
+        <v>0.4875</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>8013719</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45378.66666666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>125</v>
+      </c>
+      <c r="K118">
+        <v>1.5</v>
+      </c>
+      <c r="L118">
+        <v>4.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
+        <v>4</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
+        <v>1.925</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>3.75</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
+        <v>0.95</v>
+      </c>
+      <c r="AB118">
+        <v>0.875</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>8017337</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F119" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119" t="s">
+        <v>123</v>
+      </c>
+      <c r="K119">
+        <v>1.8</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>3.25</v>
+      </c>
+      <c r="N119">
+        <v>1.8</v>
+      </c>
+      <c r="O119">
+        <v>4</v>
+      </c>
+      <c r="P119">
+        <v>3.25</v>
+      </c>
+      <c r="Q119">
+        <v>-0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
+        <v>3.5</v>
+      </c>
+      <c r="U119">
+        <v>1.85</v>
+      </c>
+      <c r="V119">
+        <v>1.95</v>
+      </c>
+      <c r="W119">
+        <v>0.8</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC119">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -8326,7 +8326,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8338,58 +8338,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8398,16 +8398,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8415,7 +8415,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8427,58 +8427,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>123</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8487,16 +8487,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -8326,7 +8326,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8338,58 +8338,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8398,16 +8398,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8415,7 +8415,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8427,58 +8427,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>123</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8487,16 +8487,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -11085,7 +11085,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11097,76 +11097,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
+        <v>4.75</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
+        <v>5</v>
+      </c>
+      <c r="P117">
+        <v>4.75</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>2</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>2.8</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>4.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11174,7 +11174,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11186,76 +11186,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>124</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>2.75</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>2.8</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>4.25</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1.8</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="J118" t="s">
-        <v>125</v>
-      </c>
-      <c r="K118">
-        <v>1.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>4.2</v>
-      </c>
-      <c r="N118">
-        <v>1.444</v>
-      </c>
-      <c r="O118">
-        <v>5</v>
-      </c>
-      <c r="P118">
-        <v>4.75</v>
-      </c>
-      <c r="Q118">
-        <v>-1.25</v>
-      </c>
-      <c r="R118">
-        <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>4</v>
-      </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -112,15 +112,15 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -286,18 +286,21 @@
     <t>FC Concordia 03</t>
   </si>
   <si>
+    <t>Brandenburger SC Sd 05</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -379,10 +382,13 @@
     <t>FC Basara Mainz</t>
   </si>
   <si>
-    <t>Brandenburger SC Sd 05</t>
-  </si>
-  <si>
     <t>FC Muhlhausen 1927</t>
+  </si>
+  <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
+    <t>SV Rot Weiss Wittlich</t>
   </si>
   <si>
     <t>H</t>
@@ -753,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -874,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K3">
         <v>1.05</v>
@@ -1043,7 +1049,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1052,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -1117,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1132,55 +1138,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1189,13 +1195,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1206,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1221,70 +1227,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>125</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1295,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1310,70 +1316,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1399,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1408,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1488,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1497,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1577,7 +1583,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1675,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1764,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1853,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1942,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2031,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2120,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -2209,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2387,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2476,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>3.75</v>
@@ -2556,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2565,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K21">
         <v>1.4</v>
@@ -2654,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2734,7 +2740,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2743,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2832,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2912,7 +2918,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2921,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3001,7 +3007,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3010,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3090,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3099,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3188,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3268,7 +3274,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3277,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3366,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3455,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3544,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3633,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3722,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3811,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3891,7 +3897,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3900,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4078,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4167,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4256,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4336,7 +4342,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4345,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4425,7 +4431,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4434,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4523,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4603,7 +4609,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4612,7 +4618,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4701,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4766,7 +4772,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4781,46 +4787,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>125</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4829,19 +4835,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4855,7 +4861,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4870,46 +4876,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4918,19 +4924,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4968,7 +4974,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5048,7 +5054,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5057,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5137,7 +5143,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5146,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5235,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5324,7 +5330,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5404,7 +5410,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5413,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5493,7 +5499,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5502,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5582,7 +5588,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5591,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5680,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5769,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5849,7 +5855,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5858,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5947,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6036,7 +6042,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6116,7 +6122,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6125,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6214,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6303,7 +6309,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6392,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6481,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6570,7 +6576,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6650,7 +6656,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6659,7 +6665,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6748,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K68">
         <v>1.8</v>
@@ -6837,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6917,7 +6923,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6926,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K70">
         <v>1.727</v>
@@ -7015,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7104,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7193,7 +7199,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7282,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7371,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7451,7 +7457,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7460,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7540,7 +7546,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7549,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7629,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7638,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7718,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7727,7 +7733,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7807,7 +7813,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7816,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7905,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7994,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8074,7 +8080,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8083,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8163,7 +8169,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8172,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8261,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8350,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8439,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K87">
         <v>4.333</v>
@@ -8519,7 +8525,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8528,7 +8534,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8608,7 +8614,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8617,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8706,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8786,7 +8792,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8795,7 +8801,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8884,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8964,7 +8970,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8973,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9062,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9142,7 +9148,7 @@
         <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9151,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9240,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9329,7 +9335,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9409,7 +9415,7 @@
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9418,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9498,7 +9504,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9507,7 +9513,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9587,7 +9593,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9596,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9685,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9774,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9854,7 +9860,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9863,7 +9869,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9943,7 +9949,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9952,7 +9958,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10041,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10130,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10219,7 +10225,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10296,10 +10302,10 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10308,7 +10314,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10397,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10486,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10575,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10664,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10753,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10842,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10931,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11020,7 +11026,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11085,7 +11091,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11097,76 +11103,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>126</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>2.75</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2.8</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>4.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>125</v>
-      </c>
-      <c r="K117">
-        <v>1.5</v>
-      </c>
-      <c r="L117">
-        <v>4.75</v>
-      </c>
-      <c r="M117">
-        <v>4.2</v>
-      </c>
-      <c r="N117">
-        <v>1.444</v>
-      </c>
-      <c r="O117">
-        <v>5</v>
-      </c>
-      <c r="P117">
-        <v>4.75</v>
-      </c>
-      <c r="Q117">
-        <v>-1.25</v>
-      </c>
-      <c r="R117">
-        <v>1.85</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>4</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11174,7 +11180,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11186,76 +11192,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
+        <v>4.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>2.75</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>2.8</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>4.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11287,7 +11293,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11344,6 +11350,273 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>8026102</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>90</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>127</v>
+      </c>
+      <c r="K120">
+        <v>1.1</v>
+      </c>
+      <c r="L120">
+        <v>9</v>
+      </c>
+      <c r="M120">
+        <v>15</v>
+      </c>
+      <c r="N120">
+        <v>1.1</v>
+      </c>
+      <c r="O120">
+        <v>9</v>
+      </c>
+      <c r="P120">
+        <v>15</v>
+      </c>
+      <c r="Q120">
+        <v>-2.75</v>
+      </c>
+      <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
+        <v>4</v>
+      </c>
+      <c r="U120">
+        <v>1.9</v>
+      </c>
+      <c r="V120">
+        <v>1.9</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>14</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
+        <v>0.95</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>8026103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G121" t="s">
+        <v>123</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>125</v>
+      </c>
+      <c r="K121">
+        <v>3.1</v>
+      </c>
+      <c r="L121">
+        <v>3.75</v>
+      </c>
+      <c r="M121">
+        <v>1.909</v>
+      </c>
+      <c r="N121">
+        <v>3.2</v>
+      </c>
+      <c r="O121">
+        <v>3.75</v>
+      </c>
+      <c r="P121">
+        <v>1.909</v>
+      </c>
+      <c r="Q121">
+        <v>0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>1.8</v>
+      </c>
+      <c r="W121">
+        <v>2.2</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>8026309</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>126</v>
+      </c>
+      <c r="K122">
+        <v>1.8</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>3.25</v>
+      </c>
+      <c r="N122">
+        <v>1.8</v>
+      </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>3.2</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.85</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>3.5</v>
+      </c>
+      <c r="U122">
+        <v>1.825</v>
+      </c>
+      <c r="V122">
+        <v>1.975</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.95</v>
+      </c>
+      <c r="AB122">
+        <v>0.825</v>
+      </c>
+      <c r="AC122">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -289,6 +289,15 @@
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
+    <t>FC Ederbergland</t>
+  </si>
+  <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -352,9 +361,6 @@
     <t>VfB Sangerhausen</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
     <t>FV Biebrich 02</t>
   </si>
   <si>
@@ -385,10 +391,10 @@
     <t>FC Muhlhausen 1927</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
     <t>SV Rot Weiss Wittlich</t>
+  </si>
+  <si>
+    <t>TSV Steinbach II</t>
   </si>
   <si>
     <t>H</t>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +877,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -880,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K3">
         <v>1.05</v>
@@ -1049,7 +1055,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -1138,7 +1144,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K5">
         <v>1.65</v>
@@ -1227,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -1236,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1316,7 +1322,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1325,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1405,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1414,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1494,7 +1500,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1503,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1583,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1681,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1770,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1859,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1948,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2037,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2126,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -2215,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2304,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2393,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2458,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2470,73 +2476,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2547,7 +2553,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2559,73 +2565,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>127</v>
       </c>
       <c r="K21">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L21">
-        <v>4.8</v>
+        <v>4.333</v>
       </c>
       <c r="M21">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <v>1.8</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2660,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2740,7 +2746,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2749,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2838,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2918,7 +2924,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2927,7 +2933,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3016,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3096,7 +3102,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3105,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3194,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3274,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3283,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3372,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3461,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3550,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3639,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3728,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3817,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3897,7 +3903,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3906,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -3995,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4084,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4173,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4262,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4342,7 +4348,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4351,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4431,7 +4437,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4440,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4529,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4609,7 +4615,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4618,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4707,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4772,7 +4778,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4787,46 +4793,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4835,19 +4841,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4861,7 +4867,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4876,46 +4882,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>127</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4924,19 +4930,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4974,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5054,7 +5060,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5063,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5143,7 +5149,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5152,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5241,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5330,7 +5336,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5410,7 +5416,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5419,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5499,7 +5505,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5508,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5588,7 +5594,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5597,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5686,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5775,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5855,7 +5861,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5864,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5953,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6042,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6122,7 +6128,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6131,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6220,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6309,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6398,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6487,7 +6493,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6576,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6656,7 +6662,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6665,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6754,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K68">
         <v>1.8</v>
@@ -6819,7 +6825,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6831,76 +6837,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6908,7 +6914,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6920,76 +6926,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>128</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>125</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7021,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7110,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7199,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7288,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7377,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7457,7 +7463,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7546,7 +7552,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7555,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7635,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7644,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7724,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7733,7 +7739,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7813,7 +7819,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7822,7 +7828,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7911,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8000,7 +8006,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8080,7 +8086,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8089,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8169,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8178,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8267,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8356,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8445,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K87">
         <v>4.333</v>
@@ -8525,7 +8531,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8534,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8614,7 +8620,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8623,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8712,7 +8718,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8792,7 +8798,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8801,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8890,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8970,7 +8976,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8979,7 +8985,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9068,7 +9074,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9148,7 +9154,7 @@
         <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9157,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9246,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9335,7 +9341,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9415,7 +9421,7 @@
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9424,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9504,7 +9510,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9513,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9593,7 +9599,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9602,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9691,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9780,7 +9786,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9860,7 +9866,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9869,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9949,7 +9955,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9958,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10047,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10136,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10225,7 +10231,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10314,7 +10320,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10403,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10492,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10581,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10670,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10759,7 +10765,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10928,7 +10934,7 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10937,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11026,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11115,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -11204,7 +11210,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K118">
         <v>1.5</v>
@@ -11293,7 +11299,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11382,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K120">
         <v>1.1</v>
@@ -11462,7 +11468,7 @@
         <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11471,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11551,7 +11557,7 @@
         <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11560,7 +11566,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11618,6 +11624,273 @@
       </c>
       <c r="AC122">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>8038996</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45383.39583333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123" t="s">
+        <v>115</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>127</v>
+      </c>
+      <c r="K123">
+        <v>1.75</v>
+      </c>
+      <c r="L123">
+        <v>4.2</v>
+      </c>
+      <c r="M123">
+        <v>3.4</v>
+      </c>
+      <c r="N123">
+        <v>1.75</v>
+      </c>
+      <c r="O123">
+        <v>4.2</v>
+      </c>
+      <c r="P123">
+        <v>3.4</v>
+      </c>
+      <c r="Q123">
+        <v>-0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
+        <v>3.5</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
+        <v>1.95</v>
+      </c>
+      <c r="W123">
+        <v>0.75</v>
+      </c>
+      <c r="X123">
+        <v>-1</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.4875</v>
+      </c>
+      <c r="AA123">
+        <v>-0.5</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>8039381</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>92</v>
+      </c>
+      <c r="G124" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>129</v>
+      </c>
+      <c r="K124">
+        <v>3.25</v>
+      </c>
+      <c r="L124">
+        <v>3.8</v>
+      </c>
+      <c r="M124">
+        <v>1.833</v>
+      </c>
+      <c r="N124">
+        <v>3.25</v>
+      </c>
+      <c r="O124">
+        <v>3.8</v>
+      </c>
+      <c r="P124">
+        <v>1.833</v>
+      </c>
+      <c r="Q124">
+        <v>0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
+        <v>1.975</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.833</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.875</v>
+      </c>
+      <c r="AB124">
+        <v>0.825</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>8039382</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>93</v>
+      </c>
+      <c r="G125" t="s">
+        <v>126</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>129</v>
+      </c>
+      <c r="K125">
+        <v>15</v>
+      </c>
+      <c r="L125">
+        <v>9</v>
+      </c>
+      <c r="M125">
+        <v>1.111</v>
+      </c>
+      <c r="N125">
+        <v>15</v>
+      </c>
+      <c r="O125">
+        <v>9</v>
+      </c>
+      <c r="P125">
+        <v>1.111</v>
+      </c>
+      <c r="Q125">
+        <v>2.75</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
+        <v>1.9</v>
+      </c>
+      <c r="V125">
+        <v>1.9</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.111</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -112,12 +112,12 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
-    <t>FC Burgsolms</t>
   </si>
   <si>
     <t>SV Frankonia Wernsdorf</t>
@@ -765,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1144,55 +1144,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>127</v>
       </c>
       <c r="K5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.45</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.925</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1201,13 +1201,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1233,55 +1233,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>127</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1290,13 +1290,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -3013,7 +3013,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6662,37 +6662,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6701,7 +6701,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6713,10 +6713,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6751,37 +6751,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6790,7 +6790,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6802,10 +6802,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6825,7 +6825,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6837,76 +6837,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>127</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6914,7 +6914,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6926,76 +6926,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -8338,7 +8338,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8350,58 +8350,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>127</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8410,16 +8410,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8427,7 +8427,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8439,58 +8439,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>127</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8499,16 +8499,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
         <v>114</v>
@@ -9418,7 +9418,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>122</v>
@@ -10486,7 +10486,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10753,10 +10753,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" t="s">
         <v>73</v>
-      </c>
-      <c r="G113" t="s">
-        <v>74</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11287,7 +11287,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11364,7 +11364,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11376,40 +11376,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K120">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11418,34 +11418,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11453,7 +11453,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11465,40 +11465,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11507,34 +11507,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11631,7 +11631,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8038996</v>
+        <v>8038989</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11640,61 +11640,61 @@
         <v>28</v>
       </c>
       <c r="E123" s="2">
-        <v>45383.39583333334</v>
+        <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>127</v>
       </c>
       <c r="K123">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N123">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P123">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11703,16 +11703,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11720,7 +11720,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8039381</v>
+        <v>8038996</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11729,79 +11729,79 @@
         <v>28</v>
       </c>
       <c r="E124" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
       <c r="J124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M124">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>45383.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G125" t="s">
         <v>126</v>
@@ -11891,6 +11891,95 @@
       </c>
       <c r="AC125">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>8039381</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" t="s">
+        <v>97</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126" t="s">
+        <v>129</v>
+      </c>
+      <c r="K126">
+        <v>3.25</v>
+      </c>
+      <c r="L126">
+        <v>3.8</v>
+      </c>
+      <c r="M126">
+        <v>1.833</v>
+      </c>
+      <c r="N126">
+        <v>3.25</v>
+      </c>
+      <c r="O126">
+        <v>3.8</v>
+      </c>
+      <c r="P126">
+        <v>1.833</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.925</v>
+      </c>
+      <c r="S126">
+        <v>1.875</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.833</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.875</v>
+      </c>
+      <c r="AB126">
+        <v>0.825</v>
+      </c>
+      <c r="AC126">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -8338,7 +8338,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8350,58 +8350,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>127</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8410,16 +8410,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8427,7 +8427,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8439,58 +8439,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>127</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8499,16 +8499,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -8338,7 +8338,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8350,58 +8350,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>127</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8410,16 +8410,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8427,7 +8427,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8439,58 +8439,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>127</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8499,16 +8499,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -112,12 +112,12 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
     <t>FC Burgsolms</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>TSV Steinbach II</t>
+  </si>
+  <si>
+    <t>Reichenbach</t>
   </si>
   <si>
     <t>H</t>
@@ -765,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -966,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K3">
         <v>1.05</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4">
         <v>2.2</v>
@@ -1129,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1144,55 +1147,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1201,13 +1204,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1218,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1233,55 +1236,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6">
+        <v>2.2</v>
+      </c>
+      <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>1.727</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6">
-        <v>1.65</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.45</v>
-      </c>
-      <c r="O6">
-        <v>4.5</v>
-      </c>
       <c r="P6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.775</v>
+      </c>
+      <c r="S6">
+        <v>2.025</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
         <v>1.925</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1290,13 +1293,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.925</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1331,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1420,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1509,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1687,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1776,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1865,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1954,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2043,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2132,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -2221,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2399,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2488,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2577,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21">
         <v>3.75</v>
@@ -2666,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2755,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2844,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2933,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3013,7 +3016,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3022,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3111,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3200,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3289,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3378,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3467,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3556,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3645,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3734,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3823,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3912,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -4001,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4090,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4179,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4268,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4357,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4446,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4535,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4624,7 +4627,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4713,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4778,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4793,46 +4796,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4841,19 +4844,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4867,7 +4870,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4882,46 +4885,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4930,19 +4933,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4980,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5069,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5158,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5247,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5336,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5425,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5514,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5603,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5692,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5781,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5870,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5959,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6048,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6137,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6226,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6315,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6404,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6493,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6582,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6647,7 +6650,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6662,37 +6665,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6701,7 +6704,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6713,10 +6716,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6736,7 +6739,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6751,37 +6754,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>129</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6790,7 +6793,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6802,10 +6805,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6825,7 +6828,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6837,76 +6840,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>128</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6914,7 +6917,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6926,76 +6929,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>129</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>127</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7027,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7116,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7205,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7294,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7383,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7472,7 +7475,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7561,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7650,7 +7653,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7739,7 +7742,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7828,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7917,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8006,7 +8009,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8095,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8184,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8362,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K86">
         <v>4.333</v>
@@ -8451,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8540,7 +8543,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8629,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8718,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8807,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8896,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8985,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9074,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9151,7 +9154,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>114</v>
@@ -9163,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9252,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9341,7 +9344,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9418,7 +9421,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
         <v>122</v>
@@ -9430,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9519,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9608,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9697,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9786,7 +9789,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9875,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9955,7 +9958,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9964,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10053,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10142,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10231,7 +10234,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10320,7 +10323,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10409,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10486,7 +10489,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10498,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10587,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10676,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10753,10 +10756,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
         <v>74</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10854,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10943,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11032,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11097,7 +11100,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11109,76 +11112,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
+        <v>4.75</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
+        <v>5</v>
+      </c>
+      <c r="P117">
+        <v>4.75</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>2</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>2.8</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>4.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11186,7 +11189,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11198,76 +11201,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>129</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N118">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11287,7 +11290,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11299,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11379,7 +11382,7 @@
         <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11388,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K120">
         <v>3.1</v>
@@ -11477,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K121">
         <v>1.1</v>
@@ -11566,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11643,10 +11646,10 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11655,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11744,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K124">
         <v>1.75</v>
@@ -11809,7 +11812,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11824,52 +11827,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q125">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11878,19 +11881,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11898,7 +11901,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11913,73 +11916,340 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126" t="s">
+        <v>130</v>
+      </c>
+      <c r="K126">
+        <v>15</v>
+      </c>
+      <c r="L126">
+        <v>9</v>
+      </c>
+      <c r="M126">
+        <v>1.111</v>
+      </c>
+      <c r="N126">
+        <v>15</v>
+      </c>
+      <c r="O126">
+        <v>9</v>
+      </c>
+      <c r="P126">
+        <v>1.111</v>
+      </c>
+      <c r="Q126">
+        <v>2.75</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>4</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.9</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>0.111</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>8044263</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45385.625</v>
+      </c>
+      <c r="F127" t="s">
+        <v>59</v>
+      </c>
+      <c r="G127" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I126">
+      <c r="J127" t="s">
+        <v>128</v>
+      </c>
+      <c r="K127">
+        <v>1.909</v>
+      </c>
+      <c r="L127">
+        <v>4.2</v>
+      </c>
+      <c r="M127">
+        <v>2.875</v>
+      </c>
+      <c r="N127">
+        <v>1.909</v>
+      </c>
+      <c r="O127">
+        <v>4.2</v>
+      </c>
+      <c r="P127">
         <v>3</v>
       </c>
-      <c r="J126" t="s">
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
+        <v>3.75</v>
+      </c>
+      <c r="U127">
+        <v>1.925</v>
+      </c>
+      <c r="V127">
+        <v>1.875</v>
+      </c>
+      <c r="W127">
+        <v>0.909</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.95</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.925</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>8044262</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45385.63125</v>
+      </c>
+      <c r="F128" t="s">
+        <v>78</v>
+      </c>
+      <c r="G128" t="s">
+        <v>117</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>128</v>
+      </c>
+      <c r="K128">
+        <v>1.666</v>
+      </c>
+      <c r="L128">
+        <v>4.75</v>
+      </c>
+      <c r="M128">
+        <v>3.3</v>
+      </c>
+      <c r="N128">
+        <v>1.666</v>
+      </c>
+      <c r="O128">
+        <v>4.75</v>
+      </c>
+      <c r="P128">
+        <v>3.3</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>1.95</v>
+      </c>
+      <c r="W128">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>8050953</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45387.58333333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>51</v>
+      </c>
+      <c r="G129" t="s">
+        <v>127</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
         <v>129</v>
       </c>
-      <c r="K126">
-        <v>3.25</v>
-      </c>
-      <c r="L126">
-        <v>3.8</v>
-      </c>
-      <c r="M126">
-        <v>1.833</v>
-      </c>
-      <c r="N126">
-        <v>3.25</v>
-      </c>
-      <c r="O126">
-        <v>3.8</v>
-      </c>
-      <c r="P126">
-        <v>1.833</v>
-      </c>
-      <c r="Q126">
-        <v>0.5</v>
-      </c>
-      <c r="R126">
-        <v>1.925</v>
-      </c>
-      <c r="S126">
-        <v>1.875</v>
-      </c>
-      <c r="T126">
-        <v>3</v>
-      </c>
-      <c r="U126">
+      <c r="K129">
+        <v>1.285</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+      <c r="M129">
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>1.25</v>
+      </c>
+      <c r="O129">
+        <v>6.5</v>
+      </c>
+      <c r="P129">
+        <v>6.5</v>
+      </c>
+      <c r="Q129">
+        <v>-2</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>0.833</v>
-      </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
-      <c r="AA126">
-        <v>0.875</v>
-      </c>
-      <c r="AB126">
+      <c r="T129">
+        <v>3.75</v>
+      </c>
+      <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
+        <v>1.95</v>
+      </c>
+      <c r="W129">
+        <v>-1</v>
+      </c>
+      <c r="X129">
+        <v>5.5</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
         <v>0.825</v>
       </c>
-      <c r="AC126">
-        <v>-1</v>
+      <c r="AB129">
+        <v>0.425</v>
+      </c>
+      <c r="AC129">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -208,10 +208,10 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
-    <t>Waldhof Mannheim II</t>
   </si>
   <si>
     <t>FC Zuzenhausen</t>
@@ -4781,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4796,46 +4796,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4844,19 +4844,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4870,7 +4870,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4885,46 +4885,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4933,19 +4933,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -9958,7 +9958,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
-  </si>
-  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,10 +292,13 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
+    <t>TSV Steinbach II</t>
   </si>
   <si>
     <t>SV Frankonia Wernsdorf</t>
@@ -394,10 +397,10 @@
     <t>SV Rot Weiss Wittlich</t>
   </si>
   <si>
-    <t>TSV Steinbach II</t>
-  </si>
-  <si>
     <t>Reichenbach</t>
+  </si>
+  <si>
+    <t>SG Walluf</t>
   </si>
   <si>
     <t>H</t>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -889,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -954,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -969,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -978,64 +981,64 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1043,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1058,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1067,64 +1070,64 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1147,7 +1150,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5">
         <v>1.65</v>
@@ -1236,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -1245,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1325,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1334,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1414,7 +1417,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1423,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1503,7 +1506,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1592,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1601,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1690,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1779,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1868,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1957,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2046,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2135,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -2224,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17">
         <v>2.25</v>
@@ -2313,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2402,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2482,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2491,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2580,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21">
         <v>3.75</v>
@@ -2669,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2749,7 +2752,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2758,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2847,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2927,7 +2930,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2936,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3025,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3105,7 +3108,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3114,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3203,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3283,7 +3286,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3292,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3381,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3470,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3559,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3648,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3737,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3826,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3906,7 +3909,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3915,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -4004,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4093,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4182,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4271,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4351,7 +4354,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4360,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4440,7 +4443,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4449,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4538,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4618,7 +4621,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4627,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4716,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4781,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4796,46 +4799,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4844,19 +4847,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4870,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4885,46 +4888,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4933,19 +4936,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4983,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5063,7 +5066,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5072,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5152,7 +5155,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5161,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5250,7 +5253,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5339,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5419,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5428,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5508,7 +5511,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5517,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5597,7 +5600,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5606,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5695,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5784,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5864,7 +5867,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5873,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5962,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6051,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6131,7 +6134,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6140,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6229,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6318,7 +6321,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6407,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6496,7 +6499,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6585,7 +6588,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6650,7 +6653,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6665,37 +6668,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>130</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6704,7 +6707,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6716,10 +6719,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6739,7 +6742,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6754,37 +6757,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6793,7 +6796,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6805,10 +6808,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6843,7 +6846,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6852,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K69">
         <v>1.727</v>
@@ -6941,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K70">
         <v>2.2</v>
@@ -7030,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7119,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7208,7 +7211,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7297,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7386,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7466,7 +7469,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7475,7 +7478,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7555,7 +7558,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7564,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7644,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7653,7 +7656,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7733,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7742,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7822,7 +7825,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7831,7 +7834,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7920,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8009,7 +8012,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8089,7 +8092,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8098,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8178,7 +8181,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8187,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8276,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8341,7 +8344,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8353,58 +8356,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8413,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8430,7 +8433,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8442,58 +8445,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87">
+        <v>4.333</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>128</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8502,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8534,7 +8537,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8543,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8623,7 +8626,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8632,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8721,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8801,7 +8804,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8810,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8979,7 +8982,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9077,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9154,10 +9157,10 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9166,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9255,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9344,7 +9347,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9421,10 +9424,10 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9433,7 +9436,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9513,7 +9516,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9522,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9602,7 +9605,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9611,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9700,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9789,7 +9792,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9869,7 +9872,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9878,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9958,7 +9961,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9967,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10056,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10145,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10234,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10323,7 +10326,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10412,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10489,7 +10492,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10501,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10590,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10679,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10756,10 +10759,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" t="s">
         <v>73</v>
-      </c>
-      <c r="G113" t="s">
-        <v>74</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10768,7 +10771,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10857,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10937,7 +10940,7 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10946,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11035,7 +11038,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11124,7 +11127,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K117">
         <v>1.5</v>
@@ -11213,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -11290,7 +11293,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11302,7 +11305,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11382,7 +11385,7 @@
         <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11391,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K120">
         <v>3.1</v>
@@ -11480,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K121">
         <v>1.1</v>
@@ -11560,7 +11563,7 @@
         <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11569,7 +11572,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11646,7 +11649,7 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11658,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11738,7 +11741,7 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11747,7 +11750,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K124">
         <v>1.75</v>
@@ -11812,7 +11815,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11827,52 +11830,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11881,19 +11884,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11901,7 +11904,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11916,52 +11919,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q126">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11970,19 +11973,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12014,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -12094,7 +12097,7 @@
         <v>78</v>
       </c>
       <c r="G128" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12103,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K128">
         <v>1.666</v>
@@ -12192,7 +12195,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12250,6 +12253,362 @@
       </c>
       <c r="AC129">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>8055569</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>129</v>
+      </c>
+      <c r="K130">
+        <v>3.5</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1.727</v>
+      </c>
+      <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>4</v>
+      </c>
+      <c r="P130">
+        <v>1.727</v>
+      </c>
+      <c r="Q130">
+        <v>0.75</v>
+      </c>
+      <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
+        <v>1.95</v>
+      </c>
+      <c r="T130">
+        <v>3.75</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>2.5</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>8054877</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131" t="s">
+        <v>78</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>129</v>
+      </c>
+      <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>3.1</v>
+      </c>
+      <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
+        <v>3.8</v>
+      </c>
+      <c r="P131">
+        <v>3.1</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.975</v>
+      </c>
+      <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2</v>
+      </c>
+      <c r="W131">
+        <v>0.909</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>8059745</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45389.29166666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" t="s">
+        <v>125</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>131</v>
+      </c>
+      <c r="K132">
+        <v>2.1</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>2.7</v>
+      </c>
+      <c r="N132">
+        <v>2.1</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>2.625</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
+        <v>1.875</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>1.8</v>
+      </c>
+      <c r="V132">
+        <v>2</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>1.625</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.875</v>
+      </c>
+      <c r="AB132">
+        <v>-0.5</v>
+      </c>
+      <c r="AC132">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>8059762</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>94</v>
+      </c>
+      <c r="G133" t="s">
+        <v>128</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>129</v>
+      </c>
+      <c r="K133">
+        <v>1.3</v>
+      </c>
+      <c r="L133">
+        <v>5.5</v>
+      </c>
+      <c r="M133">
+        <v>6</v>
+      </c>
+      <c r="N133">
+        <v>1.3</v>
+      </c>
+      <c r="O133">
+        <v>5.75</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+      <c r="Q133">
+        <v>-1.75</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>4</v>
+      </c>
+      <c r="U133">
+        <v>1.875</v>
+      </c>
+      <c r="V133">
+        <v>1.925</v>
+      </c>
+      <c r="W133">
+        <v>0.3</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.4625</v>
+      </c>
+      <c r="AA133">
+        <v>-0.5</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -106,21 +106,21 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
+    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
-  </si>
-  <si>
-    <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -984,61 +984,61 @@
         <v>130</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1061,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1073,61 +1073,61 @@
         <v>130</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1153,67 +1153,67 @@
         <v>97</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K5">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
         <v>1.825</v>
       </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1331,67 +1331,67 @@
         <v>98</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7">
+        <v>1.65</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7">
-        <v>2.25</v>
-      </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>2.5</v>
-      </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2114,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2126,76 +2126,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2482,73 +2482,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2559,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2571,73 +2571,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4784,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4799,46 +4799,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4847,19 +4847,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4873,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4888,46 +4888,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4936,19 +4936,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -6653,7 +6653,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6668,37 +6668,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6707,7 +6707,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6719,10 +6719,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6742,7 +6742,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6757,37 +6757,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6796,7 +6796,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6808,10 +6808,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -8344,7 +8344,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8356,58 +8356,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>129</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8445,58 +8445,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>129</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8505,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>115</v>
@@ -9424,7 +9424,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
         <v>123</v>
@@ -9961,7 +9961,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10314,7 +10314,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -10492,7 +10492,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10759,10 +10759,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
         <v>74</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11207,7 +11207,7 @@
         <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11293,7 +11293,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11370,7 +11370,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11382,40 +11382,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11424,34 +11424,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11459,7 +11459,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11471,40 +11471,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K121">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11513,34 +11513,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11649,10 +11649,10 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12450,7 +12450,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
         <v>125</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -106,21 +106,21 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
+    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
-    <t>MSC Preussen 1899</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -984,61 +984,61 @@
         <v>130</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1061,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1073,61 +1073,61 @@
         <v>130</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1153,67 +1153,67 @@
         <v>97</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5">
+        <v>1.65</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5">
-        <v>2.25</v>
-      </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
-      <c r="P5">
-        <v>2.5</v>
-      </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>3.5</v>
       </c>
       <c r="U5">
+        <v>1.825</v>
+      </c>
+      <c r="V5">
         <v>1.975</v>
       </c>
-      <c r="V5">
-        <v>1.825</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1331,67 +1331,67 @@
         <v>98</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -10314,7 +10314,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -11207,7 +11207,7 @@
         <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11370,7 +11370,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11382,40 +11382,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K120">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11424,34 +11424,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11459,7 +11459,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11471,40 +11471,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11513,34 +11513,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H126">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -112,10 +112,10 @@
     <t>Magdeburg II</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1150,55 +1150,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>129</v>
       </c>
       <c r="K5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.45</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.925</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1207,13 +1207,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1239,55 +1239,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>129</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-1.25</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -11652,7 +11652,7 @@
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,12 @@
     <t>SV Altldersdorf</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
-  </si>
-  <si>
-    <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -771,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1061,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1242,67 +1242,67 @@
         <v>97</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1331,67 +1331,67 @@
         <v>98</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7">
+        <v>1.65</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7">
-        <v>2.25</v>
-      </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.25</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>2.5</v>
-      </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2470,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2482,73 +2482,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2559,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2571,73 +2571,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4784,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4799,46 +4799,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4847,19 +4847,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4873,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4888,46 +4888,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4936,19 +4936,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -6653,7 +6653,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6668,37 +6668,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6707,7 +6707,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6719,10 +6719,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6742,7 +6742,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6757,37 +6757,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6796,7 +6796,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6808,10 +6808,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -8344,7 +8344,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8356,58 +8356,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>129</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8445,58 +8445,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>129</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8505,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
         <v>115</v>
@@ -9424,7 +9424,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>123</v>
@@ -9961,7 +9961,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10314,7 +10314,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -10492,7 +10492,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10759,10 +10759,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" t="s">
         <v>73</v>
-      </c>
-      <c r="G113" t="s">
-        <v>74</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11103,7 +11103,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11115,76 +11115,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>2.75</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2.8</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>4.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>131</v>
-      </c>
-      <c r="K117">
-        <v>1.5</v>
-      </c>
-      <c r="L117">
-        <v>4.75</v>
-      </c>
-      <c r="M117">
-        <v>4.2</v>
-      </c>
-      <c r="N117">
-        <v>1.444</v>
-      </c>
-      <c r="O117">
-        <v>5</v>
-      </c>
-      <c r="P117">
-        <v>4.75</v>
-      </c>
-      <c r="Q117">
-        <v>-1.25</v>
-      </c>
-      <c r="R117">
-        <v>1.85</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>4</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11192,7 +11192,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11204,76 +11204,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
+        <v>4.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>2.75</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>2.8</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>4.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11649,10 +11649,10 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12450,7 +12450,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G132" t="s">
         <v>125</v>
@@ -12609,6 +12609,95 @@
       </c>
       <c r="AC133">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>8074796</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45392.625</v>
+      </c>
+      <c r="F134" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134" t="s">
+        <v>131</v>
+      </c>
+      <c r="K134">
+        <v>2.5</v>
+      </c>
+      <c r="L134">
+        <v>3.75</v>
+      </c>
+      <c r="M134">
+        <v>2.25</v>
+      </c>
+      <c r="N134">
+        <v>2.55</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>2.25</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
+        <v>1.775</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.25</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB134">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -115,12 +115,12 @@
     <t>SV Altldersdorf</t>
   </si>
   <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
-    <t>MSC Preussen 1899</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1242,67 +1242,67 @@
         <v>97</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6">
+        <v>1.65</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6">
-        <v>2.25</v>
-      </c>
-      <c r="L6">
-        <v>3.75</v>
-      </c>
-      <c r="M6">
-        <v>2.5</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.75</v>
-      </c>
-      <c r="P6">
-        <v>2.5</v>
-      </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1331,67 +1331,67 @@
         <v>98</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2114,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2126,76 +2126,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2215,76 +2215,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2470,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2482,73 +2482,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2559,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2571,73 +2571,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6843,76 +6843,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>129</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6920,7 +6920,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6932,76 +6932,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -8344,7 +8344,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8356,58 +8356,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>129</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8433,7 +8433,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8445,58 +8445,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>129</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8505,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -10314,7 +10314,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -11103,7 +11103,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11115,76 +11115,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
+        <v>4.75</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
+        <v>5</v>
+      </c>
+      <c r="P117">
+        <v>4.75</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>2</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>2.8</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>4.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11192,7 +11192,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11204,76 +11204,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>130</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>2.75</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>2.8</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>4.25</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1.8</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="J118" t="s">
-        <v>131</v>
-      </c>
-      <c r="K118">
-        <v>1.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>4.2</v>
-      </c>
-      <c r="N118">
-        <v>1.444</v>
-      </c>
-      <c r="O118">
-        <v>5</v>
-      </c>
-      <c r="P118">
-        <v>4.75</v>
-      </c>
-      <c r="Q118">
-        <v>-1.25</v>
-      </c>
-      <c r="R118">
-        <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>4</v>
-      </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11370,7 +11370,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11382,40 +11382,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11424,34 +11424,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11459,7 +11459,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11471,40 +11471,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K121">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11513,34 +11513,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H126">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -112,12 +112,12 @@
     <t>Magdeburg II</t>
   </si>
   <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -292,15 +292,18 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
     <t>FC Burgsolms</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
+    <t>SV Viktoria Herxheim</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -401,6 +404,12 @@
   </si>
   <si>
     <t>SG Walluf</t>
+  </si>
+  <si>
+    <t>SV 1890 Westerhausen</t>
+  </si>
+  <si>
+    <t>FSV Offenbach</t>
   </si>
   <si>
     <t>H</t>
@@ -771,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC134"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -892,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -972,7 +981,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -981,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K3">
         <v>2.2</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K4">
         <v>1.05</v>
@@ -1135,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1150,55 +1159,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1207,13 +1216,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1224,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1239,55 +1248,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6">
+        <v>2.2</v>
+      </c>
+      <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>1.727</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6">
-        <v>1.65</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1.45</v>
-      </c>
-      <c r="O6">
-        <v>4.5</v>
-      </c>
       <c r="P6">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.775</v>
+      </c>
+      <c r="S6">
+        <v>2.025</v>
+      </c>
+      <c r="T6">
+        <v>3.25</v>
+      </c>
+      <c r="U6">
         <v>1.925</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>1.875</v>
       </c>
-      <c r="T6">
-        <v>3.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1296,13 +1305,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>0.925</v>
-      </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
-      <c r="AB6">
-        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1328,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1337,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1417,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1426,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1506,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1515,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1595,7 +1604,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1604,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1693,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1782,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1871,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1960,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2049,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2114,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2126,76 +2135,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2203,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2215,76 +2224,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2316,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2405,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2470,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2482,73 +2491,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2559,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2571,73 +2580,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2672,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2752,7 +2761,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2761,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2850,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2930,7 +2939,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2939,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3019,7 +3028,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3028,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3108,7 +3117,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3117,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3206,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3286,7 +3295,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3295,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3384,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3473,7 +3482,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3562,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3651,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3740,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3829,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3909,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3918,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -4007,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4096,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4185,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4274,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4354,7 +4363,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4363,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4443,7 +4452,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4452,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4541,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4621,7 +4630,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4630,7 +4639,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4719,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4784,7 +4793,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4799,46 +4808,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4847,19 +4856,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4873,7 +4882,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4888,46 +4897,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4936,19 +4945,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4986,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5066,7 +5075,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5075,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5155,7 +5164,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5164,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5253,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5342,7 +5351,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5422,7 +5431,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5431,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5511,7 +5520,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5520,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5600,7 +5609,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5609,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5698,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5787,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5867,7 +5876,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5876,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5965,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6054,7 +6063,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6134,7 +6143,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6143,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6232,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6321,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6410,7 +6419,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6499,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6588,7 +6597,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6677,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6757,7 +6766,7 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6766,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6855,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6935,7 +6944,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6944,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K70">
         <v>1.727</v>
@@ -7033,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7122,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7211,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7300,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7389,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7469,7 +7478,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7478,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7558,7 +7567,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7567,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7647,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7656,7 +7665,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7736,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7745,7 +7754,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7825,7 +7834,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7834,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7923,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8012,7 +8021,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8092,7 +8101,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8101,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8181,7 +8190,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8190,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8279,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8344,7 +8353,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8356,58 +8365,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8416,16 +8425,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8433,7 +8442,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8445,58 +8454,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+      <c r="K87">
+        <v>4.333</v>
+      </c>
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>129</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>3.75</v>
-      </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8505,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8537,7 +8546,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8546,7 +8555,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8626,7 +8635,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8724,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8804,7 +8813,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8813,7 +8822,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8902,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8982,7 +8991,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8991,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9080,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9160,7 +9169,7 @@
         <v>73</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9169,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9258,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9347,7 +9356,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9427,7 +9436,7 @@
         <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9436,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9516,7 +9525,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9525,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9605,7 +9614,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9614,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9703,7 +9712,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9792,7 +9801,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9872,7 +9881,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9881,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9961,7 +9970,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9970,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10059,7 +10068,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10148,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10237,7 +10246,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10326,7 +10335,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10415,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10504,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10593,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10682,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10771,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10860,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10940,7 +10949,7 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10949,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11038,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11127,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K117">
         <v>1.5</v>
@@ -11216,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -11305,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11394,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K120">
         <v>1.1</v>
@@ -11474,7 +11483,7 @@
         <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11483,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11563,7 +11572,7 @@
         <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11572,7 +11581,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11652,7 +11661,7 @@
         <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11661,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11741,7 +11750,7 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11750,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K124">
         <v>1.75</v>
@@ -11815,7 +11824,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11830,52 +11839,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q125">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11884,19 +11893,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11904,7 +11913,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11919,52 +11928,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11973,19 +11982,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12017,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -12097,7 +12106,7 @@
         <v>78</v>
       </c>
       <c r="G128" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12106,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K128">
         <v>1.666</v>
@@ -12186,7 +12195,7 @@
         <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12195,7 +12204,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12272,10 +12281,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12284,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12373,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12450,10 +12459,10 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12462,7 +12471,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12542,7 +12551,7 @@
         <v>94</v>
       </c>
       <c r="G133" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12551,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K133">
         <v>1.3</v>
@@ -12640,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K134">
         <v>2.5</v>
@@ -12697,6 +12706,184 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>8083444</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45394.5625</v>
+      </c>
+      <c r="F135" t="s">
+        <v>74</v>
+      </c>
+      <c r="G135" t="s">
+        <v>130</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>133</v>
+      </c>
+      <c r="K135">
+        <v>2.05</v>
+      </c>
+      <c r="L135">
+        <v>3.8</v>
+      </c>
+      <c r="M135">
+        <v>2.75</v>
+      </c>
+      <c r="N135">
+        <v>2.05</v>
+      </c>
+      <c r="O135">
+        <v>3.8</v>
+      </c>
+      <c r="P135">
+        <v>2.75</v>
+      </c>
+      <c r="Q135">
+        <v>-0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>1.925</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>2.8</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>-0.5</v>
+      </c>
+      <c r="AA135">
+        <v>0.4625</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>8083445</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45394.60416666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>95</v>
+      </c>
+      <c r="G136" t="s">
+        <v>131</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>132</v>
+      </c>
+      <c r="K136">
+        <v>1.5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>5.25</v>
+      </c>
+      <c r="N136">
+        <v>1.615</v>
+      </c>
+      <c r="O136">
+        <v>3.8</v>
+      </c>
+      <c r="P136">
+        <v>4.5</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1.8</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.925</v>
+      </c>
+      <c r="V136">
+        <v>1.875</v>
+      </c>
+      <c r="W136">
+        <v>0.615</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>1</v>
+      </c>
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
+        <v>0.925</v>
+      </c>
+      <c r="AC136">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
-  </si>
-  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,18 +292,21 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
     <t>SV Viktoria Herxheim</t>
   </si>
   <si>
+    <t>TuS Hohenecken</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>FSV Offenbach</t>
+  </si>
+  <si>
+    <t>TB Jahn Zeiskam 1896</t>
   </si>
   <si>
     <t>H</t>
@@ -780,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -901,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -966,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -981,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -990,64 +996,64 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1055,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1070,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1079,64 +1085,64 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1159,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1168,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K5">
         <v>1.65</v>
@@ -1248,7 +1254,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6">
         <v>8</v>
@@ -1257,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K6">
         <v>2.2</v>
@@ -1337,7 +1343,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1346,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1426,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1435,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1515,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1524,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1604,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1702,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1791,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1880,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1969,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2058,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2123,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2135,76 +2141,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2212,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2224,76 +2230,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2325,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2414,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2494,7 +2500,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2503,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
         <v>1.4</v>
@@ -2592,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21">
         <v>3.75</v>
@@ -2681,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2761,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2770,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2859,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2939,7 +2945,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2948,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3037,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3117,7 +3123,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3126,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3215,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3295,7 +3301,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3304,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3393,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3482,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3571,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3660,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3749,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3838,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3918,7 +3924,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3927,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -4016,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4105,7 +4111,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4194,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4283,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4363,7 +4369,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4372,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4452,7 +4458,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4461,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4550,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4630,7 +4636,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4639,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4728,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4793,7 +4799,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4808,46 +4814,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
       </c>
       <c r="J46" t="s">
         <v>134</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4856,19 +4862,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4882,7 +4888,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4897,46 +4903,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>3</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4945,19 +4951,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -4995,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5075,7 +5081,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5084,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5164,7 +5170,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5173,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5262,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5351,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5431,7 +5437,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5440,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5520,7 +5526,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5529,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5609,7 +5615,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5618,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5707,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5796,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5876,7 +5882,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5885,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5974,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6063,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6143,7 +6149,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6152,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6241,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6330,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6419,7 +6425,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6508,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6597,7 +6603,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6662,7 +6668,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6677,37 +6683,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6716,7 +6722,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6728,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6751,7 +6757,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6766,37 +6772,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6805,7 +6811,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6817,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6840,7 +6846,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6852,76 +6858,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6929,7 +6935,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6941,76 +6947,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7042,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7131,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7220,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7309,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7398,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7478,7 +7484,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7487,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7567,7 +7573,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7576,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7656,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7665,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7745,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7754,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7834,7 +7840,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7843,7 +7849,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7932,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8021,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8101,7 +8107,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8110,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8190,7 +8196,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8199,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8288,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8353,7 +8359,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8365,58 +8371,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+      <c r="K86">
+        <v>4.333</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>132</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>3.75</v>
-      </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8425,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8442,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8454,58 +8460,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8514,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8546,7 +8552,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8555,7 +8561,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8635,7 +8641,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8644,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8733,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8813,7 +8819,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8822,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8911,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8991,7 +8997,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9000,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9089,7 +9095,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9166,10 +9172,10 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9178,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9267,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9356,7 +9362,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9433,10 +9439,10 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9445,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9525,7 +9531,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9534,7 +9540,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9614,7 +9620,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9623,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9712,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9801,7 +9807,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9881,7 +9887,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9890,7 +9896,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9970,7 +9976,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -9979,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10068,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10157,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10246,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10335,7 +10341,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10424,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10501,7 +10507,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10513,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10602,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10691,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10768,10 +10774,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
         <v>74</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10780,7 +10786,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10869,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10949,7 +10955,7 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10958,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11047,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11136,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K117">
         <v>1.5</v>
@@ -11225,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -11302,7 +11308,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11314,7 +11320,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11403,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K120">
         <v>1.1</v>
@@ -11483,7 +11489,7 @@
         <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11492,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K121">
         <v>3.1</v>
@@ -11572,7 +11578,7 @@
         <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11581,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11658,7 +11664,7 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11670,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11750,7 +11756,7 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11759,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K124">
         <v>1.75</v>
@@ -11824,7 +11830,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11839,52 +11845,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11893,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11913,7 +11919,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11928,52 +11934,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q126">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11982,19 +11988,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12026,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -12106,7 +12112,7 @@
         <v>78</v>
       </c>
       <c r="G128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12115,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K128">
         <v>1.666</v>
@@ -12195,7 +12201,7 @@
         <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12204,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12281,10 +12287,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12293,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12382,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12459,10 +12465,10 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12471,7 +12477,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12551,7 +12557,7 @@
         <v>94</v>
       </c>
       <c r="G133" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12560,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K133">
         <v>1.3</v>
@@ -12649,7 +12655,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K134">
         <v>2.5</v>
@@ -12726,10 +12732,10 @@
         <v>45394.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12738,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K135">
         <v>2.05</v>
@@ -12818,7 +12824,7 @@
         <v>95</v>
       </c>
       <c r="G136" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12827,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K136">
         <v>1.5</v>
@@ -12884,6 +12890,95 @@
         <v>0.925</v>
       </c>
       <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>8085441</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F137" t="s">
+        <v>96</v>
+      </c>
+      <c r="G137" t="s">
+        <v>133</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137" t="s">
+        <v>136</v>
+      </c>
+      <c r="K137">
+        <v>6</v>
+      </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
+      <c r="M137">
+        <v>1.285</v>
+      </c>
+      <c r="N137">
+        <v>5.75</v>
+      </c>
+      <c r="O137">
+        <v>6</v>
+      </c>
+      <c r="P137">
+        <v>1.285</v>
+      </c>
+      <c r="Q137">
+        <v>1.75</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>3.5</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.95</v>
+      </c>
+      <c r="AB137">
+        <v>1</v>
+      </c>
+      <c r="AC137">
         <v>-1</v>
       </c>
     </row>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +115,12 @@
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
     <t>FC Burgsolms</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -307,6 +307,9 @@
     <t>TuS Hohenecken</t>
   </si>
   <si>
+    <t>RotWeiss Darmstadt</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
   </si>
   <si>
     <t>FC Waldbrunn</t>
-  </si>
-  <si>
-    <t>RotWeiss Darmstadt</t>
   </si>
   <si>
     <t>Berlin Hilalspor</t>
@@ -786,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1254,70 +1254,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>2.25</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>2.5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.25</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6">
         <v>3.5</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
-      <c r="N6">
-        <v>1.727</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>3.5</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.775</v>
-      </c>
-      <c r="S6">
-        <v>2.025</v>
-      </c>
-      <c r="T6">
-        <v>3.25</v>
-      </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1343,70 +1343,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K7">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1432,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2497,73 +2497,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2586,73 +2586,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2767,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -6861,7 +6861,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7662,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>134</v>
       </c>
       <c r="K86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>134</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="N87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10329,7 +10329,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -11222,7 +11222,7 @@
         <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11830,7 +11830,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11845,52 +11845,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
         <v>136</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q125">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11934,52 +11934,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>136</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11988,19 +11988,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s">
         <v>122</v>
@@ -12980,6 +12980,95 @@
       </c>
       <c r="AC137">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>8091145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45396.41666666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>97</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>135</v>
+      </c>
+      <c r="K138">
+        <v>1.909</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>2.9</v>
+      </c>
+      <c r="N138">
+        <v>1.909</v>
+      </c>
+      <c r="O138">
+        <v>4</v>
+      </c>
+      <c r="P138">
+        <v>2.9</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.975</v>
+      </c>
+      <c r="S138">
+        <v>1.825</v>
+      </c>
+      <c r="T138">
+        <v>3.75</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>1.8</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>3</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.825</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2497,73 +2497,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2586,73 +2586,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>135</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>2.75</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2.8</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>4.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>136</v>
-      </c>
-      <c r="K117">
-        <v>1.5</v>
-      </c>
-      <c r="L117">
-        <v>4.75</v>
-      </c>
-      <c r="M117">
-        <v>4.2</v>
-      </c>
-      <c r="N117">
-        <v>1.444</v>
-      </c>
-      <c r="O117">
-        <v>5</v>
-      </c>
-      <c r="P117">
-        <v>4.75</v>
-      </c>
-      <c r="Q117">
-        <v>-1.25</v>
-      </c>
-      <c r="R117">
-        <v>1.85</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>4</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
+        <v>4.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>2.75</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>2.8</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>4.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -112,15 +112,15 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -316,10 +316,10 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
-  </si>
-  <si>
-    <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
     <t>TSV Mariendorf 1897</t>
@@ -987,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1165,55 +1165,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>134</v>
       </c>
       <c r="K5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>1.727</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>1.45</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
       <c r="P5">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>3.25</v>
+      </c>
+      <c r="U5">
         <v>1.925</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
       <c r="W5">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1222,13 +1222,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1343,55 +1343,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.7</v>
-      </c>
-      <c r="N7">
-        <v>1.727</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.775</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1400,13 +1400,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2497,73 +2497,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20">
+        <v>3.75</v>
+      </c>
+      <c r="L20">
+        <v>4.333</v>
+      </c>
+      <c r="M20">
+        <v>1.615</v>
+      </c>
+      <c r="N20">
+        <v>3.75</v>
+      </c>
+      <c r="O20">
+        <v>4.333</v>
+      </c>
+      <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>0.75</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>3.75</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>1.9</v>
+      </c>
+      <c r="W20">
+        <v>2.75</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20">
-        <v>1.4</v>
-      </c>
-      <c r="L20">
-        <v>4.8</v>
-      </c>
-      <c r="M20">
-        <v>5.25</v>
-      </c>
-      <c r="N20">
-        <v>1.4</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>-1.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2586,73 +2586,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3034,7 +3034,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6683,37 +6683,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6722,7 +6722,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6772,37 +6772,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6811,7 +6811,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -9172,7 +9172,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -9439,7 +9439,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
         <v>125</v>
@@ -10507,7 +10507,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10774,10 +10774,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" t="s">
         <v>73</v>
-      </c>
-      <c r="G113" t="s">
-        <v>74</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11385,7 +11385,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K120">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11439,34 +11439,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11528,34 +11528,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11664,10 +11664,10 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11830,7 +11830,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11845,52 +11845,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
         <v>136</v>
       </c>
       <c r="K125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11934,52 +11934,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
         <v>136</v>
       </c>
       <c r="K126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q126">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11988,19 +11988,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G130" t="s">
         <v>122</v>
@@ -12732,7 +12732,7 @@
         <v>45394.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G135" t="s">
         <v>131</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -106,19 +106,19 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
+    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
-    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>Fuchse Berlin Reinickendorf</t>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -987,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -999,61 +999,61 @@
         <v>135</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1088,61 +1088,61 @@
         <v>135</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1165,70 +1165,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
+        <v>3.75</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
+        <v>3.75</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1254,70 +1254,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6">
+        <v>1.65</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>4.5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6">
-        <v>2.25</v>
-      </c>
-      <c r="L6">
-        <v>3.75</v>
-      </c>
-      <c r="M6">
-        <v>2.5</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.75</v>
-      </c>
-      <c r="P6">
-        <v>2.5</v>
-      </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781300</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1343,55 +1343,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>2.7</v>
+      </c>
+      <c r="N7">
+        <v>1.727</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>1.45</v>
-      </c>
-      <c r="O7">
-        <v>4.5</v>
-      </c>
       <c r="P7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.775</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>3.25</v>
+      </c>
+      <c r="U7">
         <v>1.925</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="T7">
-        <v>3.5</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1400,13 +1400,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.925</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -3034,7 +3034,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>135</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>134</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -11133,7 +11133,7 @@
         <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11385,7 +11385,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11397,40 +11397,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11439,34 +11439,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K121">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11528,34 +11528,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,13 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
@@ -118,9 +121,6 @@
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -208,10 +208,10 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
-    <t>Waldhof Mannheim II</t>
   </si>
   <si>
     <t>FC Zuzenhausen</t>
@@ -786,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -987,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -999,61 +999,61 @@
         <v>135</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1088,61 +1088,61 @@
         <v>135</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1165,70 +1165,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1254,70 +1254,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O6">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
         <v>3.5</v>
       </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1343,55 +1343,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>134</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>4.5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>1.875</v>
+      </c>
+      <c r="T7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.7</v>
-      </c>
-      <c r="N7">
-        <v>1.727</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.775</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>3.25</v>
-      </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1400,13 +1400,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -2129,7 +2129,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2497,73 +2497,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2586,73 +2586,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21">
+        <v>3.75</v>
+      </c>
+      <c r="L21">
+        <v>4.333</v>
+      </c>
+      <c r="M21">
+        <v>1.615</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>0.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.8</v>
+      </c>
+      <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>2.75</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <v>4.8</v>
-      </c>
-      <c r="M21">
-        <v>5.25</v>
-      </c>
-      <c r="N21">
-        <v>1.4</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>-1.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -3034,7 +3034,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4814,46 +4814,46 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4862,19 +4862,19 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4888,7 +4888,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4903,46 +4903,46 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -4951,19 +4951,19 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>0.8</v>
@@ -6846,7 +6846,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70">
+        <v>2.2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>2.2</v>
+      </c>
+      <c r="O70">
+        <v>4.75</v>
+      </c>
+      <c r="P70">
+        <v>2.2</v>
+      </c>
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="J70" t="s">
-        <v>134</v>
-      </c>
-      <c r="K70">
-        <v>1.727</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>3.2</v>
-      </c>
-      <c r="N70">
-        <v>1.727</v>
-      </c>
-      <c r="O70">
-        <v>4.5</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
-      <c r="Q70">
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>4.25</v>
+      </c>
+      <c r="U70">
+        <v>1.775</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-0</v>
+      </c>
+      <c r="AB70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.775</v>
-      </c>
-      <c r="S70">
-        <v>2.025</v>
-      </c>
-      <c r="T70">
-        <v>3.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
-      <c r="W70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -11118,7 +11118,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
+        <v>4.75</v>
+      </c>
+      <c r="M117">
+        <v>4.2</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
+        <v>5</v>
+      </c>
+      <c r="P117">
+        <v>4.75</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>4</v>
       </c>
-      <c r="M117">
-        <v>2.75</v>
-      </c>
-      <c r="N117">
-        <v>2</v>
-      </c>
-      <c r="O117">
-        <v>4</v>
-      </c>
-      <c r="P117">
-        <v>2.8</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>4.25</v>
-      </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>135</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>2.75</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>2.8</v>
+      </c>
+      <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>4.25</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1.8</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="J118" t="s">
-        <v>136</v>
-      </c>
-      <c r="K118">
-        <v>1.5</v>
-      </c>
-      <c r="L118">
-        <v>4.75</v>
-      </c>
-      <c r="M118">
-        <v>4.2</v>
-      </c>
-      <c r="N118">
-        <v>1.444</v>
-      </c>
-      <c r="O118">
-        <v>5</v>
-      </c>
-      <c r="P118">
-        <v>4.75</v>
-      </c>
-      <c r="Q118">
-        <v>-1.25</v>
-      </c>
-      <c r="R118">
-        <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>4</v>
-      </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.925</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>74</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
         <v>127</v>
@@ -13069,6 +13069,184 @@
       </c>
       <c r="AC138">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>8117714</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45401.58333333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>73</v>
+      </c>
+      <c r="G139" t="s">
+        <v>125</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>136</v>
+      </c>
+      <c r="K139">
+        <v>2.25</v>
+      </c>
+      <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>2.6</v>
+      </c>
+      <c r="N139">
+        <v>2.25</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.6</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.775</v>
+      </c>
+      <c r="S139">
+        <v>2.025</v>
+      </c>
+      <c r="T139">
+        <v>3</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>1.8</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.6</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.025</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>8114461</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45401.625</v>
+      </c>
+      <c r="F140" t="s">
+        <v>80</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>136</v>
+      </c>
+      <c r="K140">
+        <v>2.35</v>
+      </c>
+      <c r="L140">
+        <v>4.2</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>2.625</v>
+      </c>
+      <c r="O140">
+        <v>4.2</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>4</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.8</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>1</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.875</v>
+      </c>
+      <c r="AB140">
+        <v>1</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -106,12 +106,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
-  </si>
-  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
     <t>FC Burgsolms</t>
-  </si>
-  <si>
-    <t>SG Union Klosterfelde</t>
   </si>
   <si>
     <t>TSV Steinbach II</t>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -987,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -999,61 +999,61 @@
         <v>135</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1088,61 +1088,61 @@
         <v>135</v>
       </c>
       <c r="K4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
         <v>3.5</v>
       </c>
-      <c r="P4">
-        <v>2.7</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.975</v>
-      </c>
-      <c r="S4">
-        <v>1.825</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
       <c r="U4">
+        <v>1.775</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6683,37 +6683,37 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>4.5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4.5</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.85</v>
@@ -6722,7 +6722,7 @@
         <v>1.95</v>
       </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
         <v>1.85</v>
@@ -6734,10 +6734,10 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z67">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6772,37 +6772,37 @@
         <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
         <v>4.5</v>
       </c>
       <c r="M68">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
         <v>4.5</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
         <v>1.85</v>
@@ -6811,7 +6811,7 @@
         <v>1.95</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U68">
         <v>1.85</v>
@@ -6823,10 +6823,10 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -9172,7 +9172,7 @@
         <v>45345.625</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
         <v>117</v>
@@ -9439,7 +9439,7 @@
         <v>45352.625</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
         <v>125</v>
@@ -10507,7 +10507,7 @@
         <v>45366.625</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" t="s">
         <v>71</v>
@@ -10774,10 +10774,10 @@
         <v>45373.625</v>
       </c>
       <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
         <v>74</v>
-      </c>
-      <c r="G113" t="s">
-        <v>73</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45379.625</v>
       </c>
       <c r="F119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" t="s">
         <v>49</v>
@@ -11489,7 +11489,7 @@
         <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11664,7 +11664,7 @@
         <v>45383.375</v>
       </c>
       <c r="F123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
         <v>34</v>
@@ -11830,7 +11830,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11845,52 +11845,52 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
         <v>136</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="L125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="Q125">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11899,19 +11899,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11934,52 +11934,52 @@
         <v>93</v>
       </c>
       <c r="G126" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>136</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="N126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="O126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="R126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11988,19 +11988,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s">
         <v>122</v>
@@ -12732,7 +12732,7 @@
         <v>45394.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G135" t="s">
         <v>131</v>
@@ -13088,7 +13088,7 @@
         <v>45401.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G139" t="s">
         <v>125</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,13 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
     <t>SV Altldersdorf</t>
@@ -118,9 +121,6 @@
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -310,18 +310,24 @@
     <t>RotWeiss Darmstadt</t>
   </si>
   <si>
+    <t>SV Schott Jena</t>
+  </si>
+  <si>
+    <t>TB Jahn Zeiskam 1896</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -415,7 +421,7 @@
     <t>FSV Offenbach</t>
   </si>
   <si>
-    <t>TB Jahn Zeiskam 1896</t>
+    <t>FC Wacker Teistungen</t>
   </si>
   <si>
     <t>H</t>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +904,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K2">
         <v>1.833</v>
@@ -972,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -987,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -996,64 +1002,64 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>-3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
         <v>3.5</v>
       </c>
-      <c r="P3">
-        <v>2.7</v>
-      </c>
-      <c r="Q3">
-        <v>-0.25</v>
-      </c>
-      <c r="R3">
-        <v>1.975</v>
-      </c>
-      <c r="S3">
-        <v>1.825</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
       <c r="U3">
+        <v>1.775</v>
+      </c>
+      <c r="V3">
         <v>1.925</v>
       </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1061,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1076,7 +1082,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1085,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="N4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="Q4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1150,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781300</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1165,55 +1171,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>-1.25</v>
+      </c>
+      <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>3.5</v>
       </c>
-      <c r="M5">
-        <v>2.7</v>
-      </c>
-      <c r="N5">
-        <v>1.727</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5">
-        <v>-0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>3.25</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1222,13 +1228,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1239,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1257,67 +1263,67 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>136</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1328,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1343,70 +1349,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>3.5</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1432,7 +1438,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1521,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1530,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1610,7 +1616,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1619,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10">
         <v>1.65</v>
@@ -1708,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K11">
         <v>4.25</v>
@@ -1797,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1886,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1975,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -2064,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>1.909</v>
@@ -2129,7 +2135,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2141,76 +2147,76 @@
         <v>45168.625</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2218,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2230,76 +2236,76 @@
         <v>45168.625</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18">
         <v>1.444</v>
@@ -2420,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2485,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2497,73 +2503,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>136</v>
       </c>
       <c r="K20">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
-        <v>4.8</v>
+        <v>4.333</v>
       </c>
       <c r="M20">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
         <v>1.8</v>
       </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2574,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2586,73 +2592,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="N21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2687,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2767,7 +2773,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2776,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>1.727</v>
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2945,7 +2951,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2954,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>4.5</v>
@@ -3034,7 +3040,7 @@
         <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3043,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26">
         <v>2.625</v>
@@ -3123,7 +3129,7 @@
         <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3132,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -3221,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>2.4</v>
@@ -3310,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3399,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3488,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>2.9</v>
@@ -3577,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K32">
         <v>2.4</v>
@@ -3666,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3755,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3844,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K35">
         <v>1.615</v>
@@ -3924,7 +3930,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3933,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K36">
         <v>1.909</v>
@@ -4022,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K37">
         <v>1.75</v>
@@ -4111,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>3.1</v>
@@ -4200,7 +4206,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K39">
         <v>2.5</v>
@@ -4289,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K40">
         <v>1.5</v>
@@ -4369,7 +4375,7 @@
         <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4378,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4458,7 +4464,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -4467,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K42">
         <v>2.1</v>
@@ -4556,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4636,7 +4642,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4645,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K44">
         <v>3.5</v>
@@ -4734,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>3.1</v>
@@ -4823,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4903,7 +4909,7 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4912,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>3.25</v>
@@ -5001,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>1.3</v>
@@ -5081,7 +5087,7 @@
         <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -5090,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K49">
         <v>1.083</v>
@@ -5170,7 +5176,7 @@
         <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5179,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -5268,7 +5274,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5357,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K52">
         <v>1.166</v>
@@ -5437,7 +5443,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5446,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5526,7 +5532,7 @@
         <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H54">
         <v>6</v>
@@ -5535,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5624,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5713,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>1.666</v>
@@ -5802,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K57">
         <v>6.5</v>
@@ -5882,7 +5888,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5891,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K58">
         <v>1.363</v>
@@ -5980,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K59">
         <v>2.6</v>
@@ -6069,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K60">
         <v>2.375</v>
@@ -6149,7 +6155,7 @@
         <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6158,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6247,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K62">
         <v>1.533</v>
@@ -6336,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6425,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6514,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K65">
         <v>2.5</v>
@@ -6603,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="J66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K66">
         <v>4.5</v>
@@ -6683,7 +6689,7 @@
         <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6692,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6781,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K68">
         <v>1.8</v>
@@ -6846,7 +6852,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6858,76 +6864,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69">
+        <v>2.2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>2.2</v>
+      </c>
+      <c r="O69">
+        <v>4.75</v>
+      </c>
+      <c r="P69">
+        <v>2.2</v>
+      </c>
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>134</v>
-      </c>
-      <c r="K69">
-        <v>1.727</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>3.2</v>
-      </c>
-      <c r="N69">
-        <v>1.727</v>
-      </c>
-      <c r="O69">
-        <v>4.5</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
-      <c r="Q69">
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>1.9</v>
+      </c>
+      <c r="T69">
+        <v>4.25</v>
+      </c>
+      <c r="U69">
+        <v>1.775</v>
+      </c>
+      <c r="V69">
+        <v>2.025</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>3.75</v>
+      </c>
+      <c r="Y69">
+        <v>-1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-0</v>
+      </c>
+      <c r="AB69">
         <v>-0.5</v>
       </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>3.5</v>
-      </c>
-      <c r="U69">
-        <v>1.85</v>
-      </c>
-      <c r="V69">
-        <v>1.95</v>
-      </c>
-      <c r="W69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6935,7 +6941,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6947,76 +6953,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7048,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -7137,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -7226,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7315,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7404,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K75">
         <v>2.6</v>
@@ -7484,7 +7490,7 @@
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7493,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7573,7 +7579,7 @@
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H77">
         <v>6</v>
@@ -7582,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K77">
         <v>1.666</v>
@@ -7671,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -7751,7 +7757,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -7760,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="J79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7840,7 +7846,7 @@
         <v>72</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7849,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K80">
         <v>1.533</v>
@@ -7938,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -8027,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K82">
         <v>1.8</v>
@@ -8107,7 +8113,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8116,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K83">
         <v>1.85</v>
@@ -8196,7 +8202,7 @@
         <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8205,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K84">
         <v>3.75</v>
@@ -8294,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K85">
         <v>1.909</v>
@@ -8383,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8472,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K87">
         <v>4.333</v>
@@ -8552,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8561,7 +8567,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K88">
         <v>4.5</v>
@@ -8641,7 +8647,7 @@
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8650,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K89">
         <v>1.1</v>
@@ -8739,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K90">
         <v>1.75</v>
@@ -8819,7 +8825,7 @@
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8828,7 +8834,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K91">
         <v>1.666</v>
@@ -8917,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K92">
         <v>1.615</v>
@@ -8997,7 +9003,7 @@
         <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9006,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -9095,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K94">
         <v>3.1</v>
@@ -9175,7 +9181,7 @@
         <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9184,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9273,7 +9279,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K96">
         <v>4.5</v>
@@ -9362,7 +9368,7 @@
         <v>5</v>
       </c>
       <c r="J97" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K97">
         <v>2.25</v>
@@ -9442,7 +9448,7 @@
         <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9451,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K98">
         <v>2.25</v>
@@ -9531,7 +9537,7 @@
         <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9540,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K99">
         <v>2.7</v>
@@ -9620,7 +9626,7 @@
         <v>59</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9629,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K100">
         <v>1.45</v>
@@ -9718,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9807,7 +9813,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K102">
         <v>7</v>
@@ -9896,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K103">
         <v>2.75</v>
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K104">
         <v>2.5</v>
@@ -10074,7 +10080,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K105">
         <v>2.25</v>
@@ -10163,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -10252,7 +10258,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K107">
         <v>1.5</v>
@@ -10329,7 +10335,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>90</v>
@@ -10341,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10430,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10519,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10608,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K111">
         <v>1.25</v>
@@ -10697,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K112">
         <v>1.333</v>
@@ -10786,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K113">
         <v>1.909</v>
@@ -10875,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K114">
         <v>1.833</v>
@@ -10955,7 +10961,7 @@
         <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10964,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K115">
         <v>2.5</v>
@@ -11053,7 +11059,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -11118,7 +11124,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11130,76 +11136,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>137</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>2.75</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>2.8</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>4.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>136</v>
-      </c>
-      <c r="K117">
-        <v>1.5</v>
-      </c>
-      <c r="L117">
-        <v>4.75</v>
-      </c>
-      <c r="M117">
-        <v>4.2</v>
-      </c>
-      <c r="N117">
-        <v>1.444</v>
-      </c>
-      <c r="O117">
-        <v>5</v>
-      </c>
-      <c r="P117">
-        <v>4.75</v>
-      </c>
-      <c r="Q117">
-        <v>-1.25</v>
-      </c>
-      <c r="R117">
-        <v>1.85</v>
-      </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
-      <c r="T117">
-        <v>4</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.925</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11207,7 +11213,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11219,76 +11225,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
+        <v>4.75</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.444</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>2.75</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-      <c r="O118">
-        <v>4</v>
-      </c>
-      <c r="P118">
-        <v>2.8</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>4.25</v>
-      </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11320,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11385,7 +11391,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11397,40 +11403,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>136</v>
       </c>
       <c r="K120">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11439,34 +11445,34 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11474,7 +11480,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11486,40 +11492,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R121">
         <v>1.85</v>
@@ -11528,34 +11534,34 @@
         <v>1.95</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11578,7 +11584,7 @@
         <v>62</v>
       </c>
       <c r="G122" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11587,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K122">
         <v>1.8</v>
@@ -11667,7 +11673,7 @@
         <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11676,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K123">
         <v>1.444</v>
@@ -11756,7 +11762,7 @@
         <v>91</v>
       </c>
       <c r="G124" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11765,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K124">
         <v>1.75</v>
@@ -11845,7 +11851,7 @@
         <v>92</v>
       </c>
       <c r="G125" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11854,7 +11860,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K125">
         <v>3.25</v>
@@ -11943,7 +11949,7 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K126">
         <v>15</v>
@@ -12032,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K127">
         <v>1.909</v>
@@ -12112,7 +12118,7 @@
         <v>78</v>
       </c>
       <c r="G128" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12121,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K128">
         <v>1.666</v>
@@ -12201,7 +12207,7 @@
         <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12210,7 +12216,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12290,7 +12296,7 @@
         <v>92</v>
       </c>
       <c r="G130" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12388,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K131">
         <v>1.909</v>
@@ -12468,7 +12474,7 @@
         <v>64</v>
       </c>
       <c r="G132" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12477,7 +12483,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12557,7 +12563,7 @@
         <v>94</v>
       </c>
       <c r="G133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12566,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K133">
         <v>1.3</v>
@@ -12655,7 +12661,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K134">
         <v>2.5</v>
@@ -12735,7 +12741,7 @@
         <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12744,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K135">
         <v>2.05</v>
@@ -12824,7 +12830,7 @@
         <v>95</v>
       </c>
       <c r="G136" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12833,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K136">
         <v>1.5</v>
@@ -12913,7 +12919,7 @@
         <v>96</v>
       </c>
       <c r="G137" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12922,7 +12928,7 @@
         <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -13011,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K138">
         <v>1.909</v>
@@ -13091,7 +13097,7 @@
         <v>74</v>
       </c>
       <c r="G139" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13100,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K139">
         <v>2.25</v>
@@ -13189,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K140">
         <v>2.35</v>
@@ -13247,6 +13253,184 @@
       </c>
       <c r="AC140">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>8117590</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45402.33333333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>98</v>
+      </c>
+      <c r="G141" t="s">
+        <v>135</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>138</v>
+      </c>
+      <c r="K141">
+        <v>2.1</v>
+      </c>
+      <c r="L141">
+        <v>3.75</v>
+      </c>
+      <c r="M141">
+        <v>2.7</v>
+      </c>
+      <c r="N141">
+        <v>2.1</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>2.7</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>1.7</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.875</v>
+      </c>
+      <c r="AB141">
+        <v>-0.5</v>
+      </c>
+      <c r="AC141">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>8121527</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>99</v>
+      </c>
+      <c r="G142" t="s">
+        <v>123</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>136</v>
+      </c>
+      <c r="K142">
+        <v>1.333</v>
+      </c>
+      <c r="L142">
+        <v>5.25</v>
+      </c>
+      <c r="M142">
+        <v>6</v>
+      </c>
+      <c r="N142">
+        <v>1.333</v>
+      </c>
+      <c r="O142">
+        <v>5.25</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>-1.5</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>1.975</v>
+      </c>
+      <c r="T142">
+        <v>3.5</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>0.333</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.825</v>
+      </c>
+      <c r="AA142">
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -109,15 +109,15 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
   </si>
   <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>FC Wacker Teistungen</t>
+  </si>
+  <si>
+    <t>SV Spielberg</t>
   </si>
   <si>
     <t>H</t>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -952,10 +955,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>0.475</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J4">
         <v>2.2</v>
@@ -1141,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1156,67 +1159,67 @@
         <v>101</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J5">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
         <v>3.5</v>
       </c>
       <c r="T5">
+        <v>1.975</v>
+      </c>
+      <c r="U5">
         <v>1.825</v>
       </c>
-      <c r="U5">
-        <v>1.975</v>
-      </c>
       <c r="V5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1248,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>2.2</v>
@@ -1296,10 +1299,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>0.925</v>
@@ -1313,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1328,67 +1331,67 @@
         <v>102</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7">
+        <v>1.65</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1.45</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7">
-        <v>2.25</v>
-      </c>
-      <c r="K7">
-        <v>3.75</v>
-      </c>
-      <c r="L7">
-        <v>2.5</v>
-      </c>
-      <c r="M7">
-        <v>2.25</v>
-      </c>
-      <c r="N7">
-        <v>3.75</v>
-      </c>
-      <c r="O7">
-        <v>2.5</v>
-      </c>
       <c r="P7">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
         <v>3.5</v>
       </c>
       <c r="T7">
+        <v>1.825</v>
+      </c>
+      <c r="U7">
         <v>1.975</v>
       </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
       <c r="V7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1420,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1468,10 +1471,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>0.8500000000000001</v>
@@ -1506,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1554,10 +1557,10 @@
         <v>1.45</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1640,10 +1643,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1678,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J11">
         <v>4.25</v>
@@ -1726,10 +1729,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
         <v>0.8</v>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1812,10 +1815,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1850,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1898,10 +1901,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1936,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1984,10 +1987,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-0.5</v>
@@ -2022,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -2070,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="Y15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-0.5</v>
@@ -2087,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2096,61 +2099,61 @@
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -2159,13 +2162,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2173,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2182,76 +2185,76 @@
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>136</v>
       </c>
       <c r="J17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2280,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>1.444</v>
@@ -2328,10 +2331,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2366,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2414,10 +2417,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2431,7 +2434,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2440,73 +2443,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20">
+        <v>3.75</v>
+      </c>
+      <c r="K20">
+        <v>4.333</v>
+      </c>
+      <c r="L20">
+        <v>1.615</v>
+      </c>
+      <c r="M20">
+        <v>3.75</v>
+      </c>
+      <c r="N20">
+        <v>4.333</v>
+      </c>
+      <c r="O20">
+        <v>1.615</v>
+      </c>
+      <c r="P20">
+        <v>0.75</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.9</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20">
-        <v>1.4</v>
-      </c>
-      <c r="K20">
-        <v>4.8</v>
-      </c>
-      <c r="L20">
-        <v>5.25</v>
-      </c>
-      <c r="M20">
-        <v>1.4</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>-1.25</v>
-      </c>
-      <c r="Q20">
-        <v>1.8</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>3.5</v>
-      </c>
-      <c r="T20">
-        <v>1.925</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>-1</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
-      <c r="Y20">
-        <v>0.8</v>
-      </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2517,7 +2520,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2526,73 +2529,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="K21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="L21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2710,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2758,10 +2761,10 @@
         <v>2.2</v>
       </c>
       <c r="Y23">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2796,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2844,10 +2847,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2882,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J25">
         <v>4.5</v>
@@ -2930,10 +2933,10 @@
         <v>0.363</v>
       </c>
       <c r="Y25">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA25">
         <v>0.8</v>
@@ -2959,7 +2962,7 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3054,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3102,10 +3105,10 @@
         <v>0.125</v>
       </c>
       <c r="Y27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -3140,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -3188,10 +3191,10 @@
         <v>1.3</v>
       </c>
       <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z28">
-        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3226,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J29">
         <v>4.5</v>
@@ -3274,10 +3277,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3312,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3360,10 +3363,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3398,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3446,10 +3449,10 @@
         <v>1.2</v>
       </c>
       <c r="Y31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
@@ -3484,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3570,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3618,10 +3621,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3656,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34">
         <v>1.727</v>
@@ -3704,10 +3707,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0.875</v>
@@ -3742,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J35">
         <v>1.615</v>
@@ -3790,10 +3793,10 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
         <v>0.825</v>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3876,10 +3879,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.8500000000000001</v>
@@ -3914,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3962,10 +3965,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -4000,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4048,10 +4051,10 @@
         <v>0.833</v>
       </c>
       <c r="Y38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
         <v>0.8999999999999999</v>
@@ -4086,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4172,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4220,10 +4223,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4258,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4306,10 +4309,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4344,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4392,10 +4395,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.95</v>
@@ -4430,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4478,10 +4481,10 @@
         <v>5</v>
       </c>
       <c r="Y43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4516,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J44">
         <v>3.5</v>
@@ -4564,10 +4567,10 @@
         <v>0.363</v>
       </c>
       <c r="Y44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA44">
         <v>0.8</v>
@@ -4602,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4650,10 +4653,10 @@
         <v>1.15</v>
       </c>
       <c r="Y45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -4667,7 +4670,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4679,46 +4682,46 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P46">
         <v>0.25</v>
       </c>
       <c r="Q46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>1.8</v>
@@ -4727,16 +4730,16 @@
         <v>2</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
@@ -4753,7 +4756,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4765,46 +4768,46 @@
         <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>3</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
       <c r="I47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>0.25</v>
       </c>
       <c r="Q47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T47">
         <v>1.8</v>
@@ -4813,19 +4816,19 @@
         <v>2</v>
       </c>
       <c r="V47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
         <v>0.8</v>
@@ -4860,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4946,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5032,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5080,10 +5083,10 @@
         <v>0.181</v>
       </c>
       <c r="Y50">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
         <v>0.425</v>
@@ -5118,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5166,10 +5169,10 @@
         <v>1.05</v>
       </c>
       <c r="Y51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>0.8</v>
@@ -5204,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5252,10 +5255,10 @@
         <v>12</v>
       </c>
       <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -5290,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5376,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5424,10 +5427,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.8999999999999999</v>
@@ -5462,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5510,10 +5513,10 @@
         <v>3.75</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA55">
         <v>0.9750000000000001</v>
@@ -5548,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J56">
         <v>1.666</v>
@@ -5596,10 +5599,10 @@
         <v>2.3</v>
       </c>
       <c r="Y56">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5634,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5682,10 +5685,10 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="Y57">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>0.8500000000000001</v>
@@ -5720,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5768,10 +5771,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.8500000000000001</v>
@@ -5806,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5854,10 +5857,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5892,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5940,10 +5943,10 @@
         <v>1.5</v>
       </c>
       <c r="Y60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
         <v>0.925</v>
@@ -5978,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -6026,10 +6029,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6064,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -6112,10 +6115,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>1</v>
@@ -6150,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6198,10 +6201,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>0.9750000000000001</v>
@@ -6236,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6322,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6370,10 +6373,10 @@
         <v>1.25</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6408,7 +6411,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6456,10 +6459,10 @@
         <v>0.444</v>
       </c>
       <c r="Y66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
         <v>0.8500000000000001</v>
@@ -6494,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -6542,10 +6545,10 @@
         <v>1.6</v>
       </c>
       <c r="Y67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6580,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6645,7 +6648,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6654,76 +6657,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>136</v>
       </c>
       <c r="J69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6731,7 +6734,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6740,76 +6743,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70">
+        <v>2.2</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <v>2.2</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>2.2</v>
+      </c>
+      <c r="P70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>135</v>
-      </c>
-      <c r="J70">
-        <v>1.727</v>
-      </c>
-      <c r="K70">
-        <v>4.5</v>
-      </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>1.727</v>
-      </c>
-      <c r="N70">
-        <v>4.5</v>
-      </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
+      <c r="Q70">
+        <v>1.9</v>
+      </c>
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>4.25</v>
+      </c>
+      <c r="T70">
+        <v>1.775</v>
+      </c>
+      <c r="U70">
+        <v>2.025</v>
+      </c>
+      <c r="V70">
+        <v>-1</v>
+      </c>
+      <c r="W70">
+        <v>3.75</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="Q70">
-        <v>1.775</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>3.5</v>
-      </c>
-      <c r="T70">
-        <v>1.85</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>1.025</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6838,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6886,10 +6889,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>0.75</v>
@@ -6924,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -7010,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7096,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7144,10 +7147,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="Z74">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -7182,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7230,10 +7233,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7268,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7316,10 +7319,10 @@
         <v>2.8</v>
       </c>
       <c r="Y76">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7354,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7402,10 +7405,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.95</v>
@@ -7440,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7526,7 +7529,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7574,10 +7577,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.8</v>
@@ -7612,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7660,10 +7663,10 @@
         <v>4.75</v>
       </c>
       <c r="Y80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
@@ -7698,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7746,10 +7749,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7784,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7832,10 +7835,10 @@
         <v>1.875</v>
       </c>
       <c r="Y82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
         <v>0.8</v>
@@ -7870,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7918,10 +7921,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>1</v>
@@ -7956,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8004,10 +8007,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-0.5</v>
@@ -8042,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -8090,10 +8093,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -8128,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J86">
         <v>2</v>
@@ -8176,10 +8179,10 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>0.9750000000000001</v>
@@ -8214,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J87">
         <v>4.333</v>
@@ -8262,10 +8265,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>-1</v>
@@ -8300,7 +8303,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J88">
         <v>4.5</v>
@@ -8348,10 +8351,10 @@
         <v>0.5</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-0.5</v>
@@ -8386,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J89">
         <v>1.1</v>
@@ -8472,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8520,10 +8523,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>0.8</v>
@@ -8558,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8606,10 +8609,10 @@
         <v>2.5</v>
       </c>
       <c r="Y91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
         <v>0.8500000000000001</v>
@@ -8644,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8692,10 +8695,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8730,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8778,10 +8781,10 @@
         <v>0.75</v>
       </c>
       <c r="Y93">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA93">
         <v>0.8</v>
@@ -8816,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8864,10 +8867,10 @@
         <v>0.909</v>
       </c>
       <c r="Y94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8902,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8988,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9036,10 +9039,10 @@
         <v>0.571</v>
       </c>
       <c r="Y96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
         <v>0.8500000000000001</v>
@@ -9074,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9122,10 +9125,10 @@
         <v>1.4</v>
       </c>
       <c r="Y97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
         <v>0.8999999999999999</v>
@@ -9160,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9208,10 +9211,10 @@
         <v>1.375</v>
       </c>
       <c r="Y98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9246,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9294,10 +9297,10 @@
         <v>1.3</v>
       </c>
       <c r="Y99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>0.8500000000000001</v>
@@ -9332,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9380,10 +9383,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9418,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9466,10 +9469,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y101">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9504,7 +9507,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9552,10 +9555,10 @@
         <v>0.25</v>
       </c>
       <c r="Y102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
         <v>0.95</v>
@@ -9590,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9638,10 +9641,10 @@
         <v>0.615</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9667,7 +9670,7 @@
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9676,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9724,10 +9727,10 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0</v>
@@ -9762,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9848,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9896,10 +9899,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9934,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -9982,10 +9985,10 @@
         <v>3.5</v>
       </c>
       <c r="Y107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -10008,7 +10011,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
         <v>89</v>
@@ -10020,7 +10023,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10068,10 +10071,10 @@
         <v>2.25</v>
       </c>
       <c r="Y108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
         <v>-0.5</v>
@@ -10106,7 +10109,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10192,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10240,10 +10243,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>0.7749999999999999</v>
@@ -10278,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10364,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10412,10 +10415,10 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
         <v>0.8999999999999999</v>
@@ -10450,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10498,10 +10501,10 @@
         <v>1.9</v>
       </c>
       <c r="Y113">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>-0.5</v>
@@ -10536,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10584,10 +10587,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -10622,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10670,10 +10673,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>0.425</v>
@@ -10708,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10756,10 +10759,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>0.95</v>
@@ -10785,7 +10788,7 @@
         <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10794,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -10880,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J118">
         <v>1.5</v>
@@ -10928,10 +10931,10 @@
         <v>3.75</v>
       </c>
       <c r="Y118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
         <v>0.875</v>
@@ -10966,7 +10969,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11014,10 +11017,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>0.8500000000000001</v>
@@ -11052,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J120">
         <v>1.1</v>
@@ -11129,7 +11132,7 @@
         <v>82</v>
       </c>
       <c r="F121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11138,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J121">
         <v>3.1</v>
@@ -11186,10 +11189,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11224,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11301,7 +11304,7 @@
         <v>72</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11310,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11358,10 +11361,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11396,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J124">
         <v>1.75</v>
@@ -11444,10 +11447,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11461,7 +11464,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11473,52 +11476,52 @@
         <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="L125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N125">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="O125">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="P125">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q125">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
         <v>-1</v>
@@ -11527,19 +11530,19 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Y125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11547,7 +11550,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11559,52 +11562,52 @@
         <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="K126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="L126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="P126">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T126">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
         <v>-1</v>
@@ -11613,19 +11616,19 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Y126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11654,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11702,10 +11705,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>0.925</v>
@@ -11740,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11788,10 +11791,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
         <v>0</v>
@@ -11826,7 +11829,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11900,7 +11903,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F130" t="s">
         <v>123</v>
@@ -11912,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11960,10 +11963,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -11998,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -12046,10 +12049,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12072,7 +12075,7 @@
         <v>45389.29166666666</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F132" t="s">
         <v>128</v>
@@ -12084,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -12132,10 +12135,10 @@
         <v>1.625</v>
       </c>
       <c r="Y132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
@@ -12170,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J133">
         <v>1.3</v>
@@ -12218,10 +12221,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z133">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
         <v>0</v>
@@ -12256,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12304,10 +12307,10 @@
         <v>1.25</v>
       </c>
       <c r="Y134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
         <v>0.8500000000000001</v>
@@ -12342,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J135">
         <v>2.05</v>
@@ -12428,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J136">
         <v>1.5</v>
@@ -12476,10 +12479,10 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
         <v>0.925</v>
@@ -12514,7 +12517,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12562,10 +12565,10 @@
         <v>0.2849999999999999</v>
       </c>
       <c r="Y137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
         <v>1</v>
@@ -12600,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12686,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12734,10 +12737,10 @@
         <v>1.6</v>
       </c>
       <c r="Y139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
         <v>0</v>
@@ -12772,7 +12775,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12820,10 +12823,10 @@
         <v>1</v>
       </c>
       <c r="Y140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
         <v>1</v>
@@ -12858,7 +12861,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12906,10 +12909,10 @@
         <v>1.7</v>
       </c>
       <c r="Y141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
         <v>-0.5</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -12992,16 +12995,188 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>8121110</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>135</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>137</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>3.6</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3.6</v>
+      </c>
+      <c r="O143">
+        <v>3</v>
+      </c>
+      <c r="P143">
+        <v>-0.25</v>
+      </c>
+      <c r="Q143">
+        <v>1.825</v>
+      </c>
+      <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>3.25</v>
+      </c>
+      <c r="T143">
+        <v>1.95</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
+        <v>-1</v>
+      </c>
+      <c r="W143">
+        <v>2.6</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-0.5</v>
+      </c>
+      <c r="Z143">
+        <v>0.4875</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>8121117</v>
+      </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>136</v>
+      </c>
+      <c r="J144">
+        <v>2.7</v>
+      </c>
+      <c r="K144">
+        <v>3.75</v>
+      </c>
+      <c r="L144">
+        <v>2.1</v>
+      </c>
+      <c r="M144">
+        <v>2.75</v>
+      </c>
+      <c r="N144">
+        <v>3.75</v>
+      </c>
+      <c r="O144">
+        <v>2.1</v>
+      </c>
+      <c r="P144">
+        <v>0.25</v>
+      </c>
+      <c r="Q144">
+        <v>1.875</v>
+      </c>
+      <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
+        <v>3.5</v>
+      </c>
+      <c r="T144">
+        <v>1.875</v>
+      </c>
+      <c r="U144">
+        <v>1.925</v>
+      </c>
+      <c r="V144">
+        <v>1.75</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>0.875</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -313,6 +313,9 @@
     <t>TB Jahn Zeiskam 1896</t>
   </si>
   <si>
+    <t>FSV Offenbach</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
@@ -415,13 +418,16 @@
     <t>SV 1890 Westerhausen</t>
   </si>
   <si>
-    <t>FSV Offenbach</t>
-  </si>
-  <si>
     <t>FC Wacker Teistungen</t>
   </si>
   <si>
     <t>SV Spielberg</t>
+  </si>
+  <si>
+    <t>TuS Russingen</t>
+  </si>
+  <si>
+    <t>SSV 80 Gardelegen</t>
   </si>
   <si>
     <t>H</t>
@@ -792,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1070,7 +1076,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J4">
         <v>2.2</v>
@@ -1156,7 +1162,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1165,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J5">
         <v>2.25</v>
@@ -1242,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1251,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J6">
         <v>2.2</v>
@@ -1328,7 +1334,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1414,7 +1420,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1423,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1500,7 +1506,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1586,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1595,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1681,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J11">
         <v>4.25</v>
@@ -1767,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1853,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1939,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -2025,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -2090,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2099,76 +2105,76 @@
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2176,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2185,76 +2191,76 @@
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J18">
         <v>1.444</v>
@@ -2369,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2455,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J20">
         <v>3.75</v>
@@ -2532,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2541,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J21">
         <v>1.4</v>
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2704,7 +2710,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2713,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2799,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2876,7 +2882,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2885,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J25">
         <v>4.5</v>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3048,7 +3054,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3057,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3143,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J29">
         <v>4.5</v>
@@ -3315,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3401,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3487,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3573,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3659,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J34">
         <v>1.727</v>
@@ -3745,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J35">
         <v>1.615</v>
@@ -3822,7 +3828,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3917,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -4003,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4089,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4252,7 +4258,7 @@
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4261,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4338,7 +4344,7 @@
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4347,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4433,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4510,7 +4516,7 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4519,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J44">
         <v>3.5</v>
@@ -4605,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4682,7 +4688,7 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J46">
         <v>3.25</v>
@@ -4777,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4863,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4940,7 +4946,7 @@
         <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4949,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5026,7 +5032,7 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5035,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5121,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5207,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5284,7 +5290,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5293,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5370,7 +5376,7 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5465,7 +5471,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J56">
         <v>1.666</v>
@@ -5637,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5714,7 +5720,7 @@
         <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5723,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5809,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5895,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5972,7 +5978,7 @@
         <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5981,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -6067,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -6153,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6239,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6325,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6411,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6488,7 +6494,7 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6497,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6648,7 +6654,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6657,76 +6663,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>139</v>
+      </c>
+      <c r="J69">
+        <v>2.2</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>2.2</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>4.75</v>
+      </c>
+      <c r="O69">
+        <v>2.2</v>
+      </c>
+      <c r="P69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69">
-        <v>1.727</v>
-      </c>
-      <c r="K69">
-        <v>4.5</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>1.727</v>
-      </c>
-      <c r="N69">
-        <v>4.5</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
+      <c r="Q69">
+        <v>1.9</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>4.25</v>
+      </c>
+      <c r="T69">
+        <v>1.775</v>
+      </c>
+      <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
+        <v>-1</v>
+      </c>
+      <c r="W69">
+        <v>3.75</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>-0.5</v>
       </c>
-      <c r="Q69">
-        <v>1.775</v>
-      </c>
-      <c r="R69">
-        <v>2.025</v>
-      </c>
-      <c r="S69">
-        <v>3.5</v>
-      </c>
-      <c r="T69">
-        <v>1.85</v>
-      </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
-      <c r="V69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6734,7 +6740,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6743,76 +6749,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6841,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -7013,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7099,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7185,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7262,7 +7268,7 @@
         <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7271,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7348,7 +7354,7 @@
         <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -7357,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7443,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7520,7 +7526,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -7529,7 +7535,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7606,7 +7612,7 @@
         <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7615,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7701,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7787,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7864,7 +7870,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7873,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7950,7 +7956,7 @@
         <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7959,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8045,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -8110,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8119,58 +8125,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86">
+        <v>4.333</v>
+      </c>
+      <c r="K86">
         <v>4</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>136</v>
-      </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86">
-        <v>3.75</v>
-      </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8179,16 +8185,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8196,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -8205,58 +8211,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8265,16 +8271,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8294,7 +8300,7 @@
         <v>82</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8303,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J88">
         <v>4.5</v>
@@ -8380,7 +8386,7 @@
         <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8389,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J89">
         <v>1.1</v>
@@ -8475,7 +8481,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8552,7 +8558,7 @@
         <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8561,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8647,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8724,7 +8730,7 @@
         <v>54</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8733,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8819,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8896,7 +8902,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8905,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8991,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9077,7 +9083,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9154,7 +9160,7 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9163,7 +9169,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9240,7 +9246,7 @@
         <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9249,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9326,7 +9332,7 @@
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9335,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9421,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9507,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9593,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9765,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9937,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -10023,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10109,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10195,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10281,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10367,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10453,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10539,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10616,7 +10622,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10711,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10776,7 +10782,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10785,76 +10791,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K117">
+        <v>4.75</v>
+      </c>
+      <c r="L117">
+        <v>4.2</v>
+      </c>
+      <c r="M117">
+        <v>1.444</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>4.75</v>
+      </c>
+      <c r="P117">
+        <v>-1.25</v>
+      </c>
+      <c r="Q117">
+        <v>1.85</v>
+      </c>
+      <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>2.75</v>
-      </c>
-      <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="N117">
-        <v>4</v>
-      </c>
-      <c r="O117">
-        <v>2.8</v>
-      </c>
-      <c r="P117">
-        <v>-0.25</v>
-      </c>
-      <c r="Q117">
-        <v>1.825</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
-      <c r="S117">
-        <v>4.25</v>
-      </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10862,7 +10868,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10871,76 +10877,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>139</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>2.75</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>2.8</v>
+      </c>
+      <c r="P118">
+        <v>-0.25</v>
+      </c>
+      <c r="Q118">
+        <v>1.825</v>
+      </c>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>4.25</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.8</v>
+      </c>
+      <c r="V118">
+        <v>-1</v>
+      </c>
+      <c r="W118">
         <v>3</v>
       </c>
-      <c r="I118" t="s">
-        <v>138</v>
-      </c>
-      <c r="J118">
-        <v>1.5</v>
-      </c>
-      <c r="K118">
-        <v>4.75</v>
-      </c>
-      <c r="L118">
-        <v>4.2</v>
-      </c>
-      <c r="M118">
-        <v>1.444</v>
-      </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-      <c r="O118">
-        <v>4.75</v>
-      </c>
-      <c r="P118">
-        <v>-1.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.85</v>
-      </c>
-      <c r="R118">
-        <v>1.95</v>
-      </c>
-      <c r="S118">
-        <v>4</v>
-      </c>
-      <c r="T118">
-        <v>1.875</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
-      <c r="V118">
-        <v>-1</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
       <c r="X118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10969,7 +10975,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11055,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J120">
         <v>1.1</v>
@@ -11141,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J121">
         <v>3.1</v>
@@ -11218,7 +11224,7 @@
         <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11227,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11313,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11390,7 +11396,7 @@
         <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11399,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J124">
         <v>1.75</v>
@@ -11485,7 +11491,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J125">
         <v>15</v>
@@ -11562,7 +11568,7 @@
         <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11571,7 +11577,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J126">
         <v>3.25</v>
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11734,7 +11740,7 @@
         <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11743,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11820,7 +11826,7 @@
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11829,7 +11835,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11906,7 +11912,7 @@
         <v>92</v>
       </c>
       <c r="F130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11915,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -12001,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -12078,7 +12084,7 @@
         <v>64</v>
       </c>
       <c r="F132" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12087,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -12164,7 +12170,7 @@
         <v>93</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -12173,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J133">
         <v>1.3</v>
@@ -12259,7 +12265,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12336,7 +12342,7 @@
         <v>72</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12345,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J135">
         <v>2.05</v>
@@ -12422,7 +12428,7 @@
         <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12431,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J136">
         <v>1.5</v>
@@ -12517,7 +12523,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12603,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12680,7 +12686,7 @@
         <v>73</v>
       </c>
       <c r="F139" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12689,7 +12695,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12775,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12861,7 +12867,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12938,7 +12944,7 @@
         <v>98</v>
       </c>
       <c r="F142" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12947,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -13012,7 +13018,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8121110</v>
+        <v>8121117</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -13021,76 +13027,76 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J143">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K143">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z143">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13098,7 +13104,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8121117</v>
+        <v>8121110</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -13107,76 +13113,248 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
+        <v>139</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3.6</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>-0.25</v>
+      </c>
+      <c r="Q144">
+        <v>1.825</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>3.25</v>
+      </c>
+      <c r="T144">
+        <v>1.95</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
+        <v>-1</v>
+      </c>
+      <c r="W144">
+        <v>2.6</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-0.5</v>
+      </c>
+      <c r="Z144">
+        <v>0.4875</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>8131039</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45405.60416666666</v>
+      </c>
+      <c r="E145" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" t="s">
         <v>136</v>
       </c>
-      <c r="J144">
-        <v>2.7</v>
-      </c>
-      <c r="K144">
-        <v>3.75</v>
-      </c>
-      <c r="L144">
-        <v>2.1</v>
-      </c>
-      <c r="M144">
-        <v>2.75</v>
-      </c>
-      <c r="N144">
-        <v>3.75</v>
-      </c>
-      <c r="O144">
-        <v>2.1</v>
-      </c>
-      <c r="P144">
-        <v>0.25</v>
-      </c>
-      <c r="Q144">
-        <v>1.875</v>
-      </c>
-      <c r="R144">
-        <v>1.925</v>
-      </c>
-      <c r="S144">
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>140</v>
+      </c>
+      <c r="J145">
+        <v>1.85</v>
+      </c>
+      <c r="K145">
+        <v>3.8</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>1.85</v>
+      </c>
+      <c r="N145">
+        <v>3.8</v>
+      </c>
+      <c r="O145">
+        <v>3.2</v>
+      </c>
+      <c r="P145">
+        <v>-0.5</v>
+      </c>
+      <c r="Q145">
+        <v>1.9</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>3.25</v>
+      </c>
+      <c r="T145">
+        <v>1.85</v>
+      </c>
+      <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
+        <v>-1</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.2</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA145">
+        <v>-0.5</v>
+      </c>
+      <c r="AB145">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>8136061</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45406.55208333334</v>
+      </c>
+      <c r="E146" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" t="s">
+        <v>137</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>138</v>
+      </c>
+      <c r="J146">
+        <v>2.4</v>
+      </c>
+      <c r="K146">
         <v>3.5</v>
       </c>
-      <c r="T144">
-        <v>1.875</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.75</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.875</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>0.925</v>
+      <c r="L146">
+        <v>2.4</v>
+      </c>
+      <c r="M146">
+        <v>2.4</v>
+      </c>
+      <c r="N146">
+        <v>3.5</v>
+      </c>
+      <c r="O146">
+        <v>2.4</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>1.9</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>1.95</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
+        <v>1.4</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.95</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -289,12 +289,12 @@
     <t>FC Ederbergland</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
     <t>FC Burgsolms</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -313,121 +313,115 @@
     <t>TB Jahn Zeiskam 1896</t>
   </si>
   <si>
+    <t>SV Frankonia Wernsdorf</t>
+  </si>
+  <si>
+    <t>1 FC BitterfeldWolfen</t>
+  </si>
+  <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
+    <t>TSV Mariendorf 1897</t>
+  </si>
+  <si>
+    <t>Berlin Turkspor</t>
+  </si>
+  <si>
+    <t>VSG Altglienicke II</t>
+  </si>
+  <si>
+    <t>SD Croatia Berlin</t>
+  </si>
+  <si>
+    <t>TSV Rudow</t>
+  </si>
+  <si>
+    <t>BFC Preussen</t>
+  </si>
+  <si>
+    <t>FC Waldbrunn</t>
+  </si>
+  <si>
+    <t>Berlin Hilalspor</t>
+  </si>
+  <si>
+    <t>TuS Kirchberg 1909</t>
+  </si>
+  <si>
+    <t>SV BlauWeiss Zorbau</t>
+  </si>
+  <si>
+    <t>VfR Gommersdorf</t>
+  </si>
+  <si>
+    <t>SV Niedernhausen</t>
+  </si>
+  <si>
+    <t>VfB Bretten</t>
+  </si>
+  <si>
+    <t>FSV Salmrohr</t>
+  </si>
+  <si>
+    <t>FSV GrunWeiss Ilsenburg</t>
+  </si>
+  <si>
+    <t>VfB Sangerhausen</t>
+  </si>
+  <si>
+    <t>FV Biebrich 02</t>
+  </si>
+  <si>
+    <t>FSG EhrangPfalzel</t>
+  </si>
+  <si>
+    <t>FC Metternich</t>
+  </si>
+  <si>
+    <t>FC Bienwald Kandel</t>
+  </si>
+  <si>
+    <t>1 FC Frankfurt</t>
+  </si>
+  <si>
+    <t>FV Morbach</t>
+  </si>
+  <si>
+    <t>SV Pars Neulsenburg</t>
+  </si>
+  <si>
+    <t>Haldensleber SC</t>
+  </si>
+  <si>
+    <t>FC Basara Mainz</t>
+  </si>
+  <si>
+    <t>FC Muhlhausen 1927</t>
+  </si>
+  <si>
+    <t>SV Rot Weiss Wittlich</t>
+  </si>
+  <si>
+    <t>Reichenbach</t>
+  </si>
+  <si>
+    <t>SG Walluf</t>
+  </si>
+  <si>
+    <t>SV 1890 Westerhausen</t>
+  </si>
+  <si>
     <t>FSV Offenbach</t>
   </si>
   <si>
-    <t>SV Frankonia Wernsdorf</t>
-  </si>
-  <si>
-    <t>1 FC BitterfeldWolfen</t>
-  </si>
-  <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
-    <t>TSV Mariendorf 1897</t>
-  </si>
-  <si>
-    <t>Berlin Turkspor</t>
-  </si>
-  <si>
-    <t>VSG Altglienicke II</t>
-  </si>
-  <si>
-    <t>SD Croatia Berlin</t>
-  </si>
-  <si>
-    <t>TSV Rudow</t>
-  </si>
-  <si>
-    <t>BFC Preussen</t>
-  </si>
-  <si>
-    <t>FC Waldbrunn</t>
-  </si>
-  <si>
-    <t>Berlin Hilalspor</t>
-  </si>
-  <si>
-    <t>TuS Kirchberg 1909</t>
-  </si>
-  <si>
-    <t>SV BlauWeiss Zorbau</t>
-  </si>
-  <si>
-    <t>VfR Gommersdorf</t>
-  </si>
-  <si>
-    <t>SV Niedernhausen</t>
-  </si>
-  <si>
-    <t>VfB Bretten</t>
-  </si>
-  <si>
-    <t>FSV Salmrohr</t>
-  </si>
-  <si>
-    <t>FSV GrunWeiss Ilsenburg</t>
-  </si>
-  <si>
-    <t>VfB Sangerhausen</t>
-  </si>
-  <si>
-    <t>FV Biebrich 02</t>
-  </si>
-  <si>
-    <t>FSG EhrangPfalzel</t>
-  </si>
-  <si>
-    <t>FC Metternich</t>
-  </si>
-  <si>
-    <t>FC Bienwald Kandel</t>
-  </si>
-  <si>
-    <t>1 FC Frankfurt</t>
-  </si>
-  <si>
-    <t>FV Morbach</t>
-  </si>
-  <si>
-    <t>SV Pars Neulsenburg</t>
-  </si>
-  <si>
-    <t>Haldensleber SC</t>
-  </si>
-  <si>
-    <t>FC Basara Mainz</t>
-  </si>
-  <si>
-    <t>FC Muhlhausen 1927</t>
-  </si>
-  <si>
-    <t>SV Rot Weiss Wittlich</t>
-  </si>
-  <si>
-    <t>Reichenbach</t>
-  </si>
-  <si>
-    <t>SG Walluf</t>
-  </si>
-  <si>
-    <t>SV 1890 Westerhausen</t>
-  </si>
-  <si>
     <t>FC Wacker Teistungen</t>
   </si>
   <si>
     <t>SV Spielberg</t>
-  </si>
-  <si>
-    <t>TuS Russingen</t>
-  </si>
-  <si>
-    <t>SSV 80 Gardelegen</t>
   </si>
   <si>
     <t>H</t>
@@ -798,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +898,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -913,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -999,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1076,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1085,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J4">
         <v>2.2</v>
@@ -1162,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1171,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J5">
         <v>2.25</v>
@@ -1248,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1257,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>2.2</v>
@@ -1334,7 +1328,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1343,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1420,7 +1414,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1429,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1506,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1515,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1592,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1601,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1687,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11">
         <v>4.25</v>
@@ -1773,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1859,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1945,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -2031,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -2096,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2105,76 +2099,76 @@
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2182,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2191,76 +2185,76 @@
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2289,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18">
         <v>1.444</v>
@@ -2375,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2461,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J20">
         <v>3.75</v>
@@ -2538,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2547,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J21">
         <v>1.4</v>
@@ -2633,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2710,7 +2704,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2719,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2805,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2882,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2891,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J25">
         <v>4.5</v>
@@ -2977,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3054,7 +3048,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3063,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3149,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -3235,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J29">
         <v>4.5</v>
@@ -3321,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3407,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3493,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3579,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3665,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J34">
         <v>1.727</v>
@@ -3751,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J35">
         <v>1.615</v>
@@ -3828,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3837,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3923,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -4009,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4095,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4181,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4258,7 +4252,7 @@
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4267,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4344,7 +4338,7 @@
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4353,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4439,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4516,7 +4510,7 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4525,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J44">
         <v>3.5</v>
@@ -4611,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4688,7 +4682,7 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4697,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J46">
         <v>3.25</v>
@@ -4783,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J47">
         <v>2.75</v>
@@ -4869,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4946,7 +4940,7 @@
         <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4955,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5032,7 +5026,7 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5041,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5127,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5213,7 +5207,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5290,7 +5284,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5299,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5376,7 +5370,7 @@
         <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -5385,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5471,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5557,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J56">
         <v>1.666</v>
@@ -5643,7 +5637,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5720,7 +5714,7 @@
         <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5729,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5815,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5901,7 +5895,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5978,7 +5972,7 @@
         <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5987,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -6073,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -6159,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6245,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6331,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6417,7 +6411,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6494,7 +6488,7 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6503,7 +6497,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -6589,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6654,7 +6648,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6663,76 +6657,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6740,7 +6734,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6749,76 +6743,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+      <c r="J70">
+        <v>2.2</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <v>2.2</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>2.2</v>
+      </c>
+      <c r="P70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>138</v>
-      </c>
-      <c r="J70">
-        <v>1.727</v>
-      </c>
-      <c r="K70">
-        <v>4.5</v>
-      </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>1.727</v>
-      </c>
-      <c r="N70">
-        <v>4.5</v>
-      </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
+      <c r="Q70">
+        <v>1.9</v>
+      </c>
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>4.25</v>
+      </c>
+      <c r="T70">
+        <v>1.775</v>
+      </c>
+      <c r="U70">
+        <v>2.025</v>
+      </c>
+      <c r="V70">
+        <v>-1</v>
+      </c>
+      <c r="W70">
+        <v>3.75</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="Q70">
-        <v>1.775</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>3.5</v>
-      </c>
-      <c r="T70">
-        <v>1.85</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6847,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6933,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -7019,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7105,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7191,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7268,7 +7262,7 @@
         <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7277,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7354,7 +7348,7 @@
         <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -7363,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7449,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7526,7 +7520,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -7535,7 +7529,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7612,7 +7606,7 @@
         <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7621,7 +7615,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7707,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7793,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7870,7 +7864,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7879,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7956,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7965,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8051,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -8116,7 +8110,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8125,58 +8119,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8185,16 +8179,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8202,7 +8196,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -8211,58 +8205,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>136</v>
+      </c>
+      <c r="J87">
+        <v>4.333</v>
+      </c>
+      <c r="K87">
         <v>4</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>138</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="K87">
-        <v>3.75</v>
-      </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8271,16 +8265,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8300,7 +8294,7 @@
         <v>82</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8309,7 +8303,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J88">
         <v>4.5</v>
@@ -8386,7 +8380,7 @@
         <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8395,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J89">
         <v>1.1</v>
@@ -8481,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8558,7 +8552,7 @@
         <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8567,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8653,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8730,7 +8724,7 @@
         <v>54</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8739,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8825,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8902,7 +8896,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8911,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8997,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9083,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9160,7 +9154,7 @@
         <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9169,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9246,7 +9240,7 @@
         <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9255,7 +9249,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9332,7 +9326,7 @@
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9341,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9427,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9513,7 +9507,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9599,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9685,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9771,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9857,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9943,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -10029,7 +10023,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10115,7 +10109,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10201,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10287,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10373,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10459,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10545,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10622,7 +10616,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10631,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10717,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10782,7 +10776,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10791,76 +10785,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>137</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>2.75</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>2.8</v>
+      </c>
+      <c r="P117">
+        <v>-0.25</v>
+      </c>
+      <c r="Q117">
+        <v>1.825</v>
+      </c>
+      <c r="R117">
+        <v>1.975</v>
+      </c>
+      <c r="S117">
+        <v>4.25</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>1.8</v>
+      </c>
+      <c r="V117">
+        <v>-1</v>
+      </c>
+      <c r="W117">
         <v>3</v>
       </c>
-      <c r="I117" t="s">
-        <v>140</v>
-      </c>
-      <c r="J117">
-        <v>1.5</v>
-      </c>
-      <c r="K117">
-        <v>4.75</v>
-      </c>
-      <c r="L117">
-        <v>4.2</v>
-      </c>
-      <c r="M117">
-        <v>1.444</v>
-      </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-      <c r="O117">
-        <v>4.75</v>
-      </c>
-      <c r="P117">
-        <v>-1.25</v>
-      </c>
-      <c r="Q117">
-        <v>1.85</v>
-      </c>
-      <c r="R117">
-        <v>1.95</v>
-      </c>
-      <c r="S117">
-        <v>4</v>
-      </c>
-      <c r="T117">
-        <v>1.875</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>-1</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
       <c r="X117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10868,7 +10862,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10877,76 +10871,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K118">
+        <v>4.75</v>
+      </c>
+      <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
+        <v>1.444</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>4.75</v>
+      </c>
+      <c r="P118">
+        <v>-1.25</v>
+      </c>
+      <c r="Q118">
+        <v>1.85</v>
+      </c>
+      <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>4</v>
       </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>4</v>
-      </c>
-      <c r="O118">
-        <v>2.8</v>
-      </c>
-      <c r="P118">
-        <v>-0.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.825</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
-      <c r="S118">
-        <v>4.25</v>
-      </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10975,7 +10969,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11061,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J120">
         <v>1.1</v>
@@ -11138,7 +11132,7 @@
         <v>82</v>
       </c>
       <c r="F121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -11147,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J121">
         <v>3.1</v>
@@ -11224,7 +11218,7 @@
         <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11233,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11319,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11396,7 +11390,7 @@
         <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11405,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J124">
         <v>1.75</v>
@@ -11470,7 +11464,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039382</v>
+        <v>8039381</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11482,52 +11476,52 @@
         <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="K125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="N125">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="O125">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="P125">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
         <v>-1</v>
@@ -11536,19 +11530,19 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>0.111</v>
+        <v>0.833</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11556,7 +11550,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039381</v>
+        <v>8039382</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11568,52 +11562,52 @@
         <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="K126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="L126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="M126">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="N126">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="O126">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="P126">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q126">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T126">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
         <v>-1</v>
@@ -11622,19 +11616,19 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.833</v>
+        <v>0.111</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11663,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11740,7 +11734,7 @@
         <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11749,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11826,7 +11820,7 @@
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11835,7 +11829,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11909,10 +11903,10 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11921,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -12007,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -12084,7 +12078,7 @@
         <v>64</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12093,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -12170,7 +12164,7 @@
         <v>93</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -12179,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J133">
         <v>1.3</v>
@@ -12265,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12342,7 +12336,7 @@
         <v>72</v>
       </c>
       <c r="F135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12351,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J135">
         <v>2.05</v>
@@ -12428,7 +12422,7 @@
         <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12437,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J136">
         <v>1.5</v>
@@ -12523,7 +12517,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12609,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12686,7 +12680,7 @@
         <v>73</v>
       </c>
       <c r="F139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12695,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12781,7 +12775,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12867,7 +12861,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12944,7 +12938,7 @@
         <v>98</v>
       </c>
       <c r="F142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12953,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -13018,7 +13012,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8121117</v>
+        <v>8121110</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -13027,76 +13021,76 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J143">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T143">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13104,7 +13098,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8121110</v>
+        <v>8121117</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -13113,248 +13107,76 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>8131039</v>
-      </c>
-      <c r="C145" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45405.60416666666</v>
-      </c>
-      <c r="E145" t="s">
-        <v>99</v>
-      </c>
-      <c r="F145" t="s">
-        <v>136</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>2</v>
-      </c>
-      <c r="I145" t="s">
-        <v>140</v>
-      </c>
-      <c r="J145">
-        <v>1.85</v>
-      </c>
-      <c r="K145">
-        <v>3.8</v>
-      </c>
-      <c r="L145">
-        <v>3.25</v>
-      </c>
-      <c r="M145">
-        <v>1.85</v>
-      </c>
-      <c r="N145">
-        <v>3.8</v>
-      </c>
-      <c r="O145">
-        <v>3.2</v>
-      </c>
-      <c r="P145">
-        <v>-0.5</v>
-      </c>
-      <c r="Q145">
-        <v>1.9</v>
-      </c>
-      <c r="R145">
-        <v>1.9</v>
-      </c>
-      <c r="S145">
-        <v>3.25</v>
-      </c>
-      <c r="T145">
-        <v>1.85</v>
-      </c>
-      <c r="U145">
-        <v>1.95</v>
-      </c>
-      <c r="V145">
-        <v>-1</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>2.2</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA145">
-        <v>-0.5</v>
-      </c>
-      <c r="AB145">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>8136061</v>
-      </c>
-      <c r="C146" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45406.55208333334</v>
-      </c>
-      <c r="E146" t="s">
-        <v>63</v>
-      </c>
-      <c r="F146" t="s">
-        <v>137</v>
-      </c>
-      <c r="G146">
-        <v>3</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146" t="s">
-        <v>138</v>
-      </c>
-      <c r="J146">
-        <v>2.4</v>
-      </c>
-      <c r="K146">
-        <v>3.5</v>
-      </c>
-      <c r="L146">
-        <v>2.4</v>
-      </c>
-      <c r="M146">
-        <v>2.4</v>
-      </c>
-      <c r="N146">
-        <v>3.5</v>
-      </c>
-      <c r="O146">
-        <v>2.4</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-      <c r="Q146">
-        <v>1.9</v>
-      </c>
-      <c r="R146">
-        <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>3</v>
-      </c>
-      <c r="T146">
-        <v>1.95</v>
-      </c>
-      <c r="U146">
-        <v>1.85</v>
-      </c>
-      <c r="V146">
-        <v>1.4</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
-      <c r="AA146">
-        <v>0.95</v>
-      </c>
-      <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -97,27 +97,30 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8147478</t>
+  </si>
+  <si>
     <t>Germany Verbandsliga</t>
   </si>
   <si>
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
+    <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
@@ -205,12 +208,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -313,18 +316,27 @@
     <t>TB Jahn Zeiskam 1896</t>
   </si>
   <si>
+    <t>FSV Offenbach</t>
+  </si>
+  <si>
+    <t>VfB Bretten</t>
+  </si>
+  <si>
+    <t>SSC Weissenfels</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
@@ -361,9 +373,6 @@
     <t>SV Niedernhausen</t>
   </si>
   <si>
-    <t>VfB Bretten</t>
-  </si>
-  <si>
     <t>FSV Salmrohr</t>
   </si>
   <si>
@@ -415,13 +424,16 @@
     <t>SV 1890 Westerhausen</t>
   </si>
   <si>
-    <t>FSV Offenbach</t>
-  </si>
-  <si>
     <t>FC Wacker Teistungen</t>
   </si>
   <si>
     <t>SV Spielberg</t>
+  </si>
+  <si>
+    <t>TuS Russingen</t>
+  </si>
+  <si>
+    <t>SSV 80 Gardelegen</t>
   </si>
   <si>
     <t>H</t>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,16 +901,16 @@
         <v>6723423</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.625</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -907,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -972,19 +984,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45093.5625</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -993,64 +1005,64 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J3">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="M3">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="O3">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="P3">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
         <v>-1</v>
       </c>
       <c r="W3">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1058,19 +1070,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45093.5625</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1079,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="K4">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>-3</v>
+      </c>
+      <c r="Q4">
+        <v>1.9</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
         <v>3.5</v>
       </c>
-      <c r="O4">
-        <v>2.7</v>
-      </c>
-      <c r="P4">
-        <v>-0.25</v>
-      </c>
-      <c r="Q4">
-        <v>1.975</v>
-      </c>
-      <c r="R4">
-        <v>1.825</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
       <c r="T4">
+        <v>1.775</v>
+      </c>
+      <c r="U4">
         <v>1.925</v>
       </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1144,82 +1156,82 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5">
+        <v>1.65</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1.45</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5">
-        <v>2.25</v>
-      </c>
-      <c r="K5">
-        <v>3.75</v>
-      </c>
-      <c r="L5">
-        <v>2.5</v>
-      </c>
-      <c r="M5">
-        <v>2.25</v>
-      </c>
-      <c r="N5">
-        <v>3.75</v>
-      </c>
-      <c r="O5">
-        <v>2.5</v>
-      </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
         <v>3.5</v>
       </c>
       <c r="T5">
+        <v>1.825</v>
+      </c>
+      <c r="U5">
         <v>1.975</v>
       </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1233,16 +1245,16 @@
         <v>6781300</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1251,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J6">
         <v>2.2</v>
@@ -1316,82 +1328,82 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J7">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P7">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
         <v>3.5</v>
       </c>
       <c r="T7">
+        <v>1.975</v>
+      </c>
+      <c r="U7">
         <v>1.825</v>
       </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1405,16 +1417,16 @@
         <v>7082497</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1423,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1491,16 +1503,16 @@
         <v>7089718</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45158.25</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1509,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1577,16 +1589,16 @@
         <v>7089719</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45158.29166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1595,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1663,16 +1675,16 @@
         <v>7089720</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1681,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J11">
         <v>4.25</v>
@@ -1749,16 +1761,16 @@
         <v>7108452</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45162.625</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1767,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1835,16 +1847,16 @@
         <v>7127255</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45165.27083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1853,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1921,16 +1933,16 @@
         <v>7132222</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1939,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -2007,16 +2019,16 @@
         <v>7138606</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45168.58333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2025,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -2090,85 +2102,85 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2176,85 +2188,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2265,16 +2277,16 @@
         <v>7142348</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45169.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2283,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J18">
         <v>1.444</v>
@@ -2351,16 +2363,16 @@
         <v>7142389</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45169.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2369,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2437,16 +2449,16 @@
         <v>7149361</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -2455,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J20">
         <v>3.75</v>
@@ -2523,16 +2535,16 @@
         <v>7149166</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2541,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J21">
         <v>1.4</v>
@@ -2609,16 +2621,16 @@
         <v>7157070</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45172.25</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2627,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2695,16 +2707,16 @@
         <v>7157071</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45172.27083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2713,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2781,16 +2793,16 @@
         <v>7157072</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45172.29166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2799,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2867,16 +2879,16 @@
         <v>7157073</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2885,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J25">
         <v>4.5</v>
@@ -2953,16 +2965,16 @@
         <v>7167375</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45175.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2971,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3039,16 +3051,16 @@
         <v>7173139</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45176.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3057,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3125,16 +3137,16 @@
         <v>7179408</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45177.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3143,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -3211,16 +3223,16 @@
         <v>7179426</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45177.625</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3229,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J29">
         <v>4.5</v>
@@ -3297,16 +3309,16 @@
         <v>7183193</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45178.54166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3315,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3383,16 +3395,16 @@
         <v>7190657</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45179.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3401,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3469,16 +3481,16 @@
         <v>7190617</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45179.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3487,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3555,16 +3567,16 @@
         <v>7200970</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45182.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3573,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3641,16 +3653,16 @@
         <v>7211567</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3659,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J34">
         <v>1.727</v>
@@ -3727,16 +3739,16 @@
         <v>7211566</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45184.625</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3745,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J35">
         <v>1.615</v>
@@ -3813,16 +3825,16 @@
         <v>7221879</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45186.27083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3831,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3899,16 +3911,16 @@
         <v>7221880</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3917,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3985,16 +3997,16 @@
         <v>7231867</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45189.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4003,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4071,16 +4083,16 @@
         <v>7231868</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45189.625</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4089,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4157,16 +4169,16 @@
         <v>7240007</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45191.64166666667</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4175,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4243,16 +4255,16 @@
         <v>7244427</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4261,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4329,16 +4341,16 @@
         <v>7244428</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45192.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4347,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4415,16 +4427,16 @@
         <v>7248793</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45193.25</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4433,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4501,16 +4513,16 @@
         <v>7248792</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4519,7 +4531,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J44">
         <v>3.5</v>
@@ -4587,16 +4599,16 @@
         <v>7248414</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4605,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4670,58 +4682,58 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45193.375</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
       <c r="I46" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K46">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L46">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>0.25</v>
       </c>
       <c r="Q46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T46">
         <v>1.8</v>
@@ -4730,19 +4742,19 @@
         <v>2</v>
       </c>
       <c r="V46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA46">
         <v>0.8</v>
@@ -4756,58 +4768,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45193.375</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J47">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P47">
         <v>0.25</v>
       </c>
       <c r="Q47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T47">
         <v>1.8</v>
@@ -4816,19 +4828,19 @@
         <v>2</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.8</v>
@@ -4845,16 +4857,16 @@
         <v>7265862</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45197.625</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4863,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4931,16 +4943,16 @@
         <v>7271527</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4949,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5017,16 +5029,16 @@
         <v>7275121</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45199.375</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5035,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5103,16 +5115,16 @@
         <v>7287365</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45202.33333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5121,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5189,16 +5201,16 @@
         <v>7289712</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45203.625</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5207,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5275,16 +5287,16 @@
         <v>7303597</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5293,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5361,16 +5373,16 @@
         <v>7333370</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45212.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -5379,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5447,16 +5459,16 @@
         <v>7333372</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45212.625</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5465,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5533,16 +5545,16 @@
         <v>7338459</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45213.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5551,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J56">
         <v>1.666</v>
@@ -5619,16 +5631,16 @@
         <v>7338423</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45213.5</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5637,7 +5649,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5705,16 +5717,16 @@
         <v>7338424</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45213.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5723,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5791,16 +5803,16 @@
         <v>7344106</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45214.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5809,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5877,16 +5889,16 @@
         <v>7357625</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45218.625</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5895,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5963,16 +5975,16 @@
         <v>7363017</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45219.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5981,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -6049,16 +6061,16 @@
         <v>7362937</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45219.625</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62">
         <v>8</v>
@@ -6067,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -6135,16 +6147,16 @@
         <v>7387940</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45224.61458333334</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -6153,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6221,16 +6233,16 @@
         <v>7395638</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6239,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6307,16 +6319,16 @@
         <v>7398235</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6325,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6393,16 +6405,16 @@
         <v>7407438</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45229.66666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6411,7 +6423,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6479,16 +6491,16 @@
         <v>7423701</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45233.625</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6497,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -6565,16 +6577,16 @@
         <v>7423702</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45233.625</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6583,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6648,85 +6660,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69">
+        <v>2.2</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>2.2</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>4.75</v>
+      </c>
+      <c r="O69">
+        <v>2.2</v>
+      </c>
+      <c r="P69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69">
-        <v>1.727</v>
-      </c>
-      <c r="K69">
-        <v>4.5</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>1.727</v>
-      </c>
-      <c r="N69">
-        <v>4.5</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
+      <c r="Q69">
+        <v>1.9</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>4.25</v>
+      </c>
+      <c r="T69">
+        <v>1.775</v>
+      </c>
+      <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
+        <v>-1</v>
+      </c>
+      <c r="W69">
+        <v>3.75</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>-0.5</v>
       </c>
-      <c r="Q69">
-        <v>1.775</v>
-      </c>
-      <c r="R69">
-        <v>2.025</v>
-      </c>
-      <c r="S69">
-        <v>3.5</v>
-      </c>
-      <c r="T69">
-        <v>1.85</v>
-      </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
-      <c r="V69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6734,85 +6746,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W70">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6823,16 +6835,16 @@
         <v>7426759</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45234.5</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6841,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6909,16 +6921,16 @@
         <v>7426760</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6927,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -6995,16 +7007,16 @@
         <v>7432120</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7013,7 +7025,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7081,16 +7093,16 @@
         <v>7448104</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45238.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7099,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7167,16 +7179,16 @@
         <v>7452093</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45239.66666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7185,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7253,16 +7265,16 @@
         <v>7456343</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7271,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7339,16 +7351,16 @@
         <v>7461161</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -7357,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7425,16 +7437,16 @@
         <v>7465604</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7443,7 +7455,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7511,16 +7523,16 @@
         <v>7475154</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45245.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -7529,7 +7541,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7597,16 +7609,16 @@
         <v>7485100</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45247.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7615,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7683,16 +7695,16 @@
         <v>7494616</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45249.375</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7701,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7769,16 +7781,16 @@
         <v>7494617</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45249.4375</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7787,7 +7799,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7855,16 +7867,16 @@
         <v>7494618</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45249.48958333334</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7873,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7941,16 +7953,16 @@
         <v>7509161</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45252.64583333334</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7959,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8027,16 +8039,16 @@
         <v>7511977</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8045,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -8110,67 +8122,67 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>140</v>
+      </c>
+      <c r="J86">
+        <v>4.333</v>
+      </c>
+      <c r="K86">
         <v>4</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>136</v>
-      </c>
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86">
-        <v>3.75</v>
-      </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8179,16 +8191,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8196,67 +8208,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8265,16 +8277,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8285,16 +8297,16 @@
         <v>7517001</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45255.375</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8303,7 +8315,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J88">
         <v>4.5</v>
@@ -8371,16 +8383,16 @@
         <v>7517298</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45255.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8389,7 +8401,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J89">
         <v>1.1</v>
@@ -8457,16 +8469,16 @@
         <v>7520698</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45256.375</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8475,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8543,16 +8555,16 @@
         <v>7543280</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8561,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8629,16 +8641,16 @@
         <v>7548461</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8647,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8715,16 +8727,16 @@
         <v>7837899</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8733,7 +8745,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8801,16 +8813,16 @@
         <v>7842190</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45339.4375</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8819,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8887,16 +8899,16 @@
         <v>7870732</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45345.625</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8905,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8973,16 +8985,16 @@
         <v>7877818</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8991,7 +9003,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9059,16 +9071,16 @@
         <v>7890718</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9077,7 +9089,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9145,16 +9157,16 @@
         <v>7899046</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45352.625</v>
       </c>
       <c r="E98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9163,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9231,16 +9243,16 @@
         <v>7899045</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45352.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9249,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9317,16 +9329,16 @@
         <v>7906238</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45353.5</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9335,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9403,16 +9415,16 @@
         <v>7905680</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9421,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9489,16 +9501,16 @@
         <v>7905679</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45354.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9507,7 +9519,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9575,16 +9587,16 @@
         <v>7919896</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45357.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9593,7 +9605,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9661,16 +9673,16 @@
         <v>7928416</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45359.625</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9679,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9747,16 +9759,16 @@
         <v>7928417</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9765,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9833,16 +9845,16 @@
         <v>7930352</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9851,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9919,16 +9931,16 @@
         <v>7940471</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45361.375</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9937,7 +9949,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -10005,16 +10017,16 @@
         <v>7950774</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10023,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10091,16 +10103,16 @@
         <v>7955116</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45365.64583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10109,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10177,16 +10189,16 @@
         <v>7961296</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45366.625</v>
       </c>
       <c r="E110" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -10195,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10263,16 +10275,16 @@
         <v>7966121</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45367.58333333334</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10281,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10349,16 +10361,16 @@
         <v>7981940</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45371.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G112">
         <v>6</v>
@@ -10367,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10435,16 +10447,16 @@
         <v>7990779</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45373.625</v>
       </c>
       <c r="E113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10453,7 +10465,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10521,16 +10533,16 @@
         <v>7999724</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45375.4375</v>
       </c>
       <c r="E114" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" t="s">
         <v>54</v>
-      </c>
-      <c r="F114" t="s">
-        <v>53</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10539,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10607,16 +10619,16 @@
         <v>7999723</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45375.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10625,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10693,16 +10705,16 @@
         <v>7999726</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45375.47916666666</v>
       </c>
       <c r="E116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -10711,7 +10723,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10776,85 +10788,85 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K117">
+        <v>4.75</v>
+      </c>
+      <c r="L117">
+        <v>4.2</v>
+      </c>
+      <c r="M117">
+        <v>1.444</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>4.75</v>
+      </c>
+      <c r="P117">
+        <v>-1.25</v>
+      </c>
+      <c r="Q117">
+        <v>1.85</v>
+      </c>
+      <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
         <v>4</v>
       </c>
-      <c r="L117">
-        <v>2.75</v>
-      </c>
-      <c r="M117">
-        <v>2</v>
-      </c>
-      <c r="N117">
-        <v>4</v>
-      </c>
-      <c r="O117">
-        <v>2.8</v>
-      </c>
-      <c r="P117">
-        <v>-0.25</v>
-      </c>
-      <c r="Q117">
-        <v>1.825</v>
-      </c>
-      <c r="R117">
-        <v>1.975</v>
-      </c>
-      <c r="S117">
-        <v>4.25</v>
-      </c>
       <c r="T117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10862,85 +10874,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>141</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>2.75</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>2.8</v>
+      </c>
+      <c r="P118">
+        <v>-0.25</v>
+      </c>
+      <c r="Q118">
+        <v>1.825</v>
+      </c>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>4.25</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.8</v>
+      </c>
+      <c r="V118">
+        <v>-1</v>
+      </c>
+      <c r="W118">
         <v>3</v>
       </c>
-      <c r="I118" t="s">
-        <v>138</v>
-      </c>
-      <c r="J118">
-        <v>1.5</v>
-      </c>
-      <c r="K118">
-        <v>4.75</v>
-      </c>
-      <c r="L118">
-        <v>4.2</v>
-      </c>
-      <c r="M118">
-        <v>1.444</v>
-      </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-      <c r="O118">
-        <v>4.75</v>
-      </c>
-      <c r="P118">
-        <v>-1.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.85</v>
-      </c>
-      <c r="R118">
-        <v>1.95</v>
-      </c>
-      <c r="S118">
-        <v>4</v>
-      </c>
-      <c r="T118">
-        <v>1.875</v>
-      </c>
-      <c r="U118">
-        <v>1.925</v>
-      </c>
-      <c r="V118">
-        <v>-1</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
       <c r="X118">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10951,16 +10963,16 @@
         <v>8017337</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45379.625</v>
       </c>
       <c r="E119" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10969,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11034,49 +11046,49 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J120">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="K120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="M120">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="P120">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q120">
         <v>1.85</v>
@@ -11085,34 +11097,34 @@
         <v>1.95</v>
       </c>
       <c r="S120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11120,49 +11132,49 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F121" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>1</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J121">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="O121">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="P121">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="Q121">
         <v>1.85</v>
@@ -11171,34 +11183,34 @@
         <v>1.95</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Y121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11209,16 +11221,16 @@
         <v>8026309</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11227,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11295,16 +11307,16 @@
         <v>8038989</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45383.375</v>
       </c>
       <c r="E123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11313,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11381,16 +11393,16 @@
         <v>8038996</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45383.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11399,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J124">
         <v>1.75</v>
@@ -11467,16 +11479,16 @@
         <v>8039381</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11485,7 +11497,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J125">
         <v>3.25</v>
@@ -11553,16 +11565,16 @@
         <v>8039382</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F126" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11571,7 +11583,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J126">
         <v>15</v>
@@ -11639,16 +11651,16 @@
         <v>8044263</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45385.625</v>
       </c>
       <c r="E127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11657,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11725,16 +11737,16 @@
         <v>8044262</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45385.63125</v>
       </c>
       <c r="E128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F128" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11743,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11811,16 +11823,16 @@
         <v>8050953</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45387.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11829,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11897,16 +11909,16 @@
         <v>8055569</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F130" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11915,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11983,16 +11995,16 @@
         <v>8054877</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12001,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -12069,7 +12081,7 @@
         <v>8059745</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
@@ -12078,7 +12090,7 @@
         <v>64</v>
       </c>
       <c r="F132" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12087,7 +12099,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -12155,16 +12167,16 @@
         <v>8059762</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -12173,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J133">
         <v>1.3</v>
@@ -12241,16 +12253,16 @@
         <v>8074796</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45392.625</v>
       </c>
       <c r="E134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12259,7 +12271,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12327,16 +12339,16 @@
         <v>8083444</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45394.5625</v>
       </c>
       <c r="E135" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12345,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J135">
         <v>2.05</v>
@@ -12413,16 +12425,16 @@
         <v>8083445</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12431,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J136">
         <v>1.5</v>
@@ -12499,16 +12511,16 @@
         <v>8085441</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12517,7 +12529,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12585,16 +12597,16 @@
         <v>8091145</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12603,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12671,16 +12683,16 @@
         <v>8117714</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45401.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F139" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12689,7 +12701,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12757,16 +12769,16 @@
         <v>8114461</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45401.625</v>
       </c>
       <c r="E140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12775,7 +12787,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12843,16 +12855,16 @@
         <v>8117590</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12861,7 +12873,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12929,16 +12941,16 @@
         <v>8121527</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F142" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12947,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -13012,85 +13024,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8121110</v>
+        <v>8121117</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J143">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K143">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z143">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13098,85 +13110,494 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8121117</v>
+        <v>8121110</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J144">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K144">
+        <v>3.6</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3.6</v>
+      </c>
+      <c r="O144">
+        <v>3</v>
+      </c>
+      <c r="P144">
+        <v>-0.25</v>
+      </c>
+      <c r="Q144">
+        <v>1.825</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>3.25</v>
+      </c>
+      <c r="T144">
+        <v>1.95</v>
+      </c>
+      <c r="U144">
+        <v>1.85</v>
+      </c>
+      <c r="V144">
+        <v>-1</v>
+      </c>
+      <c r="W144">
+        <v>2.6</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-0.5</v>
+      </c>
+      <c r="Z144">
+        <v>0.4875</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>8131039</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45405.60416666666</v>
+      </c>
+      <c r="E145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145" t="s">
+        <v>138</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>142</v>
+      </c>
+      <c r="J145">
+        <v>1.85</v>
+      </c>
+      <c r="K145">
+        <v>3.8</v>
+      </c>
+      <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>1.85</v>
+      </c>
+      <c r="N145">
+        <v>3.8</v>
+      </c>
+      <c r="O145">
+        <v>3.2</v>
+      </c>
+      <c r="P145">
+        <v>-0.5</v>
+      </c>
+      <c r="Q145">
+        <v>1.9</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>3.25</v>
+      </c>
+      <c r="T145">
+        <v>1.85</v>
+      </c>
+      <c r="U145">
+        <v>1.95</v>
+      </c>
+      <c r="V145">
+        <v>-1</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.2</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA145">
+        <v>-0.5</v>
+      </c>
+      <c r="AB145">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>8136061</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45406.55208333334</v>
+      </c>
+      <c r="E146" t="s">
+        <v>65</v>
+      </c>
+      <c r="F146" t="s">
+        <v>139</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>140</v>
+      </c>
+      <c r="J146">
+        <v>2.4</v>
+      </c>
+      <c r="K146">
+        <v>3.5</v>
+      </c>
+      <c r="L146">
+        <v>2.4</v>
+      </c>
+      <c r="M146">
+        <v>2.4</v>
+      </c>
+      <c r="N146">
+        <v>3.5</v>
+      </c>
+      <c r="O146">
+        <v>2.4</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>1.9</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>1.95</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
+        <v>1.4</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.95</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>8143691</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45408.58333333334</v>
+      </c>
+      <c r="E147" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" t="s">
+        <v>51</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>141</v>
+      </c>
+      <c r="J147">
+        <v>4.5</v>
+      </c>
+      <c r="K147">
+        <v>4.5</v>
+      </c>
+      <c r="L147">
+        <v>1.5</v>
+      </c>
+      <c r="M147">
+        <v>4.5</v>
+      </c>
+      <c r="N147">
+        <v>4.75</v>
+      </c>
+      <c r="O147">
+        <v>1.5</v>
+      </c>
+      <c r="P147">
+        <v>1.25</v>
+      </c>
+      <c r="Q147">
+        <v>1.825</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
         <v>3.75</v>
       </c>
-      <c r="L144">
-        <v>2.1</v>
-      </c>
-      <c r="M144">
-        <v>2.75</v>
-      </c>
-      <c r="N144">
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
         <v>3.75</v>
       </c>
-      <c r="O144">
-        <v>2.1</v>
-      </c>
-      <c r="P144">
-        <v>0.25</v>
-      </c>
-      <c r="Q144">
-        <v>1.875</v>
-      </c>
-      <c r="R144">
-        <v>1.925</v>
-      </c>
-      <c r="S144">
-        <v>3.5</v>
-      </c>
-      <c r="T144">
-        <v>1.875</v>
-      </c>
-      <c r="U144">
-        <v>1.925</v>
-      </c>
-      <c r="V144">
-        <v>1.75</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>0.875</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>0.925</v>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.825</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>0.5</v>
+      </c>
+      <c r="AB147">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>8143692</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45408.625</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>140</v>
+      </c>
+      <c r="J148">
+        <v>1.8</v>
+      </c>
+      <c r="K148">
+        <v>4.5</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>1.8</v>
+      </c>
+      <c r="N148">
+        <v>4.5</v>
+      </c>
+      <c r="O148">
+        <v>3</v>
+      </c>
+      <c r="P148">
+        <v>-0.5</v>
+      </c>
+      <c r="Q148">
+        <v>1.85</v>
+      </c>
+      <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
+        <v>3.75</v>
+      </c>
+      <c r="T148">
+        <v>1.975</v>
+      </c>
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
+        <v>0.8</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45409.375</v>
+      </c>
+      <c r="E149" t="s">
+        <v>102</v>
+      </c>
+      <c r="F149" t="s">
+        <v>135</v>
+      </c>
+      <c r="J149">
+        <v>1.25</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+      <c r="L149">
+        <v>7</v>
+      </c>
+      <c r="M149">
+        <v>1.25</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149">
+        <v>6.5</v>
+      </c>
+      <c r="P149">
+        <v>-1.75</v>
+      </c>
+      <c r="Q149">
+        <v>1.775</v>
+      </c>
+      <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.9</v>
+      </c>
+      <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8147478</t>
-  </si>
-  <si>
     <t>Germany Verbandsliga</t>
   </si>
   <si>
@@ -208,12 +205,12 @@
     <t>Berliner SC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
     <t>Waldhof Mannheim II</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -235,12 +232,12 @@
     <t>SG 2000 MulheimKarlich</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
   </si>
   <si>
     <t>VfB Bretten</t>
-  </si>
-  <si>
-    <t>SSC Weissenfels</t>
   </si>
   <si>
     <t>SV Frankonia Wernsdorf</t>
@@ -804,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,16 +895,16 @@
         <v>6723423</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45079.625</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -919,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -987,16 +981,16 @@
         <v>6776470</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45093.5625</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1005,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J3">
         <v>2.2</v>
@@ -1073,16 +1067,16 @@
         <v>6776469</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45093.5625</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1091,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1159,16 +1153,16 @@
         <v>6781301</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J5">
         <v>1.65</v>
@@ -1245,16 +1239,16 @@
         <v>6781300</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -1263,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J6">
         <v>2.2</v>
@@ -1331,16 +1325,16 @@
         <v>6781286</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45094.41666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1349,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J7">
         <v>2.25</v>
@@ -1417,16 +1411,16 @@
         <v>7082497</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1435,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1503,16 +1497,16 @@
         <v>7089718</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45158.25</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1521,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1589,16 +1583,16 @@
         <v>7089719</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45158.29166666666</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1607,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1675,16 +1669,16 @@
         <v>7089720</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45158.33333333334</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1693,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J11">
         <v>4.25</v>
@@ -1761,16 +1755,16 @@
         <v>7108452</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45162.625</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1779,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1847,16 +1841,16 @@
         <v>7127255</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45165.27083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1865,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1933,16 +1927,16 @@
         <v>7132222</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1951,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -2019,16 +2013,16 @@
         <v>7138606</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45168.58333333334</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2037,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -2102,85 +2096,85 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O16">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2188,85 +2182,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J17">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P17">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2277,16 +2271,16 @@
         <v>7142348</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45169.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2295,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J18">
         <v>1.444</v>
@@ -2363,16 +2357,16 @@
         <v>7142389</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45169.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2381,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2446,82 +2440,82 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>4</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>140</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="K20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="L20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="M20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2532,82 +2526,82 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21">
+        <v>3.75</v>
+      </c>
+      <c r="K21">
+        <v>4.333</v>
+      </c>
+      <c r="L21">
+        <v>1.615</v>
+      </c>
+      <c r="M21">
+        <v>3.75</v>
+      </c>
+      <c r="N21">
+        <v>4.333</v>
+      </c>
+      <c r="O21">
+        <v>1.615</v>
+      </c>
+      <c r="P21">
+        <v>0.75</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>3.75</v>
+      </c>
+      <c r="T21">
+        <v>1.9</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21">
-        <v>1.4</v>
-      </c>
-      <c r="K21">
-        <v>4.8</v>
-      </c>
-      <c r="L21">
-        <v>5.25</v>
-      </c>
-      <c r="M21">
-        <v>1.4</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>-1.25</v>
-      </c>
-      <c r="Q21">
-        <v>1.8</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>3.5</v>
-      </c>
-      <c r="T21">
-        <v>1.925</v>
-      </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>-1</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2621,16 +2615,16 @@
         <v>7157070</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45172.25</v>
       </c>
       <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2639,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -2707,16 +2701,16 @@
         <v>7157071</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45172.27083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2725,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J23">
         <v>1.727</v>
@@ -2793,16 +2787,16 @@
         <v>7157072</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45172.29166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2811,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2879,16 +2873,16 @@
         <v>7157073</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45172.3125</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2897,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J25">
         <v>4.5</v>
@@ -2965,16 +2959,16 @@
         <v>7167375</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45175.58333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2983,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3051,16 +3045,16 @@
         <v>7173139</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45176.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3069,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3137,16 +3131,16 @@
         <v>7179408</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45177.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3155,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J28">
         <v>2.4</v>
@@ -3223,16 +3217,16 @@
         <v>7179426</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45177.625</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3241,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J29">
         <v>4.5</v>
@@ -3309,16 +3303,16 @@
         <v>7183193</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45178.54166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3327,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3395,16 +3389,16 @@
         <v>7190657</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45179.33333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3413,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J31">
         <v>2.9</v>
@@ -3481,16 +3475,16 @@
         <v>7190617</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45179.41666666666</v>
       </c>
       <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" t="s">
         <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3499,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J32">
         <v>2.4</v>
@@ -3567,16 +3561,16 @@
         <v>7200970</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45182.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3585,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3653,16 +3647,16 @@
         <v>7211567</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3671,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J34">
         <v>1.727</v>
@@ -3739,16 +3733,16 @@
         <v>7211566</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45184.625</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3757,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J35">
         <v>1.615</v>
@@ -3825,16 +3819,16 @@
         <v>7221879</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45186.27083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3843,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3911,16 +3905,16 @@
         <v>7221880</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3929,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -3997,16 +3991,16 @@
         <v>7231867</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45189.60416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4015,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4083,16 +4077,16 @@
         <v>7231868</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45189.625</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4101,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4169,16 +4163,16 @@
         <v>7240007</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45191.64166666667</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4187,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4255,16 +4249,16 @@
         <v>7244427</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4273,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4341,16 +4335,16 @@
         <v>7244428</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45192.54166666666</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4359,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4427,16 +4421,16 @@
         <v>7248793</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45193.25</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4445,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J43">
         <v>1.5</v>
@@ -4513,16 +4507,16 @@
         <v>7248792</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45193.3125</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4531,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J44">
         <v>3.5</v>
@@ -4599,16 +4593,16 @@
         <v>7248414</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45193.33333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4617,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4682,58 +4676,58 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248791</v>
+        <v>7248441</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45193.375</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
         <v>1</v>
       </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P46">
         <v>0.25</v>
       </c>
       <c r="Q46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>1.8</v>
@@ -4742,19 +4736,19 @@
         <v>2</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.8</v>
@@ -4768,58 +4762,58 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248441</v>
+        <v>7248791</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45193.375</v>
       </c>
       <c r="E47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" t="s">
         <v>65</v>
       </c>
-      <c r="F47" t="s">
-        <v>116</v>
-      </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>3</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
       </c>
       <c r="I47" t="s">
         <v>140</v>
       </c>
       <c r="J47">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>0.25</v>
       </c>
       <c r="Q47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T47">
         <v>1.8</v>
@@ -4828,19 +4822,19 @@
         <v>2</v>
       </c>
       <c r="V47">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
         <v>0.8</v>
@@ -4857,16 +4851,16 @@
         <v>7265862</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45197.625</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4875,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4943,16 +4937,16 @@
         <v>7271527</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4961,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5029,16 +5023,16 @@
         <v>7275121</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45199.375</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5047,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5115,16 +5109,16 @@
         <v>7287365</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45202.33333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5133,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5201,16 +5195,16 @@
         <v>7289712</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45203.625</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5219,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5287,16 +5281,16 @@
         <v>7303597</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45206.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5305,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5373,16 +5367,16 @@
         <v>7333370</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45212.58333333334</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -5391,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5459,16 +5453,16 @@
         <v>7333372</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45212.625</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5477,7 +5471,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5545,16 +5539,16 @@
         <v>7338459</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45213.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5563,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J56">
         <v>1.666</v>
@@ -5631,16 +5625,16 @@
         <v>7338423</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45213.5</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5649,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5717,16 +5711,16 @@
         <v>7338424</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45213.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -5735,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J58">
         <v>1.363</v>
@@ -5803,16 +5797,16 @@
         <v>7344106</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45214.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5821,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5889,16 +5883,16 @@
         <v>7357625</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45218.625</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5907,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5975,16 +5969,16 @@
         <v>7363017</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45219.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5993,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -6061,16 +6055,16 @@
         <v>7362937</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45219.625</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62">
         <v>8</v>
@@ -6079,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J62">
         <v>1.533</v>
@@ -6147,16 +6141,16 @@
         <v>7387940</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45224.61458333334</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G63">
         <v>6</v>
@@ -6165,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6233,16 +6227,16 @@
         <v>7395638</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6251,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6319,16 +6313,16 @@
         <v>7398235</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6337,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6405,16 +6399,16 @@
         <v>7407438</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45229.66666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6423,7 +6417,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6488,49 +6482,49 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423701</v>
+        <v>7423702</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45233.625</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K67">
         <v>4.5</v>
       </c>
       <c r="L67">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N67">
         <v>4.5</v>
       </c>
       <c r="O67">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q67">
         <v>1.85</v>
@@ -6539,7 +6533,7 @@
         <v>1.95</v>
       </c>
       <c r="S67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T67">
         <v>1.85</v>
@@ -6551,10 +6545,10 @@
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X67">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6574,49 +6568,49 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45233.625</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K68">
         <v>4.5</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>4.5</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
         <v>1.85</v>
@@ -6625,7 +6619,7 @@
         <v>1.95</v>
       </c>
       <c r="S68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T68">
         <v>1.85</v>
@@ -6637,10 +6631,10 @@
         <v>-1</v>
       </c>
       <c r="W68">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6660,85 +6654,85 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423699</v>
+        <v>7423700</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T69">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W69">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6746,85 +6740,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70">
+        <v>2.2</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70">
+        <v>2.2</v>
+      </c>
+      <c r="M70">
+        <v>2.2</v>
+      </c>
+      <c r="N70">
+        <v>4.75</v>
+      </c>
+      <c r="O70">
+        <v>2.2</v>
+      </c>
+      <c r="P70">
         <v>0</v>
       </c>
-      <c r="I70" t="s">
-        <v>140</v>
-      </c>
-      <c r="J70">
-        <v>1.727</v>
-      </c>
-      <c r="K70">
-        <v>4.5</v>
-      </c>
-      <c r="L70">
-        <v>3.2</v>
-      </c>
-      <c r="M70">
-        <v>1.727</v>
-      </c>
-      <c r="N70">
-        <v>4.5</v>
-      </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
+      <c r="Q70">
+        <v>1.9</v>
+      </c>
+      <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>4.25</v>
+      </c>
+      <c r="T70">
+        <v>1.775</v>
+      </c>
+      <c r="U70">
+        <v>2.025</v>
+      </c>
+      <c r="V70">
+        <v>-1</v>
+      </c>
+      <c r="W70">
+        <v>3.75</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="Q70">
-        <v>1.775</v>
-      </c>
-      <c r="R70">
-        <v>2.025</v>
-      </c>
-      <c r="S70">
-        <v>3.5</v>
-      </c>
-      <c r="T70">
-        <v>1.85</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6835,16 +6829,16 @@
         <v>7426759</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45234.5</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G71">
         <v>4</v>
@@ -6853,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6921,16 +6915,16 @@
         <v>7426760</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s">
         <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>78</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6939,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -7007,16 +7001,16 @@
         <v>7432120</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7025,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7093,16 +7087,16 @@
         <v>7448104</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45238.64583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7111,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7179,16 +7173,16 @@
         <v>7452093</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45239.66666666666</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7197,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7265,16 +7259,16 @@
         <v>7456343</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7283,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7351,16 +7345,16 @@
         <v>7461161</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -7369,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7437,16 +7431,16 @@
         <v>7465604</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7455,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7523,16 +7517,16 @@
         <v>7475154</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45245.66666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -7541,7 +7535,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7609,16 +7603,16 @@
         <v>7485100</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45247.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7627,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7695,16 +7689,16 @@
         <v>7494616</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45249.375</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7713,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7781,16 +7775,16 @@
         <v>7494617</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45249.4375</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7799,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7867,16 +7861,16 @@
         <v>7494618</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45249.48958333334</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7885,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7953,16 +7947,16 @@
         <v>7509161</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45252.64583333334</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7971,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8039,16 +8033,16 @@
         <v>7511977</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8057,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -8122,67 +8116,67 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8191,16 +8185,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8208,67 +8202,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>138</v>
+      </c>
+      <c r="J87">
+        <v>4.333</v>
+      </c>
+      <c r="K87">
         <v>4</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>140</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="K87">
-        <v>3.75</v>
-      </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8277,16 +8271,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8297,16 +8291,16 @@
         <v>7517001</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45255.375</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8315,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J88">
         <v>4.5</v>
@@ -8383,16 +8377,16 @@
         <v>7517298</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45255.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8401,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J89">
         <v>1.1</v>
@@ -8469,16 +8463,16 @@
         <v>7520698</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45256.375</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -8487,7 +8481,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8555,16 +8549,16 @@
         <v>7543280</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45262.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8573,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8641,16 +8635,16 @@
         <v>7548461</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45263.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8659,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8727,16 +8721,16 @@
         <v>7837899</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8745,7 +8739,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8813,16 +8807,16 @@
         <v>7842190</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45339.4375</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8831,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8899,16 +8893,16 @@
         <v>7870732</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45345.625</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8917,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8985,16 +8979,16 @@
         <v>7877818</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9003,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9071,16 +9065,16 @@
         <v>7890718</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9089,7 +9083,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9157,7 +9151,7 @@
         <v>7899046</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45352.625</v>
@@ -9166,7 +9160,7 @@
         <v>73</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9175,7 +9169,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9243,16 +9237,16 @@
         <v>7899045</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45352.64583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9261,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9329,16 +9323,16 @@
         <v>7906238</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45353.5</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9347,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9415,16 +9409,16 @@
         <v>7905680</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9433,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9501,16 +9495,16 @@
         <v>7905679</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45354.47916666666</v>
       </c>
       <c r="E102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9519,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9587,16 +9581,16 @@
         <v>7919896</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45357.66666666666</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9605,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9673,16 +9667,16 @@
         <v>7928416</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45359.625</v>
       </c>
       <c r="E104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9691,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9759,16 +9753,16 @@
         <v>7928417</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -9777,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9845,16 +9839,16 @@
         <v>7930352</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45359.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -9863,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9931,16 +9925,16 @@
         <v>7940471</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45361.375</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9949,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -10017,16 +10011,16 @@
         <v>7950774</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -10035,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10103,16 +10097,16 @@
         <v>7955116</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45365.64583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10121,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10189,7 +10183,7 @@
         <v>7961296</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45366.625</v>
@@ -10198,7 +10192,7 @@
         <v>73</v>
       </c>
       <c r="F110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -10207,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10275,16 +10269,16 @@
         <v>7966121</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45367.58333333334</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10293,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10361,16 +10355,16 @@
         <v>7981940</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45371.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G112">
         <v>6</v>
@@ -10379,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10447,7 +10441,7 @@
         <v>7990779</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45373.625</v>
@@ -10456,7 +10450,7 @@
         <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10465,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10533,16 +10527,16 @@
         <v>7999724</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45375.4375</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10551,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10619,16 +10613,16 @@
         <v>7999723</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45375.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10637,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10705,16 +10699,16 @@
         <v>7999726</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45375.47916666666</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -10723,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10791,16 +10785,16 @@
         <v>8013719</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10809,7 +10803,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J117">
         <v>1.5</v>
@@ -10877,16 +10871,16 @@
         <v>8014741</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45378.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10895,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10963,7 +10957,7 @@
         <v>8017337</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45379.625</v>
@@ -10972,7 +10966,7 @@
         <v>73</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10981,7 +10975,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11049,16 +11043,16 @@
         <v>8026103</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -11067,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J120">
         <v>3.1</v>
@@ -11135,16 +11129,16 @@
         <v>8026102</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45381.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -11153,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J121">
         <v>1.1</v>
@@ -11221,16 +11215,16 @@
         <v>8026309</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11239,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11307,7 +11301,7 @@
         <v>8038989</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45383.375</v>
@@ -11316,7 +11310,7 @@
         <v>73</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11325,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J123">
         <v>1.444</v>
@@ -11393,16 +11387,16 @@
         <v>8038996</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45383.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11411,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J124">
         <v>1.75</v>
@@ -11479,16 +11473,16 @@
         <v>8039381</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11497,7 +11491,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J125">
         <v>3.25</v>
@@ -11565,16 +11559,16 @@
         <v>8039382</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45383.41666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" t="s">
         <v>93</v>
-      </c>
-      <c r="F126" t="s">
-        <v>94</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11583,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J126">
         <v>15</v>
@@ -11651,16 +11645,16 @@
         <v>8044263</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45385.625</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11669,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11737,16 +11731,16 @@
         <v>8044262</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45385.63125</v>
       </c>
       <c r="E128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11755,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11823,16 +11817,16 @@
         <v>8050953</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45387.58333333334</v>
       </c>
       <c r="E129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11841,7 +11835,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11909,16 +11903,16 @@
         <v>8055569</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F130" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11927,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J130">
         <v>3.5</v>
@@ -11995,16 +11989,16 @@
         <v>8054877</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -12013,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J131">
         <v>1.909</v>
@@ -12081,7 +12075,7 @@
         <v>8059745</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45389.29166666666</v>
@@ -12090,7 +12084,7 @@
         <v>64</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12099,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -12167,16 +12161,16 @@
         <v>8059762</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -12185,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J133">
         <v>1.3</v>
@@ -12253,16 +12247,16 @@
         <v>8074796</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45392.625</v>
       </c>
       <c r="E134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12271,7 +12265,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12339,7 +12333,7 @@
         <v>8083444</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45394.5625</v>
@@ -12348,7 +12342,7 @@
         <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12357,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J135">
         <v>2.05</v>
@@ -12425,16 +12419,16 @@
         <v>8083445</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -12443,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J136">
         <v>1.5</v>
@@ -12511,16 +12505,16 @@
         <v>8085441</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12529,7 +12523,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12597,16 +12591,16 @@
         <v>8091145</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12615,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12683,16 +12677,16 @@
         <v>8117714</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45401.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12701,7 +12695,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12769,16 +12763,16 @@
         <v>8114461</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45401.625</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12787,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12855,16 +12849,16 @@
         <v>8117590</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45402.33333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12873,7 +12867,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12941,16 +12935,16 @@
         <v>8121527</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12959,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -13024,85 +13018,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8121117</v>
+        <v>8121110</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J143">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L143">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O143">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R143">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T143">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13110,85 +13104,85 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>8121110</v>
+        <v>8121117</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F144" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T144">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13199,16 +13193,16 @@
         <v>8131039</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45405.60416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13217,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J145">
         <v>1.85</v>
@@ -13285,16 +13279,16 @@
         <v>8136061</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45406.55208333334</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F146" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13303,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J146">
         <v>2.4</v>
@@ -13371,16 +13365,16 @@
         <v>8143691</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13389,7 +13383,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J147">
         <v>4.5</v>
@@ -13457,16 +13451,16 @@
         <v>8143692</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45408.625</v>
       </c>
       <c r="E148" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13475,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J148">
         <v>1.8</v>
@@ -13533,71 +13527,6 @@
       </c>
       <c r="AB148">
         <v>0.825</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45409.375</v>
-      </c>
-      <c r="E149" t="s">
-        <v>102</v>
-      </c>
-      <c r="F149" t="s">
-        <v>135</v>
-      </c>
-      <c r="J149">
-        <v>1.25</v>
-      </c>
-      <c r="K149">
-        <v>6</v>
-      </c>
-      <c r="L149">
-        <v>7</v>
-      </c>
-      <c r="M149">
-        <v>1.25</v>
-      </c>
-      <c r="N149">
-        <v>6</v>
-      </c>
-      <c r="O149">
-        <v>6.5</v>
-      </c>
-      <c r="P149">
-        <v>-1.75</v>
-      </c>
-      <c r="Q149">
-        <v>1.775</v>
-      </c>
-      <c r="R149">
-        <v>2.025</v>
-      </c>
-      <c r="S149">
-        <v>4</v>
-      </c>
-      <c r="T149">
-        <v>1.9</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -112,10 +112,10 @@
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
+    <t>FV Preussen Eberswalde</t>
+  </si>
+  <si>
     <t>SV Altldersdorf</t>
-  </si>
-  <si>
-    <t>FV Preussen Eberswalde</t>
   </si>
   <si>
     <t>Fuchse Berlin Reinickendorf</t>
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1248,70 +1248,70 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K6">
+        <v>3.75</v>
+      </c>
+      <c r="L6">
+        <v>2.5</v>
+      </c>
+      <c r="M6">
+        <v>2.25</v>
+      </c>
+      <c r="N6">
+        <v>3.75</v>
+      </c>
+      <c r="O6">
+        <v>2.5</v>
+      </c>
+      <c r="P6">
+        <v>-0.25</v>
+      </c>
+      <c r="Q6">
+        <v>2.05</v>
+      </c>
+      <c r="R6">
+        <v>1.75</v>
+      </c>
+      <c r="S6">
         <v>3.5</v>
       </c>
-      <c r="L6">
-        <v>2.7</v>
-      </c>
-      <c r="M6">
-        <v>1.727</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-      <c r="P6">
-        <v>-0.5</v>
-      </c>
-      <c r="Q6">
-        <v>1.775</v>
-      </c>
-      <c r="R6">
-        <v>2.025</v>
-      </c>
-      <c r="S6">
-        <v>3.25</v>
-      </c>
       <c r="T6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y6">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1334,70 +1334,70 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q7">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -2096,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138608</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2105,76 +2105,76 @@
         <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J16">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W16">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2182,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2191,76 +2191,76 @@
         <v>45168.625</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O17">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q17">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8125,58 +8125,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
         <v>138</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8185,16 +8185,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -8211,58 +8211,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>138</v>
       </c>
       <c r="J87">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M87">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8271,16 +8271,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -10017,7 +10017,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>89</v>
@@ -10880,7 +10880,7 @@
         <v>88</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>1</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -103,33 +103,33 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>Magdeburg II</t>
+  </si>
+  <si>
     <t>SV Dessau 05</t>
   </si>
   <si>
-    <t>Magdeburg II</t>
+    <t>FV Preussen Eberswalde</t>
   </si>
   <si>
     <t>FSV Saxonia Tangermunde</t>
   </si>
   <si>
-    <t>FV Preussen Eberswalde</t>
-  </si>
-  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
+    <t>Rot Weiss Walldorf II</t>
+  </si>
+  <si>
+    <t>SC Charlottenburg</t>
+  </si>
+  <si>
     <t>SSC Teutonia 99</t>
   </si>
   <si>
-    <t>SC Charlottenburg</t>
-  </si>
-  <si>
-    <t>Rot Weiss Walldorf II</t>
-  </si>
-  <si>
     <t>SG Bornheim 1945 GrunWeiss</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>TSG 1846 Bretzenheim</t>
   </si>
   <si>
+    <t>SV Stern Britz</t>
+  </si>
+  <si>
+    <t>Frohnauer SC</t>
+  </si>
+  <si>
     <t>FSV Spandauer Kickers</t>
   </si>
   <si>
-    <t>Frohnauer SC</t>
-  </si>
-  <si>
-    <t>SV Stern Britz</t>
-  </si>
-  <si>
     <t>SV Fortuna Magdeburg</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>SG Schneifel</t>
   </si>
   <si>
+    <t>RotWeiss Frankfurt</t>
+  </si>
+  <si>
     <t>FCA 04 Darmstadt</t>
   </si>
   <si>
-    <t>RotWeiss Frankfurt</t>
-  </si>
-  <si>
     <t>Germania OberRoden</t>
   </si>
   <si>
@@ -202,15 +202,15 @@
     <t>Ahrweiler BC</t>
   </si>
   <si>
+    <t>1 FC Lok Stendal</t>
+  </si>
+  <si>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
     <t>Berliner SC</t>
   </si>
   <si>
-    <t>1 FC Lok Stendal</t>
-  </si>
-  <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -226,27 +226,27 @@
     <t>SC Dortelweil</t>
   </si>
   <si>
+    <t>SG 2000 MulheimKarlich</t>
+  </si>
+  <si>
     <t>SV Blau Weiss Dolau</t>
   </si>
   <si>
-    <t>SG 2000 MulheimKarlich</t>
+    <t>BSV HalleAmmendorf</t>
+  </si>
+  <si>
+    <t>TuS Hornau</t>
   </si>
   <si>
     <t>SG RotWeiss Thalheim</t>
   </si>
   <si>
-    <t>BSV HalleAmmendorf</t>
-  </si>
-  <si>
-    <t>TuS Hornau</t>
+    <t>FSV TrierTarforst</t>
   </si>
   <si>
     <t>SV Eintracht WaldMichelbach</t>
   </si>
   <si>
-    <t>FSV TrierTarforst</t>
-  </si>
-  <si>
     <t>VfB Wissen</t>
   </si>
   <si>
@@ -286,15 +286,15 @@
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
+    <t>SG Union Klosterfelde</t>
+  </si>
+  <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>FC Ederbergland</t>
   </si>
   <si>
-    <t>SG Union Klosterfelde</t>
-  </si>
-  <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -319,34 +319,37 @@
     <t>VfB Bretten</t>
   </si>
   <si>
+    <t>SSC Weissenfels</t>
+  </si>
+  <si>
     <t>SV Frankonia Wernsdorf</t>
   </si>
   <si>
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>SV 1908 GW Ahrensfelde</t>
+  </si>
+  <si>
     <t>MSC Preussen 1899</t>
   </si>
   <si>
-    <t>SV 1908 GW Ahrensfelde</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
+    <t>VSG Altglienicke II</t>
+  </si>
+  <si>
     <t>Berlin Turkspor</t>
   </si>
   <si>
-    <t>VSG Altglienicke II</t>
-  </si>
-  <si>
     <t>SD Croatia Berlin</t>
   </si>
   <si>
+    <t>BFC Preussen</t>
+  </si>
+  <si>
     <t>TSV Rudow</t>
-  </si>
-  <si>
-    <t>BFC Preussen</t>
   </si>
   <si>
     <t>FC Waldbrunn</t>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -913,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2">
         <v>1.833</v>
@@ -978,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6776470</v>
+        <v>6776469</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -990,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -999,64 +1002,64 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>2.15</v>
+        <v>1.05</v>
       </c>
       <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>-3</v>
+      </c>
+      <c r="Q3">
+        <v>1.9</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
         <v>3.5</v>
       </c>
-      <c r="O3">
-        <v>2.7</v>
-      </c>
-      <c r="P3">
-        <v>-0.25</v>
-      </c>
-      <c r="Q3">
-        <v>1.975</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>4</v>
-      </c>
       <c r="T3">
+        <v>1.775</v>
+      </c>
+      <c r="U3">
         <v>1.925</v>
       </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
       <c r="V3">
         <v>-1</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1064,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6776469</v>
+        <v>6776470</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1076,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1085,64 +1088,64 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>19</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>19</v>
+        <v>2.7</v>
       </c>
       <c r="P4">
-        <v>-3</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1150,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781301</v>
+        <v>6781286</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1162,70 +1165,70 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J5">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N5">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
         <v>3.5</v>
       </c>
       <c r="T5">
+        <v>1.975</v>
+      </c>
+      <c r="U5">
         <v>1.825</v>
       </c>
-      <c r="U5">
-        <v>1.975</v>
-      </c>
       <c r="V5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA5">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1236,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6781286</v>
+        <v>6781301</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1248,70 +1251,70 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6">
+        <v>1.65</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1.45</v>
+      </c>
+      <c r="N6">
+        <v>4.5</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6">
-        <v>2.25</v>
-      </c>
-      <c r="K6">
-        <v>3.75</v>
-      </c>
-      <c r="L6">
-        <v>2.5</v>
-      </c>
-      <c r="M6">
-        <v>2.25</v>
-      </c>
-      <c r="N6">
-        <v>3.75</v>
-      </c>
-      <c r="O6">
-        <v>2.5</v>
-      </c>
       <c r="P6">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q6">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
         <v>3.5</v>
       </c>
       <c r="T6">
+        <v>1.825</v>
+      </c>
+      <c r="U6">
         <v>1.975</v>
       </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
       <c r="V6">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
         <v>-1</v>
@@ -1334,7 +1337,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1343,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J7">
         <v>2.2</v>
@@ -1420,7 +1423,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1494,64 +1497,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7089718</v>
+        <v>7089720</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45158.25</v>
+        <v>45158.33333333334</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9">
+        <v>4.25</v>
+      </c>
+      <c r="K9">
+        <v>3.75</v>
+      </c>
+      <c r="L9">
+        <v>1.65</v>
+      </c>
+      <c r="M9">
+        <v>4.2</v>
+      </c>
+      <c r="N9">
+        <v>3.75</v>
+      </c>
+      <c r="O9">
+        <v>1.666</v>
+      </c>
+      <c r="P9">
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <v>1.975</v>
+      </c>
+      <c r="R9">
+        <v>1.825</v>
+      </c>
+      <c r="S9">
+        <v>3.75</v>
+      </c>
+      <c r="T9">
         <v>1.8</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>3.25</v>
-      </c>
-      <c r="M9">
-        <v>2.375</v>
-      </c>
-      <c r="N9">
-        <v>3.8</v>
-      </c>
-      <c r="O9">
-        <v>2.45</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1.85</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>3.5</v>
-      </c>
-      <c r="T9">
-        <v>1.975</v>
-      </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V9">
         <v>-1</v>
@@ -1560,19 +1563,19 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>1.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1601,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J10">
         <v>1.65</v>
@@ -1666,65 +1669,65 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7089720</v>
+        <v>7089718</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>45158.33333333334</v>
+        <v>45158.25</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11">
-        <v>4.25</v>
-      </c>
-      <c r="K11">
-        <v>3.75</v>
-      </c>
       <c r="L11">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="P11">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q11">
+        <v>1.85</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>3.5</v>
+      </c>
+      <c r="T11">
         <v>1.975</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>3.75</v>
-      </c>
-      <c r="T11">
-        <v>1.8</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
         <v>-1</v>
       </c>
@@ -1732,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>0.6659999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.95</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.825</v>
-      </c>
-      <c r="AA11">
-        <v>0.8</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1764,7 +1767,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1773,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1859,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1945,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -2010,85 +2013,85 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7138606</v>
+        <v>7138607</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45168.58333333334</v>
+        <v>45168.625</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T15">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2096,85 +2099,85 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138607</v>
+        <v>7138606</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45168.625</v>
+        <v>45168.58333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16">
+        <v>1.909</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16">
-        <v>2.25</v>
-      </c>
-      <c r="K16">
-        <v>3.75</v>
-      </c>
-      <c r="L16">
-        <v>2.5</v>
-      </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T16">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2203,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J17">
         <v>1.083</v>
@@ -2268,49 +2271,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7142348</v>
+        <v>7142389</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>45169.60416666666</v>
+        <v>45169.63541666666</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J18">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="K18">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="N18">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q18">
         <v>1.85</v>
@@ -2319,16 +2322,16 @@
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>0.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2337,16 +2340,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2354,49 +2357,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7142389</v>
+        <v>7142348</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>45169.63541666666</v>
+        <v>45169.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J19">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="K19">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P19">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q19">
         <v>1.85</v>
@@ -2405,16 +2408,16 @@
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2423,16 +2426,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2440,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2449,73 +2452,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20">
+        <v>3.75</v>
+      </c>
+      <c r="K20">
+        <v>4.333</v>
+      </c>
+      <c r="L20">
+        <v>1.615</v>
+      </c>
+      <c r="M20">
+        <v>3.75</v>
+      </c>
+      <c r="N20">
+        <v>4.333</v>
+      </c>
+      <c r="O20">
+        <v>1.615</v>
+      </c>
+      <c r="P20">
+        <v>0.75</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.9</v>
+      </c>
+      <c r="U20">
+        <v>1.9</v>
+      </c>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20">
-        <v>1.4</v>
-      </c>
-      <c r="K20">
-        <v>4.8</v>
-      </c>
-      <c r="L20">
-        <v>5.25</v>
-      </c>
-      <c r="M20">
-        <v>1.4</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>-1.25</v>
-      </c>
-      <c r="Q20">
-        <v>1.8</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>3.5</v>
-      </c>
-      <c r="T20">
-        <v>1.925</v>
-      </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>-1</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>4</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2526,7 +2529,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2535,73 +2538,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="K21">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="L21">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N21">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
       <c r="AA21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2612,58 +2615,58 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7157070</v>
+        <v>7157073</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>45172.25</v>
+        <v>45172.3125</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="N22">
         <v>4.75</v>
       </c>
       <c r="O22">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="P22">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q22">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="R22">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S22">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>1.8</v>
@@ -2675,22 +2678,22 @@
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.4625</v>
+        <v>0.7</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2698,85 +2701,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7157071</v>
+        <v>7157072</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>45172.27083333334</v>
+        <v>45172.29166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K23">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T23">
+        <v>1.925</v>
+      </c>
+      <c r="U23">
         <v>1.875</v>
       </c>
-      <c r="U23">
-        <v>1.925</v>
-      </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2784,85 +2787,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7157072</v>
+        <v>7157071</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>45172.29166666666</v>
+        <v>45172.27083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J24">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K24">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N24">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q24">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T24">
+        <v>1.875</v>
+      </c>
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="U24">
-        <v>1.875</v>
-      </c>
       <c r="V24">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2870,58 +2873,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7157073</v>
+        <v>7157070</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45172.3125</v>
+        <v>45172.25</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>140</v>
       </c>
       <c r="J25">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L25">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>4.75</v>
       </c>
       <c r="O25">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="P25">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="R25">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T25">
         <v>1.8</v>
@@ -2933,22 +2936,22 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X25">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
-        <v>0.7</v>
+        <v>0.4625</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2968,7 +2971,7 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2977,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J26">
         <v>2.625</v>
@@ -3054,7 +3057,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3063,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J27">
         <v>19</v>
@@ -3128,49 +3131,49 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7179408</v>
+        <v>7179426</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45177.58333333334</v>
+        <v>45177.625</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O28">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q28">
         <v>1.9</v>
@@ -3179,7 +3182,7 @@
         <v>1.9</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T28">
         <v>1.8</v>
@@ -3188,19 +3191,19 @@
         <v>2</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3214,49 +3217,49 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7179426</v>
+        <v>7179408</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>45177.625</v>
+        <v>45177.58333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J29">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M29">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O29">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P29">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>1.9</v>
@@ -3265,7 +3268,7 @@
         <v>1.9</v>
       </c>
       <c r="S29">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="T29">
         <v>1.8</v>
@@ -3274,19 +3277,19 @@
         <v>2</v>
       </c>
       <c r="V29">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3321,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3386,85 +3389,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7190657</v>
+        <v>7190617</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>45179.33333333334</v>
+        <v>45179.41666666666</v>
       </c>
       <c r="E31" t="s">
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="s">
         <v>140</v>
       </c>
       <c r="J31">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M31">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
         <v>4</v>
       </c>
       <c r="O31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
         <v>4.25</v>
       </c>
       <c r="T31">
+        <v>1.85</v>
+      </c>
+      <c r="U31">
         <v>1.95</v>
       </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X31">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3472,85 +3475,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7190617</v>
+        <v>7190657</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45179.41666666666</v>
+        <v>45179.33333333334</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J32">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
       <c r="L32">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M32">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
         <v>4</v>
       </c>
       <c r="O32">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>4.25</v>
       </c>
       <c r="T32">
+        <v>1.95</v>
+      </c>
+      <c r="U32">
         <v>1.85</v>
       </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3570,7 +3573,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3579,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3644,67 +3647,67 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7211567</v>
+        <v>7211566</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>45184.60416666666</v>
+        <v>45184.625</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J34">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K34">
         <v>4.333</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P34">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
         <v>3.5</v>
       </c>
       <c r="T34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3713,13 +3716,13 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
         <v>-1</v>
@@ -3730,67 +3733,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7211566</v>
+        <v>7211567</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2">
-        <v>45184.625</v>
+        <v>45184.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J35">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="K35">
         <v>4.333</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="N35">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
         <v>3.5</v>
       </c>
       <c r="T35">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>0.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3799,13 +3802,13 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3828,7 +3831,7 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3837,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J36">
         <v>1.909</v>
@@ -3914,7 +3917,7 @@
         <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3923,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J37">
         <v>1.75</v>
@@ -4009,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>3.1</v>
@@ -4086,7 +4089,7 @@
         <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4095,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -4181,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -4258,7 +4261,7 @@
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4267,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4344,7 +4347,7 @@
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -4353,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4418,85 +4421,85 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7248793</v>
+        <v>7248441</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>45193.25</v>
+        <v>45193.375</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43">
+        <v>3.25</v>
+      </c>
+      <c r="K43">
+        <v>3.8</v>
+      </c>
+      <c r="L43">
+        <v>1.833</v>
+      </c>
+      <c r="M43">
+        <v>2.7</v>
+      </c>
+      <c r="N43">
+        <v>3.75</v>
+      </c>
+      <c r="O43">
+        <v>2.1</v>
+      </c>
+      <c r="P43">
+        <v>0.25</v>
+      </c>
+      <c r="Q43">
+        <v>1.85</v>
+      </c>
+      <c r="R43">
+        <v>1.95</v>
+      </c>
+      <c r="S43">
         <v>3</v>
       </c>
-      <c r="I43" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43">
-        <v>1.5</v>
-      </c>
-      <c r="K43">
-        <v>3.6</v>
-      </c>
-      <c r="L43">
-        <v>6</v>
-      </c>
-      <c r="M43">
-        <v>1.5</v>
-      </c>
-      <c r="N43">
-        <v>3.6</v>
-      </c>
-      <c r="O43">
-        <v>6</v>
-      </c>
-      <c r="P43">
-        <v>-1.25</v>
-      </c>
-      <c r="Q43">
-        <v>1.95</v>
-      </c>
-      <c r="R43">
-        <v>1.85</v>
-      </c>
-      <c r="S43">
-        <v>3.75</v>
-      </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4504,58 +4507,58 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7248792</v>
+        <v>7248791</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>45193.3125</v>
+        <v>45193.375</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44">
+        <v>2.75</v>
+      </c>
+      <c r="K44">
         <v>4</v>
       </c>
-      <c r="I44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J44">
-        <v>3.5</v>
-      </c>
-      <c r="K44">
-        <v>4.2</v>
-      </c>
       <c r="L44">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T44">
         <v>1.8</v>
@@ -4570,13 +4573,13 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>0.363</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
         <v>0.8</v>
@@ -4599,7 +4602,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>66</v>
@@ -4611,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J45">
         <v>3.1</v>
@@ -4676,49 +4679,49 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7248441</v>
+        <v>7248792</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>45193.375</v>
+        <v>45193.3125</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J46">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K46">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L46">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="N46">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O46">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="P46">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
         <v>1.85</v>
@@ -4727,7 +4730,7 @@
         <v>1.95</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T46">
         <v>1.8</v>
@@ -4736,19 +4739,19 @@
         <v>2</v>
       </c>
       <c r="V46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
         <v>0.8</v>
@@ -4762,64 +4765,64 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7248791</v>
+        <v>7248793</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2">
-        <v>45193.375</v>
+        <v>45193.25</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J47">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P47">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
         <v>-1</v>
@@ -4828,19 +4831,19 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4857,7 +4860,7 @@
         <v>45197.625</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
         <v>83</v>
@@ -4869,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J48">
         <v>1.3</v>
@@ -4946,7 +4949,7 @@
         <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4955,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J49">
         <v>1.083</v>
@@ -5041,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J50">
         <v>6</v>
@@ -5127,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5204,7 +5207,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5213,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J52">
         <v>1.166</v>
@@ -5290,7 +5293,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5299,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J53">
         <v>1.4</v>
@@ -5385,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5471,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5536,58 +5539,58 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7338459</v>
+        <v>7338424</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45213.45833333334</v>
+        <v>45213.52083333334</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J56">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>5.5</v>
+      </c>
+      <c r="M56">
+        <v>1.363</v>
+      </c>
+      <c r="N56">
+        <v>5.25</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>-1.5</v>
+      </c>
+      <c r="Q56">
+        <v>1.85</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
         <v>4.5</v>
-      </c>
-      <c r="L56">
-        <v>3.4</v>
-      </c>
-      <c r="M56">
-        <v>1.666</v>
-      </c>
-      <c r="N56">
-        <v>4.5</v>
-      </c>
-      <c r="O56">
-        <v>3.3</v>
-      </c>
-      <c r="P56">
-        <v>-0.75</v>
-      </c>
-      <c r="Q56">
-        <v>1.875</v>
-      </c>
-      <c r="R56">
-        <v>1.925</v>
-      </c>
-      <c r="S56">
-        <v>3.75</v>
       </c>
       <c r="T56">
         <v>1.85</v>
@@ -5596,25 +5599,25 @@
         <v>1.95</v>
       </c>
       <c r="V56">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5634,7 +5637,7 @@
         <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5643,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>6.5</v>
@@ -5708,58 +5711,58 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338424</v>
+        <v>7338459</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45213.52083333334</v>
+        <v>45213.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J58">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L58">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="N58">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T58">
         <v>1.85</v>
@@ -5768,25 +5771,25 @@
         <v>1.95</v>
       </c>
       <c r="V58">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5803,7 +5806,7 @@
         <v>45214.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -5815,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J59">
         <v>2.6</v>
@@ -5901,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J60">
         <v>2.375</v>
@@ -5966,67 +5969,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7363017</v>
+        <v>7362937</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2">
-        <v>45219.58333333334</v>
+        <v>45219.625</v>
       </c>
       <c r="E61" t="s">
         <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="K61">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="L61">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="N61">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q61">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -6035,16 +6038,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6052,67 +6055,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7362937</v>
+        <v>7363017</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>45219.625</v>
+        <v>45219.58333333334</v>
       </c>
       <c r="E62" t="s">
         <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J62">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K62">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M62">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O62">
+        <v>2.8</v>
+      </c>
+      <c r="P62">
+        <v>-0.5</v>
+      </c>
+      <c r="Q62">
+        <v>1.95</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>4</v>
       </c>
-      <c r="P62">
-        <v>-1.25</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>4.5</v>
-      </c>
       <c r="T62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6121,16 +6124,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -6159,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J63">
         <v>1.615</v>
@@ -6236,7 +6239,7 @@
         <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6245,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J64">
         <v>1.166</v>
@@ -6319,7 +6322,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
@@ -6331,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J65">
         <v>2.5</v>
@@ -6417,7 +6420,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J66">
         <v>4.5</v>
@@ -6482,7 +6485,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7423702</v>
+        <v>7423701</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6494,37 +6497,37 @@
         <v>72</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K67">
         <v>4.5</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="M67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <v>4.5</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q67">
         <v>1.85</v>
@@ -6533,7 +6536,7 @@
         <v>1.95</v>
       </c>
       <c r="S67">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T67">
         <v>1.85</v>
@@ -6545,10 +6548,10 @@
         <v>-1</v>
       </c>
       <c r="W67">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6568,22 +6571,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423701</v>
+        <v>7423699</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45233.625</v>
+        <v>45233.66666666666</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6592,61 +6595,61 @@
         <v>140</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K68">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L68">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N68">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O68">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="P68">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="T68">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
         <v>-1</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X68">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6663,10 +6666,10 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6675,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J69">
         <v>1.727</v>
@@ -6740,85 +6743,85 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423699</v>
+        <v>7423702</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45233.66666666666</v>
+        <v>45233.625</v>
       </c>
       <c r="E70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J70">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O70">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T70">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6826,49 +6829,49 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7426759</v>
+        <v>7426760</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>45234.5</v>
+        <v>45234.5625</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>1.9</v>
@@ -6877,34 +6880,34 @@
         <v>1.9</v>
       </c>
       <c r="S71">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U71">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6912,49 +6915,49 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7426760</v>
+        <v>7426759</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2">
-        <v>45234.5625</v>
+        <v>45234.5</v>
       </c>
       <c r="E72" t="s">
         <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
         <v>139</v>
       </c>
       <c r="J72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K72">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N72">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q72">
         <v>1.9</v>
@@ -6963,34 +6966,34 @@
         <v>1.9</v>
       </c>
       <c r="S72">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V72">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W72">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7019,7 +7022,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J73">
         <v>6</v>
@@ -7096,7 +7099,7 @@
         <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7105,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -7182,7 +7185,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7191,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J75">
         <v>2.6</v>
@@ -7268,7 +7271,7 @@
         <v>55</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7277,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J76">
         <v>1.727</v>
@@ -7354,7 +7357,7 @@
         <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G77">
         <v>6</v>
@@ -7363,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J77">
         <v>1.666</v>
@@ -7449,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7526,7 +7529,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -7535,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7609,10 +7612,10 @@
         <v>45247.66666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7621,7 +7624,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J80">
         <v>1.533</v>
@@ -7695,7 +7698,7 @@
         <v>45249.375</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s">
         <v>69</v>
@@ -7707,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -7793,7 +7796,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J82">
         <v>1.8</v>
@@ -7870,7 +7873,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7879,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J83">
         <v>1.85</v>
@@ -7956,7 +7959,7 @@
         <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7965,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -8030,19 +8033,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7511977</v>
+        <v>7511958</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8051,46 +8054,46 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J85">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="M85">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
         <v>4</v>
       </c>
       <c r="O85">
+        <v>1.571</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1.875</v>
+      </c>
+      <c r="R85">
+        <v>1.925</v>
+      </c>
+      <c r="S85">
         <v>3.75</v>
       </c>
-      <c r="P85">
-        <v>-0.75</v>
-      </c>
-      <c r="Q85">
+      <c r="T85">
         <v>1.925</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>1.875</v>
       </c>
-      <c r="S85">
-        <v>3.5</v>
-      </c>
-      <c r="T85">
-        <v>1.85</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
       <c r="V85">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8099,16 +8102,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8116,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511958</v>
+        <v>7511976</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8125,58 +8128,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J86">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8185,16 +8188,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8202,67 +8205,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511976</v>
+        <v>7511977</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K87">
         <v>3.75</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
         <v>3.5</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8271,16 +8274,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8288,64 +8291,64 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7517001</v>
+        <v>7517298</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>45255.375</v>
+        <v>45255.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J88">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="K88">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="L88">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="M88">
-        <v>4.5</v>
+        <v>1.142</v>
       </c>
       <c r="N88">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="O88">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>-2.5</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
         <v>-1</v>
@@ -8354,19 +8357,19 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8374,64 +8377,64 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7517298</v>
+        <v>7517001</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45255.58333333334</v>
+        <v>45255.375</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J89">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="K89">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L89">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="M89">
-        <v>1.142</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="P89">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8440,19 +8443,19 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8469,7 +8472,7 @@
         <v>45256.375</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
         <v>78</v>
@@ -8481,7 +8484,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J90">
         <v>1.75</v>
@@ -8558,7 +8561,7 @@
         <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8567,7 +8570,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J91">
         <v>1.666</v>
@@ -8641,7 +8644,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
         <v>68</v>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8730,7 +8733,7 @@
         <v>54</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8739,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J93">
         <v>2.75</v>
@@ -8813,10 +8816,10 @@
         <v>45339.4375</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8825,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J94">
         <v>3.1</v>
@@ -8899,10 +8902,10 @@
         <v>45345.625</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -8997,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J96">
         <v>4.5</v>
@@ -9083,7 +9086,7 @@
         <v>5</v>
       </c>
       <c r="I97" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -9157,10 +9160,10 @@
         <v>45352.625</v>
       </c>
       <c r="E98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9169,7 +9172,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J98">
         <v>2.25</v>
@@ -9246,7 +9249,7 @@
         <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9255,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J99">
         <v>2.7</v>
@@ -9332,7 +9335,7 @@
         <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G100">
         <v>3</v>
@@ -9341,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J100">
         <v>1.45</v>
@@ -9415,7 +9418,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F101" t="s">
         <v>67</v>
@@ -9427,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9513,7 +9516,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -9599,7 +9602,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J103">
         <v>2.75</v>
@@ -9664,67 +9667,67 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7928416</v>
+        <v>7930352</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2">
-        <v>45359.625</v>
+        <v>45359.66666666666</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F104" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J104">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
         <v>3.75</v>
       </c>
-      <c r="L104">
-        <v>2.25</v>
-      </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N104">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O104">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>3.5</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>3</v>
-      </c>
-      <c r="T104">
-        <v>1.925</v>
-      </c>
-      <c r="U104">
-        <v>1.875</v>
-      </c>
       <c r="V104">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9733,16 +9736,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9771,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J105">
         <v>2.25</v>
@@ -9836,85 +9839,85 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7930352</v>
+        <v>7928416</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2">
-        <v>45359.66666666666</v>
+        <v>45359.625</v>
       </c>
       <c r="E106" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+      <c r="J106">
+        <v>2.5</v>
+      </c>
+      <c r="K106">
+        <v>3.75</v>
+      </c>
+      <c r="L106">
+        <v>2.25</v>
+      </c>
+      <c r="M106">
+        <v>2.5</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
+        <v>2.25</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>1.8</v>
+      </c>
+      <c r="S106">
         <v>3</v>
       </c>
-      <c r="H106">
+      <c r="T106">
+        <v>1.925</v>
+      </c>
+      <c r="U106">
+        <v>1.875</v>
+      </c>
+      <c r="V106">
+        <v>1.5</v>
+      </c>
+      <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>138</v>
-      </c>
-      <c r="J106">
-        <v>1.666</v>
-      </c>
-      <c r="K106">
-        <v>4</v>
-      </c>
-      <c r="L106">
-        <v>3.75</v>
-      </c>
-      <c r="M106">
-        <v>1.65</v>
-      </c>
-      <c r="N106">
-        <v>4</v>
-      </c>
-      <c r="O106">
-        <v>4</v>
-      </c>
-      <c r="P106">
-        <v>-0.75</v>
-      </c>
-      <c r="Q106">
-        <v>1.85</v>
-      </c>
-      <c r="R106">
-        <v>1.95</v>
-      </c>
-      <c r="S106">
-        <v>3.5</v>
-      </c>
-      <c r="T106">
-        <v>2</v>
-      </c>
-      <c r="U106">
-        <v>1.8</v>
-      </c>
-      <c r="V106">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="W106">
-        <v>-1</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z106">
-        <v>-1</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
       <c r="AB106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9931,10 +9934,10 @@
         <v>45361.375</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9943,7 +9946,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J107">
         <v>1.5</v>
@@ -10017,7 +10020,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
         <v>89</v>
@@ -10029,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J108">
         <v>1.909</v>
@@ -10115,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -10189,10 +10192,10 @@
         <v>45366.625</v>
       </c>
       <c r="E110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -10201,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10287,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J111">
         <v>1.25</v>
@@ -10373,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J112">
         <v>1.333</v>
@@ -10447,10 +10450,10 @@
         <v>45373.625</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F113" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10459,7 +10462,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J113">
         <v>1.909</v>
@@ -10536,7 +10539,7 @@
         <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10545,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J114">
         <v>1.833</v>
@@ -10622,7 +10625,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10631,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J115">
         <v>2.5</v>
@@ -10717,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J116">
         <v>2.5</v>
@@ -10782,7 +10785,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8013719</v>
+        <v>8014741</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10791,76 +10794,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
         <v>140</v>
       </c>
       <c r="J117">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M117">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X117">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10868,7 +10871,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8014741</v>
+        <v>8013719</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10877,76 +10880,76 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K118">
+        <v>4.75</v>
+      </c>
+      <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
+        <v>1.444</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>4.75</v>
+      </c>
+      <c r="P118">
+        <v>-1.25</v>
+      </c>
+      <c r="Q118">
+        <v>1.85</v>
+      </c>
+      <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>4</v>
       </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118">
-        <v>4</v>
-      </c>
-      <c r="O118">
-        <v>2.8</v>
-      </c>
-      <c r="P118">
-        <v>-0.25</v>
-      </c>
-      <c r="Q118">
-        <v>1.825</v>
-      </c>
-      <c r="R118">
-        <v>1.975</v>
-      </c>
-      <c r="S118">
-        <v>4.25</v>
-      </c>
       <c r="T118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10963,7 +10966,7 @@
         <v>45379.625</v>
       </c>
       <c r="E119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F119" t="s">
         <v>48</v>
@@ -10975,7 +10978,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J119">
         <v>1.8</v>
@@ -11040,7 +11043,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8026103</v>
+        <v>8026102</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -11049,40 +11052,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F120" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
         <v>1</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J120">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="K120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="O120">
-        <v>1.909</v>
+        <v>15</v>
       </c>
       <c r="P120">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="Q120">
         <v>1.85</v>
@@ -11091,34 +11094,34 @@
         <v>1.95</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="Y120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11126,7 +11129,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026102</v>
+        <v>8026103</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -11135,40 +11138,40 @@
         <v>45381.41666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
         <v>0</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
       <c r="I121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J121">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="K121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="L121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="M121">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>15</v>
+        <v>1.909</v>
       </c>
       <c r="P121">
-        <v>-2.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q121">
         <v>1.85</v>
@@ -11177,34 +11180,34 @@
         <v>1.95</v>
       </c>
       <c r="S121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11224,7 +11227,7 @@
         <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11233,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J122">
         <v>1.8</v>
@@ -11298,85 +11301,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8038989</v>
+        <v>8039381</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2">
-        <v>45383.375</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J123">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L123">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="M123">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O123">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="P123">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11384,85 +11387,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8038996</v>
+        <v>8039382</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45383.39583333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J124">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="K124">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="M124">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="P124">
-        <v>-0.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11470,85 +11473,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8039381</v>
+        <v>8038996</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
         <v>1</v>
       </c>
-      <c r="H125">
-        <v>3</v>
-      </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J125">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L125">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N125">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11556,85 +11559,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8039382</v>
+        <v>8038989</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.375</v>
       </c>
       <c r="E126" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F126" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
         <v>0</v>
       </c>
-      <c r="H126">
-        <v>4</v>
-      </c>
       <c r="I126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J126">
-        <v>15</v>
+        <v>1.444</v>
       </c>
       <c r="K126">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="L126">
-        <v>1.111</v>
+        <v>5.25</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>1.444</v>
       </c>
       <c r="N126">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="O126">
-        <v>1.111</v>
+        <v>5.25</v>
       </c>
       <c r="P126">
-        <v>2.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T126">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11663,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11740,7 +11743,7 @@
         <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -11749,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11826,7 +11829,7 @@
         <v>50</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11835,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11900,67 +11903,67 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8055569</v>
+        <v>8054877</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="E130" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J130">
+        <v>1.909</v>
+      </c>
+      <c r="K130">
+        <v>3.75</v>
+      </c>
+      <c r="L130">
+        <v>3.1</v>
+      </c>
+      <c r="M130">
+        <v>1.909</v>
+      </c>
+      <c r="N130">
+        <v>3.8</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>-0.5</v>
+      </c>
+      <c r="Q130">
+        <v>1.975</v>
+      </c>
+      <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
         <v>3.5</v>
       </c>
-      <c r="K130">
-        <v>4</v>
-      </c>
-      <c r="L130">
-        <v>1.727</v>
-      </c>
-      <c r="M130">
-        <v>3.5</v>
-      </c>
-      <c r="N130">
-        <v>4</v>
-      </c>
-      <c r="O130">
-        <v>1.727</v>
-      </c>
-      <c r="P130">
-        <v>0.75</v>
-      </c>
-      <c r="Q130">
-        <v>1.85</v>
-      </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>3.75</v>
-      </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>2.5</v>
+        <v>0.909</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11969,7 +11972,7 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z130">
         <v>-1</v>
@@ -11978,7 +11981,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11986,67 +11989,67 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8054877</v>
+        <v>8055569</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F131" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J131">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>1.727</v>
+      </c>
+      <c r="M131">
+        <v>3.5</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131">
+        <v>1.727</v>
+      </c>
+      <c r="P131">
+        <v>0.75</v>
+      </c>
+      <c r="Q131">
+        <v>1.85</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
         <v>3.75</v>
       </c>
-      <c r="L131">
-        <v>3.1</v>
-      </c>
-      <c r="M131">
-        <v>1.909</v>
-      </c>
-      <c r="N131">
-        <v>3.8</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
-      <c r="P131">
-        <v>-0.5</v>
-      </c>
-      <c r="Q131">
-        <v>1.975</v>
-      </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
-      <c r="S131">
-        <v>3.5</v>
-      </c>
       <c r="T131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>0.909</v>
+        <v>2.5</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12055,7 +12058,7 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z131">
         <v>-1</v>
@@ -12064,7 +12067,7 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -12072,49 +12075,49 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8059745</v>
+        <v>8059762</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="2">
-        <v>45389.29166666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J132">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K132">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L132">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="M132">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="N132">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="O132">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="P132">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q132">
         <v>1.925</v>
@@ -12123,34 +12126,34 @@
         <v>1.875</v>
       </c>
       <c r="S132">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z132">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -12158,49 +12161,49 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8059762</v>
+        <v>8059745</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
       </c>
       <c r="D133" s="2">
-        <v>45389.41666666666</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="E133" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>3</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
       <c r="I133" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J133">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="K133">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L133">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M133">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="N133">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="P133">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q133">
         <v>1.925</v>
@@ -12209,34 +12212,34 @@
         <v>1.875</v>
       </c>
       <c r="S133">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
+        <v>0.875</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0</v>
-      </c>
       <c r="AB133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12265,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J134">
         <v>2.5</v>
@@ -12330,22 +12333,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8083444</v>
+        <v>8083445</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>45394.5625</v>
+        <v>45394.60416666666</v>
       </c>
       <c r="E135" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F135" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12354,61 +12357,61 @@
         <v>139</v>
       </c>
       <c r="J135">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K135">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L135">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="N135">
         <v>3.8</v>
       </c>
       <c r="O135">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q135">
+        <v>2</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135">
+        <v>1.925</v>
+      </c>
+      <c r="U135">
         <v>1.875</v>
       </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>3.25</v>
-      </c>
-      <c r="T135">
-        <v>1.85</v>
-      </c>
-      <c r="U135">
-        <v>1.95</v>
-      </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z135">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12416,85 +12419,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8083445</v>
+        <v>8083444</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>45394.60416666666</v>
+        <v>45394.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F136" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J136">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="K136">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L136">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="M136">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
         <v>3.8</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P136">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12523,7 +12526,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12600,7 +12603,7 @@
         <v>96</v>
       </c>
       <c r="F138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12683,10 +12686,10 @@
         <v>45401.58333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12695,7 +12698,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J139">
         <v>2.25</v>
@@ -12772,7 +12775,7 @@
         <v>79</v>
       </c>
       <c r="F140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12781,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J140">
         <v>2.35</v>
@@ -12858,7 +12861,7 @@
         <v>97</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12867,7 +12870,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12944,7 +12947,7 @@
         <v>98</v>
       </c>
       <c r="F142" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12953,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J142">
         <v>1.333</v>
@@ -13030,7 +13033,7 @@
         <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13039,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J143">
         <v>2</v>
@@ -13113,10 +13116,10 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
+        <v>52</v>
+      </c>
+      <c r="F144" t="s">
         <v>53</v>
-      </c>
-      <c r="F144" t="s">
-        <v>52</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13125,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J144">
         <v>2.7</v>
@@ -13202,7 +13205,7 @@
         <v>99</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13211,7 +13214,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J145">
         <v>1.85</v>
@@ -13285,10 +13288,10 @@
         <v>45406.55208333334</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -13297,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J146">
         <v>2.4</v>
@@ -13362,85 +13365,85 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8143691</v>
+        <v>8143692</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45408.58333333334</v>
+        <v>45408.625</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F147" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G147">
         <v>2</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
         <v>139</v>
       </c>
       <c r="J147">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="K147">
         <v>4.5</v>
       </c>
       <c r="L147">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M147">
+        <v>1.8</v>
+      </c>
+      <c r="N147">
         <v>4.5</v>
       </c>
-      <c r="N147">
-        <v>4.75</v>
-      </c>
       <c r="O147">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
         <v>3.75</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W147">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
         <v>0.825</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.5</v>
-      </c>
-      <c r="AB147">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13448,85 +13451,171 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>8143692</v>
+        <v>8143691</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45408.625</v>
+        <v>45408.58333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F148" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G148">
         <v>2</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J148">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="K148">
         <v>4.5</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M148">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="N148">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P148">
-        <v>-0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
         <v>3.75</v>
       </c>
       <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>1.8</v>
+      </c>
+      <c r="V148">
+        <v>-1</v>
+      </c>
+      <c r="W148">
+        <v>3.75</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>0.825</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.5</v>
+      </c>
+      <c r="AB148">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>8147478</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45409.375</v>
+      </c>
+      <c r="E149" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" t="s">
+        <v>134</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>140</v>
+      </c>
+      <c r="J149">
+        <v>1.25</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+      <c r="L149">
+        <v>7</v>
+      </c>
+      <c r="M149">
+        <v>1.25</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149">
+        <v>6.5</v>
+      </c>
+      <c r="P149">
+        <v>-2</v>
+      </c>
+      <c r="Q149">
         <v>1.975</v>
       </c>
-      <c r="U148">
+      <c r="R149">
         <v>1.825</v>
       </c>
-      <c r="V148">
-        <v>0.8</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.9</v>
+      </c>
+      <c r="U149">
+        <v>1.9</v>
+      </c>
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
+        <v>5</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>0.825</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -109,27 +109,27 @@
     <t>SV Dessau 05</t>
   </si>
   <si>
+    <t>SV Altldersdorf</t>
+  </si>
+  <si>
+    <t>FSV Saxonia Tangermunde</t>
+  </si>
+  <si>
     <t>FV Preussen Eberswalde</t>
   </si>
   <si>
-    <t>FSV Saxonia Tangermunde</t>
-  </si>
-  <si>
-    <t>SV Altldersdorf</t>
-  </si>
-  <si>
     <t>Fuchse Berlin Reinickendorf</t>
   </si>
   <si>
+    <t>SSC Teutonia 99</t>
+  </si>
+  <si>
+    <t>SC Charlottenburg</t>
+  </si>
+  <si>
     <t>Rot Weiss Walldorf II</t>
   </si>
   <si>
-    <t>SC Charlottenburg</t>
-  </si>
-  <si>
-    <t>SSC Teutonia 99</t>
-  </si>
-  <si>
     <t>SG Bornheim 1945 GrunWeiss</t>
   </si>
   <si>
@@ -139,27 +139,27 @@
     <t>TSV 1881 GauOdernheim</t>
   </si>
   <si>
+    <t>SV UnterFlockenbach</t>
+  </si>
+  <si>
     <t>Sportfreunde Seligenstadt</t>
   </si>
   <si>
-    <t>SV UnterFlockenbach</t>
-  </si>
-  <si>
     <t>RotWeiss Hadamar</t>
   </si>
   <si>
     <t>TSG 1846 Bretzenheim</t>
   </si>
   <si>
+    <t>FSV Spandauer Kickers</t>
+  </si>
+  <si>
+    <t>Frohnauer SC</t>
+  </si>
+  <si>
     <t>SV Stern Britz</t>
   </si>
   <si>
-    <t>Frohnauer SC</t>
-  </si>
-  <si>
-    <t>FSV Spandauer Kickers</t>
-  </si>
-  <si>
     <t>SV Fortuna Magdeburg</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>SG Schneifel</t>
   </si>
   <si>
+    <t>FCA 04 Darmstadt</t>
+  </si>
+  <si>
     <t>RotWeiss Frankfurt</t>
   </si>
   <si>
-    <t>FCA 04 Darmstadt</t>
-  </si>
-  <si>
     <t>Germania OberRoden</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>DJK Bad Homburg</t>
   </si>
   <si>
+    <t>Ahrweiler BC</t>
+  </si>
+  <si>
     <t>BlauWeiss 90 Berlin</t>
   </si>
   <si>
-    <t>Ahrweiler BC</t>
-  </si>
-  <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>TuS Hornau</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
     <t>FSV TrierTarforst</t>
   </si>
   <si>
@@ -286,15 +286,15 @@
     <t>Brandenburger SC Sd 05</t>
   </si>
   <si>
+    <t>FC Ederbergland</t>
+  </si>
+  <si>
+    <t>FC Burgsolms</t>
+  </si>
+  <si>
     <t>SG Union Klosterfelde</t>
   </si>
   <si>
-    <t>FC Burgsolms</t>
-  </si>
-  <si>
-    <t>FC Ederbergland</t>
-  </si>
-  <si>
     <t>TSV Steinbach II</t>
   </si>
   <si>
@@ -328,28 +328,28 @@
     <t>1 FC BitterfeldWolfen</t>
   </si>
   <si>
+    <t>MSC Preussen 1899</t>
+  </si>
+  <si>
     <t>SV 1908 GW Ahrensfelde</t>
   </si>
   <si>
-    <t>MSC Preussen 1899</t>
-  </si>
-  <si>
     <t>TSV Mariendorf 1897</t>
   </si>
   <si>
+    <t>Berlin Turkspor</t>
+  </si>
+  <si>
     <t>VSG Altglienicke II</t>
   </si>
   <si>
-    <t>Berlin Turkspor</t>
-  </si>
-  <si>
     <t>SD Croatia Berlin</t>
   </si>
   <si>
+    <t>TSV Rudow</t>
+  </si>
+  <si>
     <t>BFC Preussen</t>
-  </si>
-  <si>
-    <t>TSV Rudow</t>
   </si>
   <si>
     <t>FC Waldbrunn</t>
@@ -993,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781286</v>
+        <v>6781300</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1165,70 +1165,70 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J5">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="N5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q5">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1251,7 +1251,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6781300</v>
+        <v>6781286</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1337,70 +1337,70 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>2.25</v>
+      </c>
+      <c r="N7">
+        <v>3.75</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7">
+        <v>-0.25</v>
+      </c>
+      <c r="Q7">
+        <v>2.05</v>
+      </c>
+      <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
         <v>3.5</v>
       </c>
-      <c r="L7">
-        <v>2.7</v>
-      </c>
-      <c r="M7">
-        <v>1.727</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>-0.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.775</v>
-      </c>
-      <c r="R7">
-        <v>2.025</v>
-      </c>
-      <c r="S7">
-        <v>3.25</v>
-      </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1497,65 +1497,65 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7089720</v>
+        <v>7089718</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>45158.33333333334</v>
+        <v>45158.25</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>141</v>
       </c>
       <c r="J9">
-        <v>4.25</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="P9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>3.5</v>
+      </c>
+      <c r="T9">
         <v>1.975</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>1.825</v>
       </c>
-      <c r="S9">
-        <v>3.75</v>
-      </c>
-      <c r="T9">
-        <v>1.8</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
         <v>-1</v>
       </c>
@@ -1563,19 +1563,19 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>0.6659999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.95</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
         <v>0.825</v>
-      </c>
-      <c r="AA9">
-        <v>0.8</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1595,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1669,64 +1669,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7089718</v>
+        <v>7089720</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>45158.25</v>
+        <v>45158.33333333334</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>141</v>
       </c>
       <c r="J11">
+        <v>4.25</v>
+      </c>
+      <c r="K11">
+        <v>3.75</v>
+      </c>
+      <c r="L11">
+        <v>1.65</v>
+      </c>
+      <c r="M11">
+        <v>4.2</v>
+      </c>
+      <c r="N11">
+        <v>3.75</v>
+      </c>
+      <c r="O11">
+        <v>1.666</v>
+      </c>
+      <c r="P11">
+        <v>0.75</v>
+      </c>
+      <c r="Q11">
+        <v>1.975</v>
+      </c>
+      <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
+        <v>3.75</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>3.25</v>
-      </c>
-      <c r="M11">
-        <v>2.375</v>
-      </c>
-      <c r="N11">
-        <v>3.8</v>
-      </c>
-      <c r="O11">
-        <v>2.45</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1.85</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>3.5</v>
-      </c>
-      <c r="T11">
-        <v>1.975</v>
-      </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2013,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7138607</v>
+        <v>7138608</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2022,76 +2022,76 @@
         <v>45168.625</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J15">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="N15">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O15">
-        <v>2.45</v>
+        <v>13</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="Q15">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2099,85 +2099,85 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7138606</v>
+        <v>7138607</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>45168.58333333334</v>
+        <v>45168.625</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J16">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T16">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2185,85 +2185,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7138608</v>
+        <v>7138606</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45168.625</v>
+        <v>45168.58333333334</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="N17">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="O17">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q17">
+        <v>1.975</v>
+      </c>
+      <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
+        <v>3.25</v>
+      </c>
+      <c r="T17">
         <v>1.775</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.925</v>
       </c>
-      <c r="S17">
-        <v>4.25</v>
-      </c>
-      <c r="T17">
-        <v>1.975</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
       <c r="V17">
         <v>-1</v>
       </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2271,49 +2271,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7142389</v>
+        <v>7142348</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>45169.63541666666</v>
+        <v>45169.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>139</v>
       </c>
       <c r="J18">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P18">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q18">
         <v>1.85</v>
@@ -2322,16 +2322,16 @@
         <v>1.95</v>
       </c>
       <c r="S18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>0.6659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2340,16 +2340,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2357,49 +2357,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7142348</v>
+        <v>7142389</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>45169.60416666666</v>
+        <v>45169.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>139</v>
       </c>
       <c r="J19">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q19">
         <v>1.85</v>
@@ -2408,16 +2408,16 @@
         <v>1.95</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>0.45</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2426,16 +2426,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2443,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7149361</v>
+        <v>7149166</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2452,73 +2452,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="K20">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="L20">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="M20">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N20">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>-1</v>
-      </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2529,7 +2529,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7149166</v>
+        <v>7149361</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -2538,73 +2538,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21">
+        <v>3.75</v>
+      </c>
+      <c r="K21">
+        <v>4.333</v>
+      </c>
+      <c r="L21">
+        <v>1.615</v>
+      </c>
+      <c r="M21">
+        <v>3.75</v>
+      </c>
+      <c r="N21">
+        <v>4.333</v>
+      </c>
+      <c r="O21">
+        <v>1.615</v>
+      </c>
+      <c r="P21">
+        <v>0.75</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>3.75</v>
+      </c>
+      <c r="T21">
+        <v>1.9</v>
+      </c>
+      <c r="U21">
+        <v>1.9</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21">
-        <v>1.4</v>
-      </c>
-      <c r="K21">
-        <v>4.8</v>
-      </c>
-      <c r="L21">
-        <v>5.25</v>
-      </c>
-      <c r="M21">
-        <v>1.4</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>-1.25</v>
-      </c>
-      <c r="Q21">
-        <v>1.8</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>3.5</v>
-      </c>
-      <c r="T21">
-        <v>1.925</v>
-      </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>-1</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2615,13 +2615,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7157073</v>
+        <v>7157071</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>45172.3125</v>
+        <v>45172.27083333334</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -2633,46 +2633,46 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
         <v>141</v>
       </c>
       <c r="J22">
+        <v>1.727</v>
+      </c>
+      <c r="K22">
         <v>4.5</v>
       </c>
-      <c r="K22">
-        <v>4.2</v>
-      </c>
       <c r="L22">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="N22">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="P22">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q22">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R22">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
         <v>-1</v>
@@ -2681,19 +2681,19 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>0.363</v>
+        <v>2.2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2701,85 +2701,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7157072</v>
+        <v>7157070</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>45172.29166666666</v>
+        <v>45172.25</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J23">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M23">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="O23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q23">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
         <v>3.75</v>
       </c>
       <c r="T23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2787,85 +2787,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7157071</v>
+        <v>7157072</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>45172.27083333334</v>
+        <v>45172.29166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J24">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K24">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M24">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="N24">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P24">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T24">
+        <v>1.925</v>
+      </c>
+      <c r="U24">
         <v>1.875</v>
       </c>
-      <c r="U24">
-        <v>1.925</v>
-      </c>
       <c r="V24">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2873,58 +2873,58 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7157070</v>
+        <v>7157073</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>45172.25</v>
+        <v>45172.3125</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="K25">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="N25">
         <v>4.75</v>
       </c>
       <c r="O25">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="P25">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q25">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S25">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>1.8</v>
@@ -2936,22 +2936,22 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4625</v>
+        <v>0.7</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3131,49 +3131,49 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7179426</v>
+        <v>7179408</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>45177.625</v>
+        <v>45177.58333333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J28">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M28">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P28">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>1.9</v>
@@ -3182,7 +3182,7 @@
         <v>1.9</v>
       </c>
       <c r="S28">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <v>1.8</v>
@@ -3191,19 +3191,19 @@
         <v>2</v>
       </c>
       <c r="V28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z28">
-        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3217,49 +3217,49 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7179408</v>
+        <v>7179426</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>45177.58333333334</v>
+        <v>45177.625</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L29">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O29">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q29">
         <v>1.9</v>
@@ -3268,7 +3268,7 @@
         <v>1.9</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T29">
         <v>1.8</v>
@@ -3277,19 +3277,19 @@
         <v>2</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3315,7 +3315,7 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3389,85 +3389,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7190617</v>
+        <v>7190657</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>45179.41666666666</v>
+        <v>45179.33333333334</v>
       </c>
       <c r="E31" t="s">
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J31">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M31">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
         <v>4</v>
       </c>
       <c r="O31">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>4.25</v>
       </c>
       <c r="T31">
+        <v>1.95</v>
+      </c>
+      <c r="U31">
         <v>1.85</v>
       </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3475,85 +3475,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7190657</v>
+        <v>7190617</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>45179.33333333334</v>
+        <v>45179.41666666666</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
       <c r="L32">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N32">
         <v>4</v>
       </c>
       <c r="O32">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
         <v>4.25</v>
       </c>
       <c r="T32">
+        <v>1.85</v>
+      </c>
+      <c r="U32">
         <v>1.95</v>
       </c>
-      <c r="U32">
-        <v>1.85</v>
-      </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3573,7 +3573,7 @@
         <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3819,19 +3819,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7221879</v>
+        <v>7221880</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45186.27083333334</v>
+        <v>45186.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3843,34 +3843,34 @@
         <v>139</v>
       </c>
       <c r="J36">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="K36">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N36">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
         <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T36">
         <v>1.85</v>
@@ -3879,7 +3879,7 @@
         <v>1.95</v>
       </c>
       <c r="V36">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="W36">
         <v>-1</v>
@@ -3888,16 +3888,16 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3905,19 +3905,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7221880</v>
+        <v>7221879</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45186.41666666666</v>
+        <v>45186.27083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3929,34 +3929,34 @@
         <v>139</v>
       </c>
       <c r="J37">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="K37">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="N37">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P37">
         <v>-0.5</v>
       </c>
       <c r="Q37">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T37">
         <v>1.85</v>
@@ -3965,7 +3965,7 @@
         <v>1.95</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3974,16 +3974,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4249,67 +4249,67 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7244427</v>
+        <v>7244428</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2">
-        <v>45192.33333333334</v>
+        <v>45192.54166666666</v>
       </c>
       <c r="E41" t="s">
         <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
         <v>139</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K41">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L41">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N41">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O41">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
         <v>3.75</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4318,16 +4318,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4335,67 +4335,67 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7244428</v>
+        <v>7244427</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2">
-        <v>45192.54166666666</v>
+        <v>45192.33333333334</v>
       </c>
       <c r="E42" t="s">
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>139</v>
       </c>
       <c r="J42">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="M42">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="P42">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
         <v>3.75</v>
       </c>
       <c r="T42">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4404,16 +4404,16 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4602,7 +4602,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
         <v>66</v>
@@ -4691,7 +4691,7 @@
         <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4774,10 +4774,10 @@
         <v>45193.25</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>45197.625</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
         <v>83</v>
@@ -5032,10 +5032,10 @@
         <v>45199.375</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5207,7 +5207,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5367,28 +5367,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7333370</v>
+        <v>7333372</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2">
-        <v>45212.58333333334</v>
+        <v>45212.625</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J54">
         <v>1.8</v>
@@ -5400,49 +5400,49 @@
         <v>3.25</v>
       </c>
       <c r="M54">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P54">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5453,28 +5453,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7333372</v>
+        <v>7333370</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2">
-        <v>45212.625</v>
+        <v>45212.58333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J55">
         <v>1.8</v>
@@ -5486,49 +5486,49 @@
         <v>3.25</v>
       </c>
       <c r="M55">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T55">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5539,58 +5539,58 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7338424</v>
+        <v>7338459</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2">
-        <v>45213.52083333334</v>
+        <v>45213.45833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J56">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L56">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="N56">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T56">
         <v>1.85</v>
@@ -5599,25 +5599,25 @@
         <v>1.95</v>
       </c>
       <c r="V56">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5711,58 +5711,58 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7338459</v>
+        <v>7338424</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2">
-        <v>45213.45833333334</v>
+        <v>45213.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J58">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>5.5</v>
+      </c>
+      <c r="M58">
+        <v>1.363</v>
+      </c>
+      <c r="N58">
+        <v>5.25</v>
+      </c>
+      <c r="O58">
+        <v>5</v>
+      </c>
+      <c r="P58">
+        <v>-1.5</v>
+      </c>
+      <c r="Q58">
+        <v>1.85</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
         <v>4.5</v>
-      </c>
-      <c r="L58">
-        <v>3.4</v>
-      </c>
-      <c r="M58">
-        <v>1.666</v>
-      </c>
-      <c r="N58">
-        <v>4.5</v>
-      </c>
-      <c r="O58">
-        <v>3.3</v>
-      </c>
-      <c r="P58">
-        <v>-0.75</v>
-      </c>
-      <c r="Q58">
-        <v>1.875</v>
-      </c>
-      <c r="R58">
-        <v>1.925</v>
-      </c>
-      <c r="S58">
-        <v>3.75</v>
       </c>
       <c r="T58">
         <v>1.85</v>
@@ -5771,25 +5771,25 @@
         <v>1.95</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5806,7 +5806,7 @@
         <v>45214.33333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
         <v>59</v>
@@ -6236,7 +6236,7 @@
         <v>45227.52083333334</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
         <v>75</v>
@@ -6322,7 +6322,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
@@ -6571,85 +6571,85 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7423699</v>
+        <v>7423702</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45233.66666666666</v>
+        <v>45233.625</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
         <v>140</v>
       </c>
       <c r="J68">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L68">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N68">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O68">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T68">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
         <v>-1</v>
       </c>
       <c r="W68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6657,7 +6657,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7423700</v>
+        <v>7423699</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6666,76 +6666,76 @@
         <v>45233.66666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>140</v>
+      </c>
+      <c r="J69">
+        <v>2.2</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>2.2</v>
+      </c>
+      <c r="M69">
+        <v>2.2</v>
+      </c>
+      <c r="N69">
+        <v>4.75</v>
+      </c>
+      <c r="O69">
+        <v>2.2</v>
+      </c>
+      <c r="P69">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69">
-        <v>1.727</v>
-      </c>
-      <c r="K69">
-        <v>4.5</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>1.727</v>
-      </c>
-      <c r="N69">
-        <v>4.5</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
+      <c r="Q69">
+        <v>1.9</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>4.25</v>
+      </c>
+      <c r="T69">
+        <v>1.775</v>
+      </c>
+      <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
+        <v>-1</v>
+      </c>
+      <c r="W69">
+        <v>3.75</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>-0.5</v>
       </c>
-      <c r="Q69">
-        <v>1.775</v>
-      </c>
-      <c r="R69">
-        <v>2.025</v>
-      </c>
-      <c r="S69">
-        <v>3.5</v>
-      </c>
-      <c r="T69">
-        <v>1.85</v>
-      </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
-      <c r="V69">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="W69">
-        <v>-1</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6743,55 +6743,55 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7423702</v>
+        <v>7423700</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45233.625</v>
+        <v>45233.66666666666</v>
       </c>
       <c r="E70" t="s">
         <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J70">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="K70">
         <v>4.5</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
         <v>4.5</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
         <v>-0.5</v>
       </c>
       <c r="Q70">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
         <v>3.5</v>
@@ -6803,19 +6803,19 @@
         <v>1.95</v>
       </c>
       <c r="V70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W70">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -7013,7 +7013,7 @@
         <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7354,7 +7354,7 @@
         <v>45241.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
         <v>122</v>
@@ -7698,7 +7698,7 @@
         <v>45249.375</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
         <v>69</v>
@@ -8033,19 +8033,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7511958</v>
+        <v>7511977</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2">
-        <v>45254.66666666666</v>
+        <v>45254.64583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8057,43 +8057,43 @@
         <v>139</v>
       </c>
       <c r="J85">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="N85">
         <v>4</v>
       </c>
       <c r="O85">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q85">
+        <v>1.925</v>
+      </c>
+      <c r="R85">
         <v>1.875</v>
       </c>
-      <c r="R85">
-        <v>1.925</v>
-      </c>
       <c r="S85">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8102,16 +8102,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7511976</v>
+        <v>7511958</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8128,58 +8128,58 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="s">
         <v>139</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="M86">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
         <v>4</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="P86">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="W86">
         <v>-1</v>
@@ -8188,16 +8188,16 @@
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8205,67 +8205,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7511977</v>
+        <v>7511976</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2">
-        <v>45254.64583333334</v>
+        <v>45254.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F87" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>139</v>
       </c>
       <c r="J87">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K87">
         <v>3.75</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M87">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N87">
         <v>4</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
         <v>3.5</v>
       </c>
       <c r="T87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8274,16 +8274,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8300,7 +8300,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F88" t="s">
         <v>123</v>
@@ -8472,7 +8472,7 @@
         <v>45256.375</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
         <v>78</v>
@@ -8558,7 +8558,7 @@
         <v>45262.5625</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
         <v>126</v>
@@ -8644,7 +8644,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
         <v>68</v>
@@ -8816,7 +8816,7 @@
         <v>45339.4375</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
         <v>76</v>
@@ -8902,7 +8902,7 @@
         <v>45345.625</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F95" t="s">
         <v>120</v>
@@ -9409,49 +9409,49 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7905680</v>
+        <v>7905679</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2">
-        <v>45354.45833333334</v>
+        <v>45354.47916666666</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I101" t="s">
         <v>141</v>
       </c>
       <c r="J101">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L101">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O101">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="P101">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Q101">
         <v>1.85</v>
@@ -9463,10 +9463,10 @@
         <v>4</v>
       </c>
       <c r="T101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
         <v>-1</v>
@@ -9475,19 +9475,19 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="Y101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9495,49 +9495,49 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7905679</v>
+        <v>7905680</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="2">
-        <v>45354.47916666666</v>
+        <v>45354.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
         <v>141</v>
       </c>
       <c r="J102">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="M102">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O102">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Q102">
         <v>1.85</v>
@@ -9549,10 +9549,10 @@
         <v>4</v>
       </c>
       <c r="T102">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
         <v>-1</v>
@@ -9561,19 +9561,19 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z102">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9667,67 +9667,67 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7930352</v>
+        <v>7928416</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2">
-        <v>45359.66666666666</v>
+        <v>45359.625</v>
       </c>
       <c r="E104" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="s">
         <v>139</v>
       </c>
       <c r="J104">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L104">
+        <v>2.25</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
         <v>3.75</v>
       </c>
-      <c r="M104">
-        <v>1.65</v>
-      </c>
-      <c r="N104">
-        <v>4</v>
-      </c>
       <c r="O104">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9736,16 +9736,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9839,67 +9839,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7928416</v>
+        <v>7930352</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2">
-        <v>45359.625</v>
+        <v>45359.66666666666</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>139</v>
       </c>
       <c r="J106">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106">
         <v>3.75</v>
       </c>
-      <c r="L106">
-        <v>2.25</v>
-      </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O106">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R106">
+        <v>1.95</v>
+      </c>
+      <c r="S106">
+        <v>3.5</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
         <v>1.8</v>
       </c>
-      <c r="S106">
-        <v>3</v>
-      </c>
-      <c r="T106">
-        <v>1.925</v>
-      </c>
-      <c r="U106">
-        <v>1.875</v>
-      </c>
       <c r="V106">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9908,16 +9908,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -9934,10 +9934,10 @@
         <v>45361.375</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10020,7 +10020,7 @@
         <v>45364.64583333334</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
         <v>89</v>
@@ -10453,7 +10453,7 @@
         <v>72</v>
       </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10539,7 +10539,7 @@
         <v>54</v>
       </c>
       <c r="F114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -10797,7 +10797,7 @@
         <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11129,49 +11129,49 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8026103</v>
+        <v>8026309</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.5625</v>
       </c>
       <c r="E121" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J121">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
+        <v>1.8</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
         <v>3.2</v>
       </c>
-      <c r="N121">
-        <v>3.75</v>
-      </c>
-      <c r="O121">
-        <v>1.909</v>
-      </c>
       <c r="P121">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q121">
         <v>1.85</v>
@@ -11180,34 +11180,34 @@
         <v>1.95</v>
       </c>
       <c r="S121">
+        <v>3.5</v>
+      </c>
+      <c r="T121">
+        <v>1.825</v>
+      </c>
+      <c r="U121">
+        <v>1.975</v>
+      </c>
+      <c r="V121">
+        <v>-1</v>
+      </c>
+      <c r="W121">
         <v>3</v>
       </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
-      <c r="U121">
-        <v>1.8</v>
-      </c>
-      <c r="V121">
-        <v>2.2</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11215,49 +11215,49 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8026309</v>
+        <v>8026103</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45381.5625</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J122">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M122">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="P122">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q122">
         <v>1.85</v>
@@ -11266,34 +11266,34 @@
         <v>1.95</v>
       </c>
       <c r="S122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T122">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11301,85 +11301,85 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8039381</v>
+        <v>8038989</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.375</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J123">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="K123">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L123">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="N123">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O123">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="P123">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T123">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11387,85 +11387,85 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8039382</v>
+        <v>8038996</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J124">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="K124">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="L124">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="N124">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="O124">
-        <v>1.111</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11473,85 +11473,85 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8038996</v>
+        <v>8039382</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2">
-        <v>45383.39583333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J125">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="K125">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="M125">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>1.111</v>
       </c>
       <c r="P125">
-        <v>-0.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>0.111</v>
       </c>
       <c r="Y125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11559,85 +11559,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8038989</v>
+        <v>8039381</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2">
-        <v>45383.375</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J126">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="K126">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L126">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="M126">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="P126">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q126">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11645,67 +11645,67 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8044263</v>
+        <v>8044262</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2">
-        <v>45385.625</v>
+        <v>45385.63125</v>
       </c>
       <c r="E127" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="G127">
         <v>4</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>139</v>
       </c>
       <c r="J127">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="K127">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L127">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N127">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q127">
+        <v>1.85</v>
+      </c>
+      <c r="R127">
         <v>1.95</v>
       </c>
-      <c r="R127">
+      <c r="S127">
+        <v>4</v>
+      </c>
+      <c r="T127">
         <v>1.85</v>
       </c>
-      <c r="S127">
-        <v>3.75</v>
-      </c>
-      <c r="T127">
-        <v>1.925</v>
-      </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11714,16 +11714,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11731,67 +11731,67 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8044262</v>
+        <v>8044263</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45385.63125</v>
+        <v>45385.625</v>
       </c>
       <c r="E128" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="G128">
         <v>4</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
         <v>139</v>
       </c>
       <c r="J128">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K128">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q128">
+        <v>1.95</v>
+      </c>
+      <c r="R128">
         <v>1.85</v>
       </c>
-      <c r="R128">
-        <v>1.95</v>
-      </c>
       <c r="S128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11800,16 +11800,16 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11903,22 +11903,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8054877</v>
+        <v>8055569</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F130" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -11927,43 +11927,43 @@
         <v>139</v>
       </c>
       <c r="J130">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>1.727</v>
+      </c>
+      <c r="M130">
+        <v>3.5</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>1.727</v>
+      </c>
+      <c r="P130">
+        <v>0.75</v>
+      </c>
+      <c r="Q130">
+        <v>1.85</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
         <v>3.75</v>
       </c>
-      <c r="L130">
-        <v>3.1</v>
-      </c>
-      <c r="M130">
-        <v>1.909</v>
-      </c>
-      <c r="N130">
-        <v>3.8</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
-      <c r="P130">
-        <v>-0.5</v>
-      </c>
-      <c r="Q130">
-        <v>1.975</v>
-      </c>
-      <c r="R130">
-        <v>1.825</v>
-      </c>
-      <c r="S130">
-        <v>3.5</v>
-      </c>
       <c r="T130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>0.909</v>
+        <v>2.5</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11972,7 +11972,7 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z130">
         <v>-1</v>
@@ -11981,7 +11981,7 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11989,22 +11989,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8055569</v>
+        <v>8054877</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F131" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12013,43 +12013,43 @@
         <v>139</v>
       </c>
       <c r="J131">
+        <v>1.909</v>
+      </c>
+      <c r="K131">
+        <v>3.75</v>
+      </c>
+      <c r="L131">
+        <v>3.1</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
+        <v>3.8</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>-0.5</v>
+      </c>
+      <c r="Q131">
+        <v>1.975</v>
+      </c>
+      <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
         <v>3.5</v>
       </c>
-      <c r="K131">
-        <v>4</v>
-      </c>
-      <c r="L131">
-        <v>1.727</v>
-      </c>
-      <c r="M131">
-        <v>3.5</v>
-      </c>
-      <c r="N131">
-        <v>4</v>
-      </c>
-      <c r="O131">
-        <v>1.727</v>
-      </c>
-      <c r="P131">
-        <v>0.75</v>
-      </c>
-      <c r="Q131">
-        <v>1.85</v>
-      </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>3.75</v>
-      </c>
       <c r="T131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>2.5</v>
+        <v>0.909</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12058,7 +12058,7 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z131">
         <v>-1</v>
@@ -12067,7 +12067,7 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -12677,58 +12677,58 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8117714</v>
+        <v>8114461</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2">
-        <v>45401.58333333334</v>
+        <v>45401.625</v>
       </c>
       <c r="E139" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F139" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139" t="s">
         <v>141</v>
       </c>
       <c r="J139">
+        <v>2.35</v>
+      </c>
+      <c r="K139">
+        <v>4.2</v>
+      </c>
+      <c r="L139">
         <v>2.25</v>
       </c>
-      <c r="K139">
-        <v>3.5</v>
-      </c>
-      <c r="L139">
-        <v>2.6</v>
-      </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O139">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q139">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T139">
         <v>2</v>
@@ -12743,19 +12743,19 @@
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12763,58 +12763,58 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8114461</v>
+        <v>8117714</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2">
-        <v>45401.625</v>
+        <v>45401.58333333334</v>
       </c>
       <c r="E140" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
         <v>141</v>
       </c>
       <c r="J140">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K140">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L140">
+        <v>2.6</v>
+      </c>
+      <c r="M140">
         <v>2.25</v>
       </c>
-      <c r="M140">
-        <v>2.625</v>
-      </c>
       <c r="N140">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O140">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T140">
         <v>2</v>
@@ -12829,19 +12829,19 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -13116,10 +13116,10 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" t="s">
         <v>52</v>
-      </c>
-      <c r="F144" t="s">
-        <v>53</v>
       </c>
       <c r="G144">
         <v>2</v>

--- a/Germany Verbandsliga/Germany Verbandsliga.xlsx
+++ b/Germany Verbandsliga/Germany Verbandsliga.xlsx
@@ -103,12 +103,12 @@
     <t>SV Victoria Seelow</t>
   </si>
   <si>
+    <t>SV Dessau 05</t>
+  </si>
+  <si>
     <t>Magdeburg II</t>
   </si>
   <si>
-    <t>SV Dessau 05</t>
-  </si>
-  <si>
     <t>SV Altldersdorf</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>TSG 1846 Bretzenheim</t>
   </si>
   <si>
+    <t>Frohnauer SC</t>
+  </si>
+  <si>
+    <t>SV Stern Britz</t>
+  </si>
+  <si>
     <t>FSV Spandauer Kickers</t>
   </si>
   <si>
-    <t>Frohnauer SC</t>
-  </si>
-  <si>
-    <t>SV Stern Britz</t>
-  </si>
-  <si>
     <t>SV Fortuna Magdeburg</t>
   </si>
   <si>
@@ -196,21 +196,21 @@
     <t>DJK Bad Homburg</t>
   </si>
   <si>
+    <t>BlauWeiss 90 Berlin</t>
+  </si>
+  <si>
     <t>Ahrweiler BC</t>
   </si>
   <si>
-    <t>BlauWeiss 90 Berlin</t>
+    <t>Waldhof Mannheim II</t>
+  </si>
+  <si>
+    <t>Berliner SC</t>
   </si>
   <si>
     <t>1 FC Lok Stendal</t>
   </si>
   <si>
-    <t>Waldhof Mannheim II</t>
-  </si>
-  <si>
-    <t>Berliner SC</t>
-  </si>
-  <si>
     <t>FC Zuzenhausen</t>
   </si>
   <si>
@@ -232,21 +232,21 @@
     <t>SV Blau Weiss Dolau</t>
   </si>
   <si>
+    <t>TuS Hornau</t>
+  </si>
+  <si>
+    <t>SG RotWeiss Thalheim</t>
+  </si>
+  <si>
     <t>BSV HalleAmmendorf</t>
   </si>
   <si>
-    <t>SG RotWeiss Thalheim</t>
-  </si>
-  <si>
-    <t>TuS Hornau</t>
+    <t>SV Eintracht WaldMichelbach</t>
   </si>
   <s